--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -451,20 +451,14 @@
         <v>5.631999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.64</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>5.637999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>5.633999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -581,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -620,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -659,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -698,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -737,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -776,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -815,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -854,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -893,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -932,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -971,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1010,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1049,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1088,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1166,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1205,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1244,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1279,15 +1189,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1322,12 +1228,10 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1390,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -5272,20 +5176,14 @@
         <v>5.568000000000002</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>5.59</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5352,20 +5246,14 @@
         <v>5.568000000000002</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5393,20 +5281,14 @@
         <v>5.582000000000003</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5.54</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5434,20 +5316,14 @@
         <v>5.576000000000002</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5475,20 +5351,14 @@
         <v>5.590000000000003</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5522,14 +5392,12 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.58</v>
+      </c>
+      <c r="K143" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5565,10 +5433,12 @@
       <c r="J144" t="n">
         <v>5.61</v>
       </c>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5.58</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -5604,12 +5474,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
+        <v>5.62</v>
+      </c>
+      <c r="K145" t="n">
+        <v>5.58</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -5647,12 +5519,10 @@
       <c r="J146" t="n">
         <v>5.66</v>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5686,10 +5556,12 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5.66</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -5725,10 +5597,12 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5.66</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -5765,11 +5639,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5804,11 +5674,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5843,11 +5709,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5882,11 +5744,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5914,20 +5772,14 @@
         <v>5.584000000000004</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5955,20 +5807,14 @@
         <v>5.574000000000003</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>5.57</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5996,20 +5842,14 @@
         <v>5.562000000000004</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>5.57</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6037,20 +5877,14 @@
         <v>5.566000000000004</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>5.57</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6078,20 +5912,14 @@
         <v>5.568000000000004</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>5.57</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6119,20 +5947,14 @@
         <v>5.568000000000005</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>5.57</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6160,20 +5982,14 @@
         <v>5.572000000000005</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6201,20 +6017,14 @@
         <v>5.584000000000005</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>5.63</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6242,20 +6052,14 @@
         <v>5.586000000000004</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6283,20 +6087,14 @@
         <v>5.594000000000004</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>5.61</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6324,20 +6122,14 @@
         <v>5.596000000000004</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>5.59</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6365,20 +6157,14 @@
         <v>5.596000000000004</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6406,20 +6192,14 @@
         <v>5.598000000000004</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>5.63</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6447,20 +6227,14 @@
         <v>5.612000000000005</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>5.64</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6488,20 +6262,14 @@
         <v>5.620000000000005</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6529,20 +6297,14 @@
         <v>5.618000000000005</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +6339,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6616,11 +6374,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +6409,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6694,11 +6444,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6733,11 +6479,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6772,11 +6514,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6549,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6850,11 +6584,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6889,11 +6619,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6928,11 +6654,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6967,11 +6689,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6724,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7045,11 +6759,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +6794,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7123,11 +6829,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7162,11 +6864,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7201,11 +6899,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7240,11 +6934,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7279,11 +6969,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7318,11 +7004,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +7039,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7396,11 +7074,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7435,11 +7109,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7144,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +7179,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7552,11 +7214,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7591,11 +7249,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7630,11 +7284,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +7319,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7708,11 +7354,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +7389,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7786,11 +7424,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7825,11 +7459,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +7494,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +7529,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +7564,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +7599,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +7634,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +7669,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>5.64</v>
       </c>
       <c r="C2" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D2" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E2" t="n">
         <v>5.64</v>
       </c>
       <c r="F2" t="n">
-        <v>40579.3805</v>
+        <v>42790.8687</v>
       </c>
       <c r="G2" t="n">
-        <v>5.631999999999999</v>
+        <v>5.574499999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C3" t="n">
         <v>5.65</v>
@@ -477,13 +477,13 @@
         <v>5.65</v>
       </c>
       <c r="E3" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>40579.3805</v>
       </c>
       <c r="G3" t="n">
-        <v>5.637999999999999</v>
+        <v>5.577333333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>5.65</v>
       </c>
       <c r="C4" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D4" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="E4" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="F4" t="n">
-        <v>52063.506097349</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>5.633999999999999</v>
+        <v>5.578999999999997</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C5" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="D5" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="E5" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>52063.506097349</v>
       </c>
       <c r="G5" t="n">
-        <v>5.639999999999999</v>
+        <v>5.579166666666664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>5.64</v>
       </c>
       <c r="C6" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D6" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E6" t="n">
         <v>5.64</v>
       </c>
       <c r="F6" t="n">
-        <v>3239.6202</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>5.641999999999999</v>
+        <v>5.58033333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C7" t="n">
         <v>5.65</v>
@@ -617,13 +617,13 @@
         <v>5.65</v>
       </c>
       <c r="E7" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>3239.6202</v>
       </c>
       <c r="G7" t="n">
-        <v>5.641999999999999</v>
+        <v>5.58183333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>5.65</v>
       </c>
       <c r="F8" t="n">
-        <v>46744.6725</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5.641999999999999</v>
+        <v>5.58433333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>5.65</v>
       </c>
       <c r="F9" t="n">
-        <v>5860.3539</v>
+        <v>46744.6725</v>
       </c>
       <c r="G9" t="n">
-        <v>5.647999999999998</v>
+        <v>5.585166666666662</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>5.65</v>
       </c>
       <c r="F10" t="n">
-        <v>34993.9424</v>
+        <v>5860.3539</v>
       </c>
       <c r="G10" t="n">
-        <v>5.649999999999999</v>
+        <v>5.586166666666662</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="C11" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="D11" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="E11" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F11" t="n">
-        <v>29000</v>
+        <v>34993.9424</v>
       </c>
       <c r="G11" t="n">
-        <v>5.645999999999999</v>
+        <v>5.588333333333328</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="C12" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D12" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="E12" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>29000</v>
       </c>
       <c r="G12" t="n">
-        <v>5.648000000000001</v>
+        <v>5.588833333333328</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>5.66</v>
       </c>
       <c r="F13" t="n">
-        <v>189356.9963</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>5.650000000000001</v>
+        <v>5.591833333333328</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>5.66</v>
       </c>
       <c r="F14" t="n">
-        <v>4190.857802651</v>
+        <v>189356.9963</v>
       </c>
       <c r="G14" t="n">
-        <v>5.652000000000003</v>
+        <v>5.593166666666662</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="C15" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="D15" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="E15" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="F15" t="n">
-        <v>130</v>
+        <v>4190.857802651</v>
       </c>
       <c r="G15" t="n">
-        <v>5.658000000000003</v>
+        <v>5.594166666666663</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="C16" t="n">
         <v>5.68</v>
       </c>
-      <c r="C16" t="n">
-        <v>5.7</v>
-      </c>
       <c r="D16" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="E16" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="F16" t="n">
-        <v>417193.2621</v>
+        <v>130</v>
       </c>
       <c r="G16" t="n">
-        <v>5.672000000000003</v>
+        <v>5.595499999999996</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C17" t="n">
         <v>5.7</v>
       </c>
-      <c r="C17" t="n">
-        <v>5.71</v>
-      </c>
       <c r="D17" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="E17" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="F17" t="n">
-        <v>384845.1781</v>
+        <v>417193.2621</v>
       </c>
       <c r="G17" t="n">
-        <v>5.682000000000003</v>
+        <v>5.597333333333329</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C18" t="n">
         <v>5.71</v>
       </c>
-      <c r="C18" t="n">
-        <v>5.72</v>
-      </c>
       <c r="D18" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="E18" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="F18" t="n">
-        <v>211511.0783</v>
+        <v>384845.1781</v>
       </c>
       <c r="G18" t="n">
-        <v>5.694000000000004</v>
+        <v>5.599333333333329</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="C19" t="n">
         <v>5.72</v>
       </c>
-      <c r="C19" t="n">
-        <v>5.74</v>
-      </c>
       <c r="D19" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="E19" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="F19" t="n">
-        <v>388727.2438</v>
+        <v>211511.0783</v>
       </c>
       <c r="G19" t="n">
-        <v>5.710000000000003</v>
+        <v>5.602666666666663</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C20" t="n">
         <v>5.74</v>
       </c>
-      <c r="C20" t="n">
-        <v>5.79</v>
-      </c>
       <c r="D20" t="n">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="E20" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="F20" t="n">
-        <v>108475.0818</v>
+        <v>388727.2438</v>
       </c>
       <c r="G20" t="n">
-        <v>5.732000000000004</v>
+        <v>5.605166666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="C21" t="n">
         <v>5.79</v>
@@ -1107,13 +1107,13 @@
         <v>5.79</v>
       </c>
       <c r="E21" t="n">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="F21" t="n">
-        <v>399</v>
+        <v>108475.0818</v>
       </c>
       <c r="G21" t="n">
-        <v>5.750000000000004</v>
+        <v>5.610166666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>5.79</v>
       </c>
       <c r="C22" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="D22" t="n">
         <v>5.79</v>
       </c>
       <c r="E22" t="n">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
       <c r="F22" t="n">
-        <v>502270.0013</v>
+        <v>399</v>
       </c>
       <c r="G22" t="n">
-        <v>5.764000000000003</v>
+        <v>5.613833333333331</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,25 +1171,25 @@
         <v>5.79</v>
       </c>
       <c r="C23" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="D23" t="n">
         <v>5.79</v>
       </c>
       <c r="E23" t="n">
-        <v>5.79</v>
+        <v>5.77</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>502270.0013</v>
       </c>
       <c r="G23" t="n">
-        <v>5.778000000000003</v>
+        <v>5.617333333333331</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="C24" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="D24" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="E24" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="F24" t="n">
-        <v>37429.7707</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>5.776000000000003</v>
+        <v>5.620999999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>5.73</v>
       </c>
       <c r="C25" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="D25" t="n">
         <v>5.73</v>
       </c>
       <c r="E25" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="F25" t="n">
-        <v>26512.2647</v>
+        <v>37429.7707</v>
       </c>
       <c r="G25" t="n">
-        <v>5.762000000000003</v>
+        <v>5.623666666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,28 +1273,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="C26" t="n">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="D26" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="E26" t="n">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>26512.2647</v>
       </c>
       <c r="G26" t="n">
-        <v>5.754000000000003</v>
+        <v>5.626166666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1311,25 +1311,25 @@
         <v>5.75</v>
       </c>
       <c r="C27" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="D27" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="E27" t="n">
         <v>5.75</v>
       </c>
       <c r="F27" t="n">
-        <v>13268</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>5.750000000000003</v>
+        <v>5.629166666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1346,19 +1346,19 @@
         <v>5.75</v>
       </c>
       <c r="C28" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="D28" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="E28" t="n">
         <v>5.75</v>
       </c>
       <c r="F28" t="n">
-        <v>311885.9294</v>
+        <v>13268</v>
       </c>
       <c r="G28" t="n">
-        <v>5.746000000000002</v>
+        <v>5.633499999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="C29" t="n">
         <v>5.77</v>
       </c>
       <c r="D29" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="E29" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>311885.9294</v>
       </c>
       <c r="G29" t="n">
-        <v>5.754000000000003</v>
+        <v>5.636833333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="C30" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="D30" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="E30" t="n">
-        <v>5.73</v>
+        <v>5.77</v>
       </c>
       <c r="F30" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>5.762000000000003</v>
+        <v>5.639833333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="C31" t="n">
-        <v>5.73</v>
+        <v>5.76</v>
       </c>
       <c r="D31" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="E31" t="n">
         <v>5.73</v>
       </c>
       <c r="F31" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>5.758000000000004</v>
+        <v>5.642499999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="C32" t="n">
-        <v>5.69</v>
+        <v>5.73</v>
       </c>
       <c r="D32" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="E32" t="n">
-        <v>5.69</v>
+        <v>5.73</v>
       </c>
       <c r="F32" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="G32" t="n">
-        <v>5.744000000000004</v>
+        <v>5.644166666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.77</v>
+        <v>5.72</v>
       </c>
       <c r="C33" t="n">
-        <v>5.77</v>
+        <v>5.69</v>
       </c>
       <c r="D33" t="n">
-        <v>5.77</v>
+        <v>5.72</v>
       </c>
       <c r="E33" t="n">
-        <v>5.77</v>
+        <v>5.69</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>5.744000000000005</v>
+        <v>5.646166666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="C34" t="n">
         <v>5.77</v>
@@ -1562,13 +1562,13 @@
         <v>5.77</v>
       </c>
       <c r="E34" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="F34" t="n">
-        <v>137553.3368</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>5.744000000000005</v>
+        <v>5.648333333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="C35" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="D35" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="E35" t="n">
-        <v>5.78</v>
+        <v>5.76</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>137553.3368</v>
       </c>
       <c r="G35" t="n">
-        <v>5.748000000000005</v>
+        <v>5.650499999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>5.78</v>
       </c>
       <c r="C36" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="D36" t="n">
         <v>5.78</v>
       </c>
       <c r="E36" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="F36" t="n">
-        <v>56650.2832</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>5.756000000000004</v>
+        <v>5.652666666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="C37" t="n">
         <v>5.77</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.78</v>
       </c>
       <c r="D37" t="n">
         <v>5.78</v>
@@ -1670,10 +1670,10 @@
         <v>5.77</v>
       </c>
       <c r="F37" t="n">
-        <v>82246</v>
+        <v>56650.2832</v>
       </c>
       <c r="G37" t="n">
-        <v>5.774000000000003</v>
+        <v>5.656166666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="C38" t="n">
         <v>5.78</v>
@@ -1702,13 +1702,13 @@
         <v>5.78</v>
       </c>
       <c r="E38" t="n">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="F38" t="n">
-        <v>395837.6729</v>
+        <v>82246</v>
       </c>
       <c r="G38" t="n">
-        <v>5.776000000000002</v>
+        <v>5.660166666666664</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="C39" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="D39" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="E39" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>395837.6729</v>
       </c>
       <c r="G39" t="n">
-        <v>5.780000000000003</v>
+        <v>5.664499999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="C40" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="D40" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="E40" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="F40" t="n">
-        <v>8000</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>5.780000000000003</v>
+        <v>5.668166666666664</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="C41" t="n">
-        <v>5.67</v>
+        <v>5.78</v>
       </c>
       <c r="D41" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="E41" t="n">
-        <v>5.67</v>
+        <v>5.78</v>
       </c>
       <c r="F41" t="n">
-        <v>245723.2278</v>
+        <v>8000</v>
       </c>
       <c r="G41" t="n">
-        <v>5.760000000000003</v>
+        <v>5.672666666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C42" t="n">
         <v>5.67</v>
       </c>
-      <c r="C42" t="n">
-        <v>5.63</v>
-      </c>
       <c r="D42" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E42" t="n">
         <v>5.67</v>
       </c>
-      <c r="E42" t="n">
-        <v>5.63</v>
-      </c>
       <c r="F42" t="n">
-        <v>538836.9196</v>
+        <v>245723.2278</v>
       </c>
       <c r="G42" t="n">
-        <v>5.730000000000002</v>
+        <v>5.673833333333331</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="C43" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="D43" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="E43" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="F43" t="n">
-        <v>147691.4146</v>
+        <v>538836.9196</v>
       </c>
       <c r="G43" t="n">
-        <v>5.702000000000003</v>
+        <v>5.675833333333331</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C44" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D44" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E44" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="F44" t="n">
-        <v>5275</v>
+        <v>147691.4146</v>
       </c>
       <c r="G44" t="n">
-        <v>5.674000000000002</v>
+        <v>5.677333333333331</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,31 +1938,35 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="C45" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="D45" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="E45" t="n">
         <v>5.65</v>
       </c>
       <c r="F45" t="n">
-        <v>9857.168</v>
+        <v>5275</v>
       </c>
       <c r="G45" t="n">
-        <v>5.654000000000002</v>
+        <v>5.677666666666664</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5.64</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
@@ -1973,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C46" t="n">
         <v>5.68</v>
@@ -1982,23 +1986,31 @@
         <v>5.68</v>
       </c>
       <c r="E46" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="F46" t="n">
-        <v>306926.321</v>
+        <v>9857.168</v>
       </c>
       <c r="G46" t="n">
-        <v>5.656000000000001</v>
+        <v>5.680666666666664</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,32 +2020,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.75</v>
+        <v>5.67</v>
       </c>
       <c r="C47" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="D47" t="n">
-        <v>5.75</v>
+        <v>5.68</v>
       </c>
       <c r="E47" t="n">
-        <v>5.74</v>
+        <v>5.64</v>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>306926.321</v>
       </c>
       <c r="G47" t="n">
-        <v>5.678000000000003</v>
+        <v>5.68383333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,32 +2063,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="C48" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="D48" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="E48" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G48" t="n">
-        <v>5.704000000000002</v>
+        <v>5.687166666666664</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2106,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="C49" t="n">
-        <v>5.68</v>
+        <v>5.77</v>
       </c>
       <c r="D49" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="E49" t="n">
-        <v>5.68</v>
+        <v>5.77</v>
       </c>
       <c r="F49" t="n">
-        <v>4651.978</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>5.710000000000003</v>
+        <v>5.691666666666663</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2130,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2147,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="C50" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="D50" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="E50" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="F50" t="n">
-        <v>118</v>
+        <v>4651.978</v>
       </c>
       <c r="G50" t="n">
-        <v>5.706000000000001</v>
+        <v>5.693999999999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2171,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2160,10 +2200,10 @@
         <v>5.66</v>
       </c>
       <c r="F51" t="n">
-        <v>17632.796094903</v>
+        <v>118</v>
       </c>
       <c r="G51" t="n">
-        <v>5.702000000000003</v>
+        <v>5.695499999999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2212,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2229,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D52" t="n">
         <v>5.69</v>
       </c>
-      <c r="C52" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D52" t="n">
-        <v>5.8</v>
-      </c>
       <c r="E52" t="n">
-        <v>5.69</v>
+        <v>5.66</v>
       </c>
       <c r="F52" t="n">
-        <v>336412.187076303</v>
+        <v>17632.796094903</v>
       </c>
       <c r="G52" t="n">
-        <v>5.714000000000001</v>
+        <v>5.69633333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2253,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2270,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C53" t="n">
         <v>5.8</v>
       </c>
-      <c r="C53" t="n">
-        <v>5.82</v>
-      </c>
       <c r="D53" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="E53" t="n">
-        <v>5.8</v>
+        <v>5.69</v>
       </c>
       <c r="F53" t="n">
-        <v>286912.412528794</v>
+        <v>336412.187076303</v>
       </c>
       <c r="G53" t="n">
-        <v>5.724000000000002</v>
+        <v>5.69883333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2294,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2311,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C54" t="n">
         <v>5.82</v>
-      </c>
-      <c r="C54" t="n">
-        <v>5.81</v>
       </c>
       <c r="D54" t="n">
         <v>5.82</v>
       </c>
       <c r="E54" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="F54" t="n">
-        <v>89418.8024</v>
+        <v>286912.412528794</v>
       </c>
       <c r="G54" t="n">
-        <v>5.750000000000002</v>
+        <v>5.701666666666664</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2335,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,10 +2352,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C55" t="n">
         <v>5.81</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5.82</v>
       </c>
       <c r="D55" t="n">
         <v>5.82</v>
@@ -2300,10 +2364,10 @@
         <v>5.81</v>
       </c>
       <c r="F55" t="n">
-        <v>1517.1455</v>
+        <v>89418.8024</v>
       </c>
       <c r="G55" t="n">
-        <v>5.782000000000002</v>
+        <v>5.705166666666664</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2376,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,7 +2393,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="C56" t="n">
         <v>5.82</v>
@@ -2332,13 +2402,13 @@
         <v>5.82</v>
       </c>
       <c r="E56" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F56" t="n">
-        <v>90165</v>
+        <v>1517.1455</v>
       </c>
       <c r="G56" t="n">
-        <v>5.814000000000001</v>
+        <v>5.70833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2417,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2446,10 @@
         <v>5.82</v>
       </c>
       <c r="F57" t="n">
-        <v>5168.5815</v>
+        <v>90165</v>
       </c>
       <c r="G57" t="n">
-        <v>5.818</v>
+        <v>5.71133333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2458,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2475,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="C58" t="n">
         <v>5.82</v>
       </c>
       <c r="D58" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="E58" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="F58" t="n">
-        <v>39990.2848</v>
+        <v>5168.5815</v>
       </c>
       <c r="G58" t="n">
-        <v>5.818</v>
+        <v>5.714666666666663</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2499,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2516,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C59" t="n">
         <v>5.82</v>
       </c>
-      <c r="C59" t="n">
-        <v>5.8</v>
-      </c>
       <c r="D59" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="E59" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="F59" t="n">
-        <v>44</v>
+        <v>39990.2848</v>
       </c>
       <c r="G59" t="n">
-        <v>5.815999999999999</v>
+        <v>5.717999999999997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2540,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2557,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="C60" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D60" t="n">
-        <v>5.79</v>
+        <v>5.82</v>
       </c>
       <c r="E60" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F60" t="n">
-        <v>60063.0769</v>
+        <v>44</v>
       </c>
       <c r="G60" t="n">
-        <v>5.805999999999999</v>
+        <v>5.720666666666664</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2581,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2598,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C61" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="D61" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="E61" t="n">
-        <v>5.8</v>
+        <v>5.77</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>60063.0769</v>
       </c>
       <c r="G61" t="n">
-        <v>5.801999999999998</v>
+        <v>5.72333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2622,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,7 +2639,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.69</v>
+        <v>5.8</v>
       </c>
       <c r="C62" t="n">
         <v>5.8</v>
@@ -2542,13 +2648,13 @@
         <v>5.8</v>
       </c>
       <c r="E62" t="n">
-        <v>5.68</v>
+        <v>5.8</v>
       </c>
       <c r="F62" t="n">
-        <v>32.7912</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>5.797999999999997</v>
+        <v>5.725999999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2663,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2680,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="C63" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="D63" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="E63" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="F63" t="n">
-        <v>670010</v>
+        <v>32.7912</v>
       </c>
       <c r="G63" t="n">
-        <v>5.789999999999997</v>
+        <v>5.728499999999998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2704,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2721,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="C64" t="n">
         <v>5.78</v>
@@ -2612,13 +2730,13 @@
         <v>5.78</v>
       </c>
       <c r="E64" t="n">
-        <v>5.78</v>
+        <v>5.66</v>
       </c>
       <c r="F64" t="n">
-        <v>11</v>
+        <v>670010</v>
       </c>
       <c r="G64" t="n">
-        <v>5.785999999999998</v>
+        <v>5.730666666666664</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2762,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="C65" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="D65" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="E65" t="n">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="F65" t="n">
         <v>11</v>
       </c>
       <c r="G65" t="n">
-        <v>5.791999999999998</v>
+        <v>5.733333333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2815,10 @@
         <v>5.8</v>
       </c>
       <c r="F66" t="n">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G66" t="n">
-        <v>5.791999999999998</v>
+        <v>5.735999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2856,10 @@
         <v>5.8</v>
       </c>
       <c r="F67" t="n">
-        <v>50011</v>
+        <v>88</v>
       </c>
       <c r="G67" t="n">
-        <v>5.791999999999998</v>
+        <v>5.738499999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2897,10 @@
         <v>5.8</v>
       </c>
       <c r="F68" t="n">
-        <v>33</v>
+        <v>50011</v>
       </c>
       <c r="G68" t="n">
-        <v>5.795999999999998</v>
+        <v>5.740999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2790,10 +2938,10 @@
         <v>5.8</v>
       </c>
       <c r="F69" t="n">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="G69" t="n">
-        <v>5.799999999999997</v>
+        <v>5.743499999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2967,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C70" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="D70" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="E70" t="n">
-        <v>5.77</v>
+        <v>5.8</v>
       </c>
       <c r="F70" t="n">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="G70" t="n">
-        <v>5.793999999999996</v>
+        <v>5.746</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3008,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="C71" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="D71" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="E71" t="n">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G71" t="n">
-        <v>5.785999999999996</v>
+        <v>5.748</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3049,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="C72" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="D72" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="E72" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="F72" t="n">
-        <v>18121.3529</v>
+        <v>11</v>
       </c>
       <c r="G72" t="n">
-        <v>5.769999999999997</v>
+        <v>5.750166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3073,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3090,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="C73" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D73" t="n">
-        <v>5.7</v>
+        <v>5.75</v>
       </c>
       <c r="E73" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="F73" t="n">
-        <v>6900.2318</v>
+        <v>18121.3529</v>
       </c>
       <c r="G73" t="n">
-        <v>5.749999999999996</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2956,19 +3134,19 @@
         <v>5.7</v>
       </c>
       <c r="C74" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="D74" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="E74" t="n">
         <v>5.7</v>
       </c>
       <c r="F74" t="n">
-        <v>109.7682</v>
+        <v>6900.2318</v>
       </c>
       <c r="G74" t="n">
-        <v>5.735999999999996</v>
+        <v>5.751833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3155,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,7 +3172,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="C75" t="n">
         <v>5.73</v>
@@ -2997,13 +3181,13 @@
         <v>5.73</v>
       </c>
       <c r="E75" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>109.7682</v>
       </c>
       <c r="G75" t="n">
-        <v>5.727999999999996</v>
+        <v>5.752999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3213,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="C76" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="D76" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="E76" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="F76" t="n">
-        <v>24868.5847</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>5.723999999999997</v>
+        <v>5.753833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3254,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.69</v>
+        <v>5.74</v>
       </c>
       <c r="C77" t="n">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="D77" t="n">
-        <v>5.69</v>
+        <v>5.74</v>
       </c>
       <c r="E77" t="n">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="F77" t="n">
-        <v>591924.5702</v>
+        <v>24868.5847</v>
       </c>
       <c r="G77" t="n">
-        <v>5.705999999999998</v>
+        <v>5.754499999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3295,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C78" t="n">
         <v>5.63</v>
       </c>
-      <c r="C78" t="n">
-        <v>5.6</v>
-      </c>
       <c r="D78" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E78" t="n">
         <v>5.63</v>
       </c>
-      <c r="E78" t="n">
-        <v>5.6</v>
-      </c>
       <c r="F78" t="n">
-        <v>596664.9577</v>
+        <v>591924.5702</v>
       </c>
       <c r="G78" t="n">
-        <v>5.685999999999998</v>
+        <v>5.753166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3336,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C79" t="n">
         <v>5.6</v>
       </c>
-      <c r="C79" t="n">
-        <v>5.5</v>
-      </c>
       <c r="D79" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="E79" t="n">
         <v>5.6</v>
       </c>
-      <c r="E79" t="n">
-        <v>5.5</v>
-      </c>
       <c r="F79" t="n">
-        <v>110150.7721</v>
+        <v>596664.9577</v>
       </c>
       <c r="G79" t="n">
-        <v>5.639999999999999</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3380,19 @@
         <v>5.6</v>
       </c>
       <c r="C80" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="D80" t="n">
         <v>5.6</v>
       </c>
       <c r="E80" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>110150.7721</v>
       </c>
       <c r="G80" t="n">
-        <v>5.613999999999998</v>
+        <v>5.747166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3201,19 +3421,19 @@
         <v>5.6</v>
       </c>
       <c r="C81" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="D81" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="E81" t="n">
         <v>5.6</v>
       </c>
       <c r="F81" t="n">
-        <v>48179.9614</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>5.591999999999997</v>
+        <v>5.744</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3459,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C82" t="n">
         <v>5.63</v>
       </c>
-      <c r="C82" t="n">
-        <v>5.64</v>
-      </c>
       <c r="D82" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="E82" t="n">
-        <v>5.63</v>
+        <v>5.6</v>
       </c>
       <c r="F82" t="n">
-        <v>233739.2684</v>
+        <v>48179.9614</v>
       </c>
       <c r="G82" t="n">
-        <v>5.593999999999998</v>
+        <v>5.741333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3483,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3500,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="C83" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D83" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E83" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>233739.2684</v>
       </c>
       <c r="G83" t="n">
-        <v>5.603999999999997</v>
+        <v>5.739</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3541,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.72</v>
+        <v>5.65</v>
       </c>
       <c r="C84" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="D84" t="n">
-        <v>5.73</v>
+        <v>5.65</v>
       </c>
       <c r="E84" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="F84" t="n">
-        <v>98127.67879999999</v>
+        <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>5.645999999999998</v>
+        <v>5.736666666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3565,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3582,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="C85" t="n">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="D85" t="n">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="E85" t="n">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>98127.67879999999</v>
       </c>
       <c r="G85" t="n">
-        <v>5.673999999999998</v>
+        <v>5.736333333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3606,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3623,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="C86" t="n">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="D86" t="n">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="E86" t="n">
-        <v>5.63</v>
+        <v>5.74</v>
       </c>
       <c r="F86" t="n">
-        <v>10.6571</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>5.673999999999999</v>
+        <v>5.736666666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3667,19 @@
         <v>5.63</v>
       </c>
       <c r="C87" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D87" t="n">
         <v>5.63</v>
       </c>
       <c r="E87" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F87" t="n">
-        <v>38502.6908</v>
+        <v>10.6571</v>
       </c>
       <c r="G87" t="n">
-        <v>5.669999999999999</v>
+        <v>5.734666666666665</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3443,22 +3705,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C88" t="n">
         <v>5.62</v>
       </c>
       <c r="D88" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E88" t="n">
         <v>5.62</v>
       </c>
       <c r="F88" t="n">
-        <v>3955.5516</v>
+        <v>38502.6908</v>
       </c>
       <c r="G88" t="n">
-        <v>5.663999999999999</v>
+        <v>5.732333333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3729,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3746,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="C89" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="D89" t="n">
-        <v>5.61</v>
+        <v>5.62</v>
       </c>
       <c r="E89" t="n">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="F89" t="n">
-        <v>139501.8892</v>
+        <v>3955.5516</v>
       </c>
       <c r="G89" t="n">
-        <v>5.641999999999999</v>
+        <v>5.729833333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3770,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3787,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="C90" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="D90" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="E90" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="F90" t="n">
-        <v>10000</v>
+        <v>139501.8892</v>
       </c>
       <c r="G90" t="n">
-        <v>5.617999999999998</v>
+        <v>5.726999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3811,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,7 +3828,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C91" t="n">
         <v>5.62</v>
@@ -3557,13 +3837,13 @@
         <v>5.62</v>
       </c>
       <c r="E91" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F91" t="n">
-        <v>148995.2924</v>
+        <v>10000</v>
       </c>
       <c r="G91" t="n">
-        <v>5.615999999999998</v>
+        <v>5.724666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3852,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,7 +3869,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C92" t="n">
         <v>5.62</v>
@@ -3592,13 +3878,13 @@
         <v>5.62</v>
       </c>
       <c r="E92" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F92" t="n">
-        <v>8600.3932</v>
+        <v>148995.2924</v>
       </c>
       <c r="G92" t="n">
-        <v>5.615999999999998</v>
+        <v>5.722833333333332</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +3893,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3910,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="C93" t="n">
-        <v>5.72</v>
+        <v>5.62</v>
       </c>
       <c r="D93" t="n">
-        <v>5.72</v>
+        <v>5.62</v>
       </c>
       <c r="E93" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F93" t="n">
-        <v>42.7165</v>
+        <v>8600.3932</v>
       </c>
       <c r="G93" t="n">
-        <v>5.635999999999997</v>
+        <v>5.721666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3653,22 +3951,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.73</v>
+        <v>5.64</v>
       </c>
       <c r="C94" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D94" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="E94" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="F94" t="n">
-        <v>143102.9065</v>
+        <v>42.7165</v>
       </c>
       <c r="G94" t="n">
-        <v>5.655999999999997</v>
+        <v>5.720833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3975,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3992,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.75</v>
+        <v>5.73</v>
       </c>
       <c r="C95" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D95" t="n">
         <v>5.74</v>
       </c>
-      <c r="D95" t="n">
-        <v>5.76</v>
-      </c>
       <c r="E95" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="F95" t="n">
-        <v>95140.2439</v>
+        <v>143102.9065</v>
       </c>
       <c r="G95" t="n">
-        <v>5.679999999999998</v>
+        <v>5.719666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4033,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.74</v>
+        <v>5.75</v>
       </c>
       <c r="C96" t="n">
         <v>5.74</v>
       </c>
       <c r="D96" t="n">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="E96" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="F96" t="n">
-        <v>95067.2439</v>
+        <v>95140.2439</v>
       </c>
       <c r="G96" t="n">
-        <v>5.703999999999997</v>
+        <v>5.719</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +4057,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3761,19 +4077,19 @@
         <v>5.74</v>
       </c>
       <c r="C97" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="D97" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="E97" t="n">
         <v>5.74</v>
       </c>
       <c r="F97" t="n">
-        <v>137935.5853</v>
+        <v>95067.2439</v>
       </c>
       <c r="G97" t="n">
-        <v>5.739999999999997</v>
+        <v>5.718500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4098,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +4115,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.79</v>
+        <v>5.74</v>
       </c>
       <c r="C98" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="D98" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="E98" t="n">
-        <v>5.71</v>
+        <v>5.74</v>
       </c>
       <c r="F98" t="n">
-        <v>65</v>
+        <v>137935.5853</v>
       </c>
       <c r="G98" t="n">
-        <v>5.747999999999998</v>
+        <v>5.718833333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,8 +4139,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +4156,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C99" t="n">
         <v>5.76</v>
       </c>
-      <c r="C99" t="n">
-        <v>5.71</v>
-      </c>
       <c r="D99" t="n">
-        <v>5.76</v>
+        <v>5.79</v>
       </c>
       <c r="E99" t="n">
         <v>5.71</v>
       </c>
       <c r="F99" t="n">
-        <v>7059.763</v>
+        <v>65</v>
       </c>
       <c r="G99" t="n">
-        <v>5.749999999999998</v>
+        <v>5.718500000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4180,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3863,22 +4197,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="C100" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="D100" t="n">
-        <v>5.75</v>
+        <v>5.76</v>
       </c>
       <c r="E100" t="n">
-        <v>5.75</v>
+        <v>5.71</v>
       </c>
       <c r="F100" t="n">
-        <v>126897.2418</v>
+        <v>7059.763</v>
       </c>
       <c r="G100" t="n">
-        <v>5.751999999999997</v>
+        <v>5.717166666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4221,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +4250,10 @@
         <v>5.75</v>
       </c>
       <c r="F101" t="n">
-        <v>153074.9321</v>
+        <v>126897.2418</v>
       </c>
       <c r="G101" t="n">
-        <v>5.753999999999996</v>
+        <v>5.716666666666669</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3945,10 +4291,10 @@
         <v>5.75</v>
       </c>
       <c r="F102" t="n">
-        <v>33</v>
+        <v>153074.9321</v>
       </c>
       <c r="G102" t="n">
-        <v>5.743999999999996</v>
+        <v>5.718000000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4320,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="C103" t="n">
-        <v>5.66</v>
+        <v>5.75</v>
       </c>
       <c r="D103" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E103" t="n">
-        <v>5.66</v>
+        <v>5.75</v>
       </c>
       <c r="F103" t="n">
-        <v>76473.387</v>
+        <v>33</v>
       </c>
       <c r="G103" t="n">
-        <v>5.723999999999997</v>
+        <v>5.720000000000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4003,22 +4361,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.66</v>
+        <v>5.73</v>
       </c>
       <c r="C104" t="n">
         <v>5.66</v>
       </c>
       <c r="D104" t="n">
-        <v>5.66</v>
+        <v>5.73</v>
       </c>
       <c r="E104" t="n">
         <v>5.66</v>
       </c>
       <c r="F104" t="n">
-        <v>3082.0201</v>
+        <v>76473.387</v>
       </c>
       <c r="G104" t="n">
-        <v>5.713999999999997</v>
+        <v>5.720333333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,8 +4385,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4402,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="C105" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="D105" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="E105" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>3082.0201</v>
       </c>
       <c r="G105" t="n">
-        <v>5.697999999999998</v>
+        <v>5.720500000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4073,22 +4443,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="C106" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="D106" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="E106" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" t="n">
-        <v>5.691999999999998</v>
+        <v>5.720333333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4467,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4484,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="C107" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="D107" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="E107" t="n">
-        <v>5.7</v>
+        <v>5.72</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>5.681999999999998</v>
+        <v>5.721000000000004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4525,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="C108" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="D108" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="E108" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F108" t="n">
-        <v>18961.7928</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>5.675999999999998</v>
+        <v>5.720333333333337</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4566,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C109" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="D109" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="E109" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F109" t="n">
-        <v>913256.4473999999</v>
+        <v>18961.7928</v>
       </c>
       <c r="G109" t="n">
-        <v>5.683999999999998</v>
+        <v>5.718000000000004</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4202,8 +4590,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4213,22 +4607,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="C110" t="n">
         <v>5.7</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.66</v>
       </c>
       <c r="D110" t="n">
         <v>5.7</v>
       </c>
       <c r="E110" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="F110" t="n">
-        <v>245003.6842</v>
+        <v>913256.4473999999</v>
       </c>
       <c r="G110" t="n">
-        <v>5.681999999999998</v>
+        <v>5.718333333333336</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4237,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4248,22 +4648,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="C111" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="D111" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="E111" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>245003.6842</v>
       </c>
       <c r="G111" t="n">
-        <v>5.667999999999997</v>
+        <v>5.718333333333336</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4272,8 +4672,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4283,22 +4689,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="C112" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="D112" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="E112" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="F112" t="n">
-        <v>12365.9978</v>
+        <v>20</v>
       </c>
       <c r="G112" t="n">
-        <v>5.653999999999998</v>
+        <v>5.71816666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4713,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,22 +4730,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C113" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="D113" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E113" t="n">
-        <v>5.54</v>
+        <v>5.63</v>
       </c>
       <c r="F113" t="n">
-        <v>232376.5121</v>
+        <v>12365.9978</v>
       </c>
       <c r="G113" t="n">
-        <v>5.655999999999998</v>
+        <v>5.715333333333335</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4754,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4771,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C114" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="D114" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E114" t="n">
-        <v>5.63</v>
+        <v>5.54</v>
       </c>
       <c r="F114" t="n">
-        <v>77</v>
+        <v>232376.5121</v>
       </c>
       <c r="G114" t="n">
-        <v>5.641999999999998</v>
+        <v>5.712333333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4377,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4812,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C115" t="n">
         <v>5.63</v>
       </c>
-      <c r="C115" t="n">
-        <v>5.7</v>
-      </c>
       <c r="D115" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="E115" t="n">
         <v>5.63</v>
       </c>
       <c r="F115" t="n">
-        <v>745028.528</v>
+        <v>77</v>
       </c>
       <c r="G115" t="n">
-        <v>5.649999999999998</v>
+        <v>5.709333333333335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4412,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,22 +4853,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.71</v>
+        <v>5.63</v>
       </c>
       <c r="C116" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="D116" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="E116" t="n">
-        <v>5.71</v>
+        <v>5.63</v>
       </c>
       <c r="F116" t="n">
-        <v>121</v>
+        <v>745028.528</v>
       </c>
       <c r="G116" t="n">
-        <v>5.661999999999997</v>
+        <v>5.707333333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4461,19 +4897,19 @@
         <v>5.71</v>
       </c>
       <c r="C117" t="n">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="D117" t="n">
         <v>5.71</v>
       </c>
       <c r="E117" t="n">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="F117" t="n">
-        <v>32925.4119</v>
+        <v>121</v>
       </c>
       <c r="G117" t="n">
-        <v>5.661999999999998</v>
+        <v>5.705500000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4482,8 +4918,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4935,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C118" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="D118" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="E118" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="F118" t="n">
-        <v>55</v>
+        <v>32925.4119</v>
       </c>
       <c r="G118" t="n">
-        <v>5.669999999999999</v>
+        <v>5.702333333333335</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4517,8 +4959,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4976,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.66</v>
+        <v>5.7</v>
       </c>
       <c r="C119" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="D119" t="n">
-        <v>5.67</v>
+        <v>5.7</v>
       </c>
       <c r="E119" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="F119" t="n">
-        <v>809610.6942</v>
+        <v>55</v>
       </c>
       <c r="G119" t="n">
-        <v>5.67</v>
+        <v>5.700000000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4552,8 +5000,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4566,19 +5020,19 @@
         <v>5.66</v>
       </c>
       <c r="C120" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="D120" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="E120" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="F120" t="n">
-        <v>44</v>
+        <v>809610.6942</v>
       </c>
       <c r="G120" t="n">
-        <v>5.666</v>
+        <v>5.697166666666669</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4587,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4601,19 +5061,19 @@
         <v>5.66</v>
       </c>
       <c r="C121" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="D121" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E121" t="n">
         <v>5.66</v>
       </c>
-      <c r="E121" t="n">
-        <v>5.63</v>
-      </c>
       <c r="F121" t="n">
-        <v>456825.6312</v>
+        <v>44</v>
       </c>
       <c r="G121" t="n">
-        <v>5.65</v>
+        <v>5.695666666666669</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4622,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4633,22 +5099,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="C122" t="n">
-        <v>5.66</v>
+        <v>5.63</v>
       </c>
       <c r="D122" t="n">
         <v>5.66</v>
       </c>
       <c r="E122" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>456825.6312</v>
       </c>
       <c r="G122" t="n">
-        <v>5.656</v>
+        <v>5.692833333333335</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +5140,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C123" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="D123" t="n">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="E123" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="F123" t="n">
-        <v>57.95</v>
+        <v>20</v>
       </c>
       <c r="G123" t="n">
-        <v>5.65</v>
+        <v>5.690500000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +5181,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="C124" t="n">
         <v>5.65</v>
       </c>
       <c r="D124" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="E124" t="n">
-        <v>5.64</v>
+        <v>5.6</v>
       </c>
       <c r="F124" t="n">
-        <v>271683.9823</v>
+        <v>57.95</v>
       </c>
       <c r="G124" t="n">
-        <v>5.654</v>
+        <v>5.688333333333335</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +5205,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +5222,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.69</v>
+        <v>5.64</v>
       </c>
       <c r="C125" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D125" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E125" t="n">
-        <v>5.69</v>
+        <v>5.64</v>
       </c>
       <c r="F125" t="n">
-        <v>18</v>
+        <v>271683.9823</v>
       </c>
       <c r="G125" t="n">
-        <v>5.656000000000001</v>
+        <v>5.686166666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4773,22 +5263,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C126" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D126" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E126" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F126" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" t="n">
-        <v>5.670000000000001</v>
+        <v>5.684333333333336</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,8 +5287,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +5304,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C127" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D127" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E127" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F127" t="n">
-        <v>5804.6861</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>5.676000000000001</v>
+        <v>5.682666666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,8 +5328,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4852,13 +5354,13 @@
         <v>5.69</v>
       </c>
       <c r="E128" t="n">
-        <v>5.69</v>
+        <v>5.63</v>
       </c>
       <c r="F128" t="n">
-        <v>51</v>
+        <v>5804.6861</v>
       </c>
       <c r="G128" t="n">
-        <v>5.684000000000002</v>
+        <v>5.680833333333335</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4867,8 +5369,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +5386,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="C129" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="D129" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="E129" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="F129" t="n">
-        <v>52029.1757</v>
+        <v>51</v>
       </c>
       <c r="G129" t="n">
-        <v>5.678000000000002</v>
+        <v>5.679000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,8 +5410,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,22 +5427,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="C130" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="D130" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="E130" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>52029.1757</v>
       </c>
       <c r="G130" t="n">
-        <v>5.670000000000001</v>
+        <v>5.676000000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,8 +5451,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4948,22 +5468,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.6</v>
+        <v>5.65</v>
       </c>
       <c r="C131" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D131" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="E131" t="n">
-        <v>5.6</v>
+        <v>5.65</v>
       </c>
       <c r="F131" t="n">
-        <v>23947.7477</v>
+        <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>5.654000000000002</v>
+        <v>5.674000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,8 +5492,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4983,10 +5509,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C132" t="n">
         <v>5.62</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.6</v>
       </c>
       <c r="D132" t="n">
         <v>5.62</v>
@@ -4995,10 +5521,10 @@
         <v>5.6</v>
       </c>
       <c r="F132" t="n">
-        <v>59000</v>
+        <v>23947.7477</v>
       </c>
       <c r="G132" t="n">
-        <v>5.636000000000001</v>
+        <v>5.671666666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,8 +5533,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5021,19 +5553,19 @@
         <v>5.62</v>
       </c>
       <c r="C133" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="D133" t="n">
         <v>5.62</v>
       </c>
       <c r="E133" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F133" t="n">
-        <v>18</v>
+        <v>59000</v>
       </c>
       <c r="G133" t="n">
-        <v>5.622000000000001</v>
+        <v>5.669666666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,8 +5574,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5591,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C134" t="n">
-        <v>5.54</v>
+        <v>5.62</v>
       </c>
       <c r="D134" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="E134" t="n">
-        <v>5.54</v>
+        <v>5.62</v>
       </c>
       <c r="F134" t="n">
-        <v>99750</v>
+        <v>18</v>
       </c>
       <c r="G134" t="n">
-        <v>5.606000000000001</v>
+        <v>5.668333333333335</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,22 +5632,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="C135" t="n">
         <v>5.54</v>
       </c>
       <c r="D135" t="n">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="E135" t="n">
         <v>5.54</v>
       </c>
       <c r="F135" t="n">
-        <v>170036.4935</v>
+        <v>99750</v>
       </c>
       <c r="G135" t="n">
-        <v>5.584000000000001</v>
+        <v>5.665166666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,8 +5656,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5123,22 +5673,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.63</v>
+        <v>5.55</v>
       </c>
       <c r="C136" t="n">
-        <v>5.63</v>
+        <v>5.54</v>
       </c>
       <c r="D136" t="n">
-        <v>5.63</v>
+        <v>5.55</v>
       </c>
       <c r="E136" t="n">
-        <v>5.63</v>
+        <v>5.54</v>
       </c>
       <c r="F136" t="n">
-        <v>88652.4822</v>
+        <v>170036.4935</v>
       </c>
       <c r="G136" t="n">
-        <v>5.586000000000002</v>
+        <v>5.662000000000002</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,8 +5697,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,22 +5714,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.59</v>
+        <v>5.63</v>
       </c>
       <c r="C137" t="n">
-        <v>5.51</v>
+        <v>5.63</v>
       </c>
       <c r="D137" t="n">
-        <v>5.59</v>
+        <v>5.63</v>
       </c>
       <c r="E137" t="n">
-        <v>5.51</v>
+        <v>5.63</v>
       </c>
       <c r="F137" t="n">
-        <v>101074.4947</v>
+        <v>88652.4822</v>
       </c>
       <c r="G137" t="n">
-        <v>5.568000000000002</v>
+        <v>5.660166666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,8 +5738,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5193,22 +5755,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="C138" t="n">
-        <v>5.58</v>
+        <v>5.51</v>
       </c>
       <c r="D138" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="E138" t="n">
-        <v>5.58</v>
+        <v>5.51</v>
       </c>
       <c r="F138" t="n">
-        <v>7233.2885</v>
+        <v>101074.4947</v>
       </c>
       <c r="G138" t="n">
-        <v>5.560000000000001</v>
+        <v>5.658166666666668</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,8 +5779,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5237,13 +5805,13 @@
         <v>5.58</v>
       </c>
       <c r="E139" t="n">
-        <v>5.53</v>
+        <v>5.58</v>
       </c>
       <c r="F139" t="n">
-        <v>13763.2437</v>
+        <v>7233.2885</v>
       </c>
       <c r="G139" t="n">
-        <v>5.568000000000002</v>
+        <v>5.657833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,8 +5820,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5837,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.54</v>
+        <v>5.58</v>
       </c>
       <c r="C140" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="D140" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="E140" t="n">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="F140" t="n">
-        <v>74091.542985383</v>
+        <v>13763.2437</v>
       </c>
       <c r="G140" t="n">
-        <v>5.582000000000003</v>
+        <v>5.659166666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,8 +5861,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +5878,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.6</v>
+        <v>5.54</v>
       </c>
       <c r="C141" t="n">
-        <v>5.6</v>
+        <v>5.61</v>
       </c>
       <c r="D141" t="n">
-        <v>5.6</v>
+        <v>5.61</v>
       </c>
       <c r="E141" t="n">
-        <v>5.6</v>
+        <v>5.54</v>
       </c>
       <c r="F141" t="n">
-        <v>12324.75</v>
+        <v>74091.542985383</v>
       </c>
       <c r="G141" t="n">
-        <v>5.576000000000002</v>
+        <v>5.659333333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +5919,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="C142" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="D142" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="E142" t="n">
-        <v>5.58</v>
+        <v>5.6</v>
       </c>
       <c r="F142" t="n">
-        <v>27830.1075</v>
+        <v>12324.75</v>
       </c>
       <c r="G142" t="n">
-        <v>5.590000000000003</v>
+        <v>5.658833333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,8 +5943,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,36 +5960,38 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="C143" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="D143" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="E143" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="F143" t="n">
-        <v>43491.757370588</v>
+        <v>27830.1075</v>
       </c>
       <c r="G143" t="n">
-        <v>5.596000000000004</v>
+        <v>5.657833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="L143" t="inlineStr"/>
+        <v>5.64</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5407,38 +6001,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C144" t="n">
         <v>5.61</v>
       </c>
-      <c r="C144" t="n">
-        <v>5.62</v>
-      </c>
       <c r="D144" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="E144" t="n">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
       <c r="F144" t="n">
-        <v>160111.497729412</v>
+        <v>43491.757370588</v>
       </c>
       <c r="G144" t="n">
-        <v>5.604000000000004</v>
+        <v>5.657166666666668</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>5.61</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M144" t="n">
@@ -5450,38 +6042,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.67</v>
+        <v>5.61</v>
       </c>
       <c r="C145" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="D145" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="E145" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="F145" t="n">
-        <v>100251.5613</v>
+        <v>160111.497729412</v>
       </c>
       <c r="G145" t="n">
-        <v>5.614000000000004</v>
+        <v>5.655666666666668</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M145" t="n">
@@ -5493,36 +6083,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="C146" t="n">
         <v>5.66</v>
       </c>
       <c r="D146" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="E146" t="n">
         <v>5.66</v>
       </c>
       <c r="F146" t="n">
-        <v>70102.6501</v>
+        <v>100251.5613</v>
       </c>
       <c r="G146" t="n">
-        <v>5.626000000000003</v>
+        <v>5.654333333333335</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>5.66</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="L146" t="inlineStr"/>
+        <v>5.64</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,22 +6124,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="C147" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="D147" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="E147" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="F147" t="n">
-        <v>248.1946</v>
+        <v>70102.6501</v>
       </c>
       <c r="G147" t="n">
-        <v>5.638000000000003</v>
+        <v>5.654833333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5557,11 +6149,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>5.66</v>
+        <v>5.64</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M147" t="n">
@@ -5573,22 +6165,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="C148" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="D148" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="E148" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="F148" t="n">
-        <v>50</v>
+        <v>248.1946</v>
       </c>
       <c r="G148" t="n">
-        <v>5.656000000000004</v>
+        <v>5.655166666666669</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,11 +6190,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>5.66</v>
+        <v>5.64</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M148" t="n">
@@ -5614,22 +6206,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.64</v>
+        <v>5.7</v>
       </c>
       <c r="C149" t="n">
-        <v>5.61</v>
+        <v>5.7</v>
       </c>
       <c r="D149" t="n">
-        <v>5.64</v>
+        <v>5.7</v>
       </c>
       <c r="E149" t="n">
-        <v>5.61</v>
+        <v>5.7</v>
       </c>
       <c r="F149" t="n">
-        <v>173385.307430018</v>
+        <v>50</v>
       </c>
       <c r="G149" t="n">
-        <v>5.654000000000004</v>
+        <v>5.656500000000002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5638,8 +6230,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5649,22 +6247,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C150" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="D150" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="E150" t="n">
-        <v>5.63</v>
+        <v>5.61</v>
       </c>
       <c r="F150" t="n">
-        <v>3553.6767</v>
+        <v>173385.307430018</v>
       </c>
       <c r="G150" t="n">
-        <v>5.648000000000004</v>
+        <v>5.656666666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5673,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5684,22 +6288,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="C151" t="n">
-        <v>5.55</v>
+        <v>5.63</v>
       </c>
       <c r="D151" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="E151" t="n">
-        <v>5.55</v>
+        <v>5.63</v>
       </c>
       <c r="F151" t="n">
-        <v>227643.4474</v>
+        <v>3553.6767</v>
       </c>
       <c r="G151" t="n">
-        <v>5.626000000000004</v>
+        <v>5.656833333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5708,8 +6312,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5722,19 +6332,19 @@
         <v>5.56</v>
       </c>
       <c r="C152" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="D152" t="n">
         <v>5.56</v>
       </c>
       <c r="E152" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="F152" t="n">
-        <v>156765.5396</v>
+        <v>227643.4474</v>
       </c>
       <c r="G152" t="n">
-        <v>5.610000000000004</v>
+        <v>5.655666666666668</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5743,8 +6353,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5754,22 +6370,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="C153" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D153" t="n">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="E153" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="F153" t="n">
-        <v>30148.9113</v>
+        <v>156765.5396</v>
       </c>
       <c r="G153" t="n">
-        <v>5.584000000000004</v>
+        <v>5.654666666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5778,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5789,22 +6411,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="C154" t="n">
         <v>5.57</v>
       </c>
-      <c r="C154" t="n">
-        <v>5.56</v>
-      </c>
       <c r="D154" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E154" t="n">
         <v>5.57</v>
       </c>
-      <c r="E154" t="n">
-        <v>5.56</v>
-      </c>
       <c r="F154" t="n">
-        <v>56322.3352</v>
+        <v>30148.9113</v>
       </c>
       <c r="G154" t="n">
-        <v>5.574000000000003</v>
+        <v>5.652166666666668</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5813,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5827,19 +6455,19 @@
         <v>5.57</v>
       </c>
       <c r="C155" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="D155" t="n">
         <v>5.57</v>
       </c>
       <c r="E155" t="n">
-        <v>5.57</v>
+        <v>5.56</v>
       </c>
       <c r="F155" t="n">
-        <v>18.1818</v>
+        <v>56322.3352</v>
       </c>
       <c r="G155" t="n">
-        <v>5.562000000000004</v>
+        <v>5.649833333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5848,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5871,10 +6505,10 @@
         <v>5.57</v>
       </c>
       <c r="F156" t="n">
-        <v>96.9696</v>
+        <v>18.1818</v>
       </c>
       <c r="G156" t="n">
-        <v>5.566000000000004</v>
+        <v>5.647000000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5883,8 +6517,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5906,10 +6546,10 @@
         <v>5.57</v>
       </c>
       <c r="F157" t="n">
-        <v>18.1818</v>
+        <v>96.9696</v>
       </c>
       <c r="G157" t="n">
-        <v>5.568000000000004</v>
+        <v>5.644166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5918,8 +6558,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5941,10 +6587,10 @@
         <v>5.57</v>
       </c>
       <c r="F158" t="n">
-        <v>17003.2851</v>
+        <v>18.1818</v>
       </c>
       <c r="G158" t="n">
-        <v>5.568000000000005</v>
+        <v>5.640333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5953,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5964,22 +6616,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="C159" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="D159" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="E159" t="n">
-        <v>5.58</v>
+        <v>5.57</v>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>17003.2851</v>
       </c>
       <c r="G159" t="n">
-        <v>5.572000000000005</v>
+        <v>5.637166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5988,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5999,22 +6657,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="C160" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="D160" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="E160" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="F160" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G160" t="n">
-        <v>5.584000000000005</v>
+        <v>5.635000000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6023,8 +6681,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6034,22 +6698,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="C161" t="n">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="D161" t="n">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="E161" t="n">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="F161" t="n">
-        <v>11738.1643</v>
+        <v>11</v>
       </c>
       <c r="G161" t="n">
-        <v>5.586000000000004</v>
+        <v>5.633</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6058,8 +6722,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6069,22 +6739,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="C162" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="D162" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="E162" t="n">
-        <v>5.61</v>
+        <v>5.58</v>
       </c>
       <c r="F162" t="n">
-        <v>11758.1643</v>
+        <v>11738.1643</v>
       </c>
       <c r="G162" t="n">
-        <v>5.594000000000004</v>
+        <v>5.630166666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6093,8 +6763,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6104,22 +6780,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.59</v>
+        <v>5.61</v>
       </c>
       <c r="C163" t="n">
-        <v>5.58</v>
+        <v>5.61</v>
       </c>
       <c r="D163" t="n">
-        <v>5.59</v>
+        <v>5.61</v>
       </c>
       <c r="E163" t="n">
-        <v>5.58</v>
+        <v>5.61</v>
       </c>
       <c r="F163" t="n">
-        <v>57833.7573</v>
+        <v>11758.1643</v>
       </c>
       <c r="G163" t="n">
-        <v>5.596000000000004</v>
+        <v>5.627833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6128,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6139,22 +6821,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="C164" t="n">
         <v>5.58</v>
       </c>
       <c r="D164" t="n">
-        <v>5.58</v>
+        <v>5.59</v>
       </c>
       <c r="E164" t="n">
         <v>5.58</v>
       </c>
       <c r="F164" t="n">
-        <v>61601.0759</v>
+        <v>57833.7573</v>
       </c>
       <c r="G164" t="n">
-        <v>5.596000000000004</v>
+        <v>5.626499999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6163,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6174,22 +6862,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="C165" t="n">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="D165" t="n">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="E165" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="F165" t="n">
-        <v>67524.91624450299</v>
+        <v>61601.0759</v>
       </c>
       <c r="G165" t="n">
-        <v>5.598000000000004</v>
+        <v>5.625166666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6198,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6209,22 +6903,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C166" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D166" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="E166" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="F166" t="n">
-        <v>770</v>
+        <v>67524.91624450299</v>
       </c>
       <c r="G166" t="n">
-        <v>5.612000000000005</v>
+        <v>5.624666666666665</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6233,8 +6927,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6244,7 +6944,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C167" t="n">
         <v>5.65</v>
@@ -6253,13 +6953,13 @@
         <v>5.65</v>
       </c>
       <c r="E167" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="F167" t="n">
-        <v>36957.061655497</v>
+        <v>770</v>
       </c>
       <c r="G167" t="n">
-        <v>5.620000000000005</v>
+        <v>5.623499999999997</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6268,8 +6968,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6279,22 +6985,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="C168" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="D168" t="n">
-        <v>5.68</v>
+        <v>5.65</v>
       </c>
       <c r="E168" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="F168" t="n">
-        <v>275812.4189</v>
+        <v>36957.061655497</v>
       </c>
       <c r="G168" t="n">
-        <v>5.618000000000005</v>
+        <v>5.622666666666664</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6303,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6314,22 +7026,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="C169" t="n">
-        <v>5.71</v>
+        <v>5.57</v>
       </c>
       <c r="D169" t="n">
-        <v>5.71</v>
+        <v>5.68</v>
       </c>
       <c r="E169" t="n">
-        <v>5.7</v>
+        <v>5.57</v>
       </c>
       <c r="F169" t="n">
-        <v>37667.7961</v>
+        <v>275812.4189</v>
       </c>
       <c r="G169" t="n">
-        <v>5.644000000000005</v>
+        <v>5.621666666666664</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6338,8 +7050,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6352,19 +7070,19 @@
         <v>5.7</v>
       </c>
       <c r="C170" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="D170" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="E170" t="n">
         <v>5.7</v>
       </c>
       <c r="F170" t="n">
-        <v>11</v>
+        <v>37667.7961</v>
       </c>
       <c r="G170" t="n">
-        <v>5.656000000000006</v>
+        <v>5.62183333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6373,8 +7091,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6384,22 +7108,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C171" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D171" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E171" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F171" t="n">
-        <v>2670.902</v>
+        <v>11</v>
       </c>
       <c r="G171" t="n">
-        <v>5.664000000000006</v>
+        <v>5.622499999999997</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6408,8 +7132,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6431,10 +7161,10 @@
         <v>5.69</v>
       </c>
       <c r="F172" t="n">
-        <v>38546.2333</v>
+        <v>2670.902</v>
       </c>
       <c r="G172" t="n">
-        <v>5.672000000000006</v>
+        <v>5.623166666666664</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6443,8 +7173,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6466,10 +7202,10 @@
         <v>5.69</v>
       </c>
       <c r="F173" t="n">
-        <v>30912.8734</v>
+        <v>38546.2333</v>
       </c>
       <c r="G173" t="n">
-        <v>5.696000000000005</v>
+        <v>5.624166666666664</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6478,8 +7214,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6489,22 +7231,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="C174" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="D174" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="E174" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="F174" t="n">
-        <v>35000</v>
+        <v>30912.8734</v>
       </c>
       <c r="G174" t="n">
-        <v>5.678000000000004</v>
+        <v>5.624999999999997</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6513,8 +7255,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6524,22 +7272,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C175" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D175" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E175" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F175" t="n">
-        <v>35403.3303</v>
+        <v>35000</v>
       </c>
       <c r="G175" t="n">
-        <v>5.664000000000005</v>
+        <v>5.62483333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6548,8 +7296,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6559,22 +7313,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C176" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D176" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E176" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F176" t="n">
-        <v>23360</v>
+        <v>35403.3303</v>
       </c>
       <c r="G176" t="n">
-        <v>5.650000000000005</v>
+        <v>5.623666666666664</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6583,8 +7337,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +7354,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.69</v>
+        <v>5.62</v>
       </c>
       <c r="C177" t="n">
-        <v>5.69</v>
+        <v>5.62</v>
       </c>
       <c r="D177" t="n">
-        <v>5.69</v>
+        <v>5.62</v>
       </c>
       <c r="E177" t="n">
-        <v>5.69</v>
+        <v>5.62</v>
       </c>
       <c r="F177" t="n">
-        <v>10</v>
+        <v>23360</v>
       </c>
       <c r="G177" t="n">
-        <v>5.650000000000005</v>
+        <v>5.622166666666664</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6618,8 +7378,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6641,10 +7407,10 @@
         <v>5.69</v>
       </c>
       <c r="F178" t="n">
-        <v>6699.2757</v>
+        <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>5.650000000000005</v>
+        <v>5.623166666666664</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6653,8 +7419,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6664,22 +7436,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C179" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D179" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E179" t="n">
         <v>5.69</v>
       </c>
       <c r="F179" t="n">
-        <v>210020</v>
+        <v>6699.2757</v>
       </c>
       <c r="G179" t="n">
-        <v>5.666000000000005</v>
+        <v>5.623333333333331</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6688,8 +7460,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6708,13 +7486,13 @@
         <v>5.7</v>
       </c>
       <c r="E180" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F180" t="n">
-        <v>104939.6491</v>
+        <v>210020</v>
       </c>
       <c r="G180" t="n">
-        <v>5.680000000000005</v>
+        <v>5.624499999999998</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6723,8 +7501,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6734,22 +7518,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C181" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D181" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E181" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F181" t="n">
-        <v>1224.9773</v>
+        <v>104939.6491</v>
       </c>
       <c r="G181" t="n">
-        <v>5.694000000000004</v>
+        <v>5.62483333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6758,8 +7542,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6769,22 +7559,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C182" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="D182" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="E182" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F182" t="n">
-        <v>10</v>
+        <v>1224.9773</v>
       </c>
       <c r="G182" t="n">
-        <v>5.696000000000004</v>
+        <v>5.625833333333331</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6793,8 +7583,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6804,7 +7600,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="C183" t="n">
         <v>5.7</v>
@@ -6813,13 +7609,13 @@
         <v>5.7</v>
       </c>
       <c r="E183" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F183" t="n">
-        <v>3810</v>
+        <v>10</v>
       </c>
       <c r="G183" t="n">
-        <v>5.698000000000004</v>
+        <v>5.626499999999997</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6828,8 +7624,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6839,22 +7641,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="C184" t="n">
         <v>5.7</v>
       </c>
-      <c r="C184" t="n">
-        <v>5.71</v>
-      </c>
       <c r="D184" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="E184" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F184" t="n">
-        <v>46035.5697</v>
+        <v>3810</v>
       </c>
       <c r="G184" t="n">
-        <v>5.700000000000004</v>
+        <v>5.62733333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6863,8 +7665,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6874,22 +7682,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="C185" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="D185" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="E185" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>46035.5697</v>
       </c>
       <c r="G185" t="n">
-        <v>5.704000000000004</v>
+        <v>5.62833333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6898,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6909,22 +7723,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="C186" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="D186" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="E186" t="n">
-        <v>5.64</v>
+        <v>5.72</v>
       </c>
       <c r="F186" t="n">
-        <v>63449.958</v>
+        <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>5.694000000000004</v>
+        <v>5.628833333333331</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6933,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6944,22 +7764,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="C187" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="D187" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="E187" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="F187" t="n">
-        <v>2965.3765</v>
+        <v>63449.958</v>
       </c>
       <c r="G187" t="n">
-        <v>5.696000000000003</v>
+        <v>5.627833333333331</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6968,8 +7788,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6979,22 +7805,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="C188" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="D188" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="E188" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="F188" t="n">
-        <v>7381.2028</v>
+        <v>2965.3765</v>
       </c>
       <c r="G188" t="n">
-        <v>5.686000000000003</v>
+        <v>5.628166666666663</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7003,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7014,22 +7846,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="C189" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D189" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E189" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F189" t="n">
-        <v>10</v>
+        <v>7381.2028</v>
       </c>
       <c r="G189" t="n">
-        <v>5.682000000000004</v>
+        <v>5.627499999999997</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7038,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7049,22 +7887,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="C190" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="D190" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="E190" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="F190" t="n">
-        <v>48923.3168</v>
+        <v>10</v>
       </c>
       <c r="G190" t="n">
-        <v>5.664000000000004</v>
+        <v>5.628666666666663</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7073,8 +7911,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7096,10 +7940,10 @@
         <v>5.63</v>
       </c>
       <c r="F191" t="n">
-        <v>669902.2879</v>
+        <v>48923.3168</v>
       </c>
       <c r="G191" t="n">
-        <v>5.662000000000004</v>
+        <v>5.62833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7108,8 +7952,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7119,22 +7969,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="C192" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="D192" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="E192" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>669902.2879</v>
       </c>
       <c r="G192" t="n">
-        <v>5.654000000000005</v>
+        <v>5.628499999999997</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7143,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7166,10 +8022,10 @@
         <v>5.67</v>
       </c>
       <c r="F193" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>5.658000000000006</v>
+        <v>5.629666666666663</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7178,8 +8034,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7201,10 +8063,10 @@
         <v>5.67</v>
       </c>
       <c r="F194" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="G194" t="n">
-        <v>5.654000000000005</v>
+        <v>5.630499999999997</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7213,8 +8075,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7227,19 +8095,19 @@
         <v>5.67</v>
       </c>
       <c r="C195" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="D195" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="E195" t="n">
         <v>5.67</v>
       </c>
       <c r="F195" t="n">
-        <v>900</v>
+        <v>11</v>
       </c>
       <c r="G195" t="n">
-        <v>5.664000000000007</v>
+        <v>5.632666666666664</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7248,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7259,7 +8133,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="C196" t="n">
         <v>5.68</v>
@@ -7268,13 +8142,13 @@
         <v>5.68</v>
       </c>
       <c r="E196" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="F196" t="n">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="G196" t="n">
-        <v>5.674000000000006</v>
+        <v>5.634999999999996</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7283,8 +8157,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7294,22 +8174,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="C197" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="D197" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="E197" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="F197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G197" t="n">
-        <v>5.672000000000006</v>
+        <v>5.63583333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7318,8 +8198,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7329,22 +8215,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="C198" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="D198" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="E198" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="F198" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G198" t="n">
-        <v>5.666000000000006</v>
+        <v>5.638333333333331</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7353,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7367,19 +8259,19 @@
         <v>5.65</v>
       </c>
       <c r="C199" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D199" t="n">
         <v>5.65</v>
       </c>
       <c r="E199" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="F199" t="n">
-        <v>19856.219</v>
+        <v>22</v>
       </c>
       <c r="G199" t="n">
-        <v>5.662000000000004</v>
+        <v>5.63933333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7388,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7399,22 +8297,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C200" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="D200" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E200" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="F200" t="n">
-        <v>29391.53</v>
+        <v>19856.219</v>
       </c>
       <c r="G200" t="n">
-        <v>5.654000000000005</v>
+        <v>5.640499999999998</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7423,8 +8321,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7446,10 +8350,10 @@
         <v>5.64</v>
       </c>
       <c r="F201" t="n">
-        <v>7462.3106</v>
+        <v>29391.53</v>
       </c>
       <c r="G201" t="n">
-        <v>5.646000000000005</v>
+        <v>5.640999999999996</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7458,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7472,19 +8382,19 @@
         <v>5.64</v>
       </c>
       <c r="C202" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="D202" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="E202" t="n">
         <v>5.64</v>
       </c>
       <c r="F202" t="n">
-        <v>49776.277139506</v>
+        <v>7462.3106</v>
       </c>
       <c r="G202" t="n">
-        <v>5.648000000000005</v>
+        <v>5.641666666666663</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7493,8 +8403,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7504,7 +8420,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C203" t="n">
         <v>5.67</v>
@@ -7513,13 +8429,13 @@
         <v>5.67</v>
       </c>
       <c r="E203" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="F203" t="n">
-        <v>49296.9576</v>
+        <v>49776.277139506</v>
       </c>
       <c r="G203" t="n">
-        <v>5.654000000000005</v>
+        <v>5.643166666666663</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7528,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7539,22 +8461,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="C204" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="D204" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="E204" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="F204" t="n">
-        <v>106617.6606</v>
+        <v>49296.9576</v>
       </c>
       <c r="G204" t="n">
-        <v>5.650000000000006</v>
+        <v>5.644166666666663</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7563,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7574,22 +8502,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="C205" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="D205" t="n">
-        <v>5.68</v>
+        <v>5.64</v>
       </c>
       <c r="E205" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="F205" t="n">
-        <v>50526.02112676</v>
+        <v>106617.6606</v>
       </c>
       <c r="G205" t="n">
-        <v>5.658000000000006</v>
+        <v>5.64433333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7598,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7609,22 +8543,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="C206" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="D206" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="E206" t="n">
-        <v>5.66</v>
+        <v>5.64</v>
       </c>
       <c r="F206" t="n">
-        <v>246</v>
+        <v>50526.02112676</v>
       </c>
       <c r="G206" t="n">
-        <v>5.662000000000006</v>
+        <v>5.644666666666663</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7633,8 +8567,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7644,33 +8584,80 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="C207" t="n">
         <v>5.66</v>
       </c>
       <c r="D207" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="E207" t="n">
         <v>5.66</v>
       </c>
       <c r="F207" t="n">
+        <v>246</v>
+      </c>
+      <c r="G207" t="n">
+        <v>5.644666666666663</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="D208" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="F208" t="n">
         <v>26207.5971</v>
       </c>
-      <c r="G207" t="n">
-        <v>5.660000000000005</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="G208" t="n">
+        <v>5.644999999999997</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M247"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="C2" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="D2" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="E2" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="F2" t="n">
-        <v>16498.65</v>
+        <v>4190.857802651</v>
       </c>
       <c r="G2" t="n">
-        <v>-1294797.391907308</v>
+        <v>5.652000000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="D3" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="E3" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="F3" t="n">
-        <v>16498.65</v>
+        <v>130</v>
       </c>
       <c r="G3" t="n">
-        <v>-1278298.741907308</v>
+        <v>5.658000000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="C4" t="n">
-        <v>5.64</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.64</v>
+        <v>5.7</v>
       </c>
       <c r="E4" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="F4" t="n">
-        <v>1960.7948</v>
+        <v>417193.2621</v>
       </c>
       <c r="G4" t="n">
-        <v>-1278298.741907308</v>
+        <v>5.672000000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="C5" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="D5" t="n">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="E5" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>384845.1781</v>
       </c>
       <c r="G5" t="n">
-        <v>-1278280.741907308</v>
+        <v>5.682000000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.58</v>
+        <v>5.71</v>
       </c>
       <c r="C6" t="n">
-        <v>5.56</v>
+        <v>5.72</v>
       </c>
       <c r="D6" t="n">
-        <v>5.58</v>
+        <v>5.72</v>
       </c>
       <c r="E6" t="n">
-        <v>5.56</v>
+        <v>5.71</v>
       </c>
       <c r="F6" t="n">
-        <v>140661.6513</v>
+        <v>211511.0783</v>
       </c>
       <c r="G6" t="n">
-        <v>-1418942.393207308</v>
+        <v>5.694000000000004</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.54</v>
+        <v>5.72</v>
       </c>
       <c r="C7" t="n">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="D7" t="n">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="E7" t="n">
-        <v>5.54</v>
+        <v>5.72</v>
       </c>
       <c r="F7" t="n">
-        <v>24333.4463</v>
+        <v>388727.2438</v>
       </c>
       <c r="G7" t="n">
-        <v>-1443275.839507308</v>
+        <v>5.710000000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="C8" t="n">
-        <v>5.52</v>
+        <v>5.79</v>
       </c>
       <c r="D8" t="n">
-        <v>5.54</v>
+        <v>5.79</v>
       </c>
       <c r="E8" t="n">
-        <v>5.52</v>
+        <v>5.74</v>
       </c>
       <c r="F8" t="n">
-        <v>10827.6904</v>
+        <v>108475.0818</v>
       </c>
       <c r="G8" t="n">
-        <v>-1454103.529907308</v>
+        <v>5.732000000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="C9" t="n">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="D9" t="n">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="E9" t="n">
-        <v>5.57</v>
+        <v>5.79</v>
       </c>
       <c r="F9" t="n">
-        <v>1389.6223</v>
+        <v>399</v>
       </c>
       <c r="G9" t="n">
-        <v>-1452713.907607308</v>
+        <v>5.750000000000004</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.52</v>
+        <v>5.79</v>
       </c>
       <c r="C10" t="n">
-        <v>5.51</v>
+        <v>5.78</v>
       </c>
       <c r="D10" t="n">
-        <v>5.52</v>
+        <v>5.79</v>
       </c>
       <c r="E10" t="n">
-        <v>5.51</v>
+        <v>5.77</v>
       </c>
       <c r="F10" t="n">
-        <v>24272.6127</v>
+        <v>502270.0013</v>
       </c>
       <c r="G10" t="n">
-        <v>-1476986.520307308</v>
+        <v>5.764000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="C11" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="D11" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="E11" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="F11" t="n">
-        <v>1310.5892</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>-1475675.931107308</v>
+        <v>5.778000000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.52</v>
+        <v>5.73</v>
       </c>
       <c r="C12" t="n">
-        <v>5.51</v>
+        <v>5.73</v>
       </c>
       <c r="D12" t="n">
-        <v>5.52</v>
+        <v>5.73</v>
       </c>
       <c r="E12" t="n">
-        <v>5.51</v>
+        <v>5.73</v>
       </c>
       <c r="F12" t="n">
-        <v>56927.3098</v>
+        <v>37429.7707</v>
       </c>
       <c r="G12" t="n">
-        <v>-1532603.240907308</v>
+        <v>5.776000000000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.5</v>
+        <v>5.73</v>
       </c>
       <c r="C13" t="n">
-        <v>5.55</v>
+        <v>5.72</v>
       </c>
       <c r="D13" t="n">
-        <v>5.55</v>
+        <v>5.73</v>
       </c>
       <c r="E13" t="n">
-        <v>5.5</v>
+        <v>5.72</v>
       </c>
       <c r="F13" t="n">
-        <v>120764.8392</v>
+        <v>26512.2647</v>
       </c>
       <c r="G13" t="n">
-        <v>-1411838.401707308</v>
+        <v>5.762000000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.61</v>
+        <v>5.75</v>
       </c>
       <c r="C14" t="n">
-        <v>5.63</v>
+        <v>5.75</v>
       </c>
       <c r="D14" t="n">
-        <v>5.63</v>
+        <v>5.75</v>
       </c>
       <c r="E14" t="n">
-        <v>5.61</v>
+        <v>5.75</v>
       </c>
       <c r="F14" t="n">
-        <v>35640.440085968</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-1376197.96162134</v>
+        <v>5.754000000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.51</v>
+        <v>5.75</v>
       </c>
       <c r="C15" t="n">
-        <v>5.5</v>
+        <v>5.76</v>
       </c>
       <c r="D15" t="n">
-        <v>5.51</v>
+        <v>5.76</v>
       </c>
       <c r="E15" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="F15" t="n">
-        <v>139184.1389</v>
+        <v>13268</v>
       </c>
       <c r="G15" t="n">
-        <v>-1515382.10052134</v>
+        <v>5.750000000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="C16" t="n">
-        <v>5.49</v>
+        <v>5.77</v>
       </c>
       <c r="D16" t="n">
-        <v>5.5</v>
+        <v>5.78</v>
       </c>
       <c r="E16" t="n">
-        <v>5.49</v>
+        <v>5.75</v>
       </c>
       <c r="F16" t="n">
-        <v>70000</v>
+        <v>311885.9294</v>
       </c>
       <c r="G16" t="n">
-        <v>-1585382.10052134</v>
+        <v>5.746000000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.54</v>
+        <v>5.77</v>
       </c>
       <c r="C17" t="n">
-        <v>5.54</v>
+        <v>5.77</v>
       </c>
       <c r="D17" t="n">
-        <v>5.54</v>
+        <v>5.77</v>
       </c>
       <c r="E17" t="n">
-        <v>5.54</v>
+        <v>5.77</v>
       </c>
       <c r="F17" t="n">
-        <v>16.4259</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-1585365.67462134</v>
+        <v>5.754000000000003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.5</v>
+        <v>5.76</v>
       </c>
       <c r="C18" t="n">
-        <v>5.5</v>
+        <v>5.76</v>
       </c>
       <c r="D18" t="n">
-        <v>5.5</v>
+        <v>5.76</v>
       </c>
       <c r="E18" t="n">
-        <v>5.5</v>
+        <v>5.73</v>
       </c>
       <c r="F18" t="n">
-        <v>1024.9729</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>-1586390.64752134</v>
+        <v>5.762000000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="C19" t="n">
-        <v>5.54</v>
+        <v>5.73</v>
       </c>
       <c r="D19" t="n">
-        <v>5.54</v>
+        <v>5.74</v>
       </c>
       <c r="E19" t="n">
-        <v>5.54</v>
+        <v>5.73</v>
       </c>
       <c r="F19" t="n">
-        <v>975.9476</v>
+        <v>180</v>
       </c>
       <c r="G19" t="n">
-        <v>-1585414.69992134</v>
+        <v>5.758000000000004</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.59</v>
+        <v>5.72</v>
       </c>
       <c r="C20" t="n">
-        <v>5.57</v>
+        <v>5.69</v>
       </c>
       <c r="D20" t="n">
-        <v>5.59</v>
+        <v>5.72</v>
       </c>
       <c r="E20" t="n">
-        <v>5.49</v>
+        <v>5.69</v>
       </c>
       <c r="F20" t="n">
-        <v>333702.8411</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>-1251711.858821339</v>
+        <v>5.744000000000004</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.54</v>
+        <v>5.77</v>
       </c>
       <c r="C21" t="n">
-        <v>5.61</v>
+        <v>5.77</v>
       </c>
       <c r="D21" t="n">
-        <v>5.61</v>
+        <v>5.77</v>
       </c>
       <c r="E21" t="n">
-        <v>5.54</v>
+        <v>5.77</v>
       </c>
       <c r="F21" t="n">
-        <v>78869.74340000001</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-1172842.115421339</v>
+        <v>5.744000000000005</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.6</v>
+        <v>5.76</v>
       </c>
       <c r="C22" t="n">
-        <v>5.65</v>
+        <v>5.77</v>
       </c>
       <c r="D22" t="n">
-        <v>5.65</v>
+        <v>5.77</v>
       </c>
       <c r="E22" t="n">
-        <v>5.6</v>
+        <v>5.76</v>
       </c>
       <c r="F22" t="n">
-        <v>99846.0012</v>
+        <v>137553.3368</v>
       </c>
       <c r="G22" t="n">
-        <v>-1072996.114221339</v>
+        <v>5.744000000000005</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.65</v>
+        <v>5.78</v>
       </c>
       <c r="C23" t="n">
-        <v>5.65</v>
+        <v>5.78</v>
       </c>
       <c r="D23" t="n">
-        <v>5.65</v>
+        <v>5.78</v>
       </c>
       <c r="E23" t="n">
-        <v>5.65</v>
+        <v>5.78</v>
       </c>
       <c r="F23" t="n">
-        <v>15627.6106</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>-1072996.114221339</v>
+        <v>5.748000000000005</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.61</v>
+        <v>5.78</v>
       </c>
       <c r="C24" t="n">
-        <v>5.6</v>
+        <v>5.77</v>
       </c>
       <c r="D24" t="n">
-        <v>5.61</v>
+        <v>5.78</v>
       </c>
       <c r="E24" t="n">
-        <v>5.6</v>
+        <v>5.77</v>
       </c>
       <c r="F24" t="n">
-        <v>101735.9317</v>
+        <v>56650.2832</v>
       </c>
       <c r="G24" t="n">
-        <v>-1174732.045921339</v>
+        <v>5.756000000000004</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.63</v>
+        <v>5.77</v>
       </c>
       <c r="C25" t="n">
-        <v>5.63</v>
+        <v>5.78</v>
       </c>
       <c r="D25" t="n">
-        <v>5.63</v>
+        <v>5.78</v>
       </c>
       <c r="E25" t="n">
-        <v>5.63</v>
+        <v>5.77</v>
       </c>
       <c r="F25" t="n">
-        <v>330.3285</v>
+        <v>82246</v>
       </c>
       <c r="G25" t="n">
-        <v>-1174401.717421339</v>
+        <v>5.774000000000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.64</v>
+        <v>5.78</v>
       </c>
       <c r="C26" t="n">
-        <v>5.64</v>
+        <v>5.78</v>
       </c>
       <c r="D26" t="n">
-        <v>5.64</v>
+        <v>5.78</v>
       </c>
       <c r="E26" t="n">
-        <v>5.6</v>
+        <v>5.78</v>
       </c>
       <c r="F26" t="n">
-        <v>52732.0985</v>
+        <v>395837.6729</v>
       </c>
       <c r="G26" t="n">
-        <v>-1121669.618921339</v>
+        <v>5.776000000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="C27" t="n">
-        <v>5.62</v>
+        <v>5.79</v>
       </c>
       <c r="D27" t="n">
-        <v>5.62</v>
+        <v>5.79</v>
       </c>
       <c r="E27" t="n">
-        <v>5.6</v>
+        <v>5.79</v>
       </c>
       <c r="F27" t="n">
-        <v>16779.548</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-1138449.166921339</v>
+        <v>5.780000000000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.62</v>
+        <v>5.78</v>
       </c>
       <c r="C28" t="n">
-        <v>5.62</v>
+        <v>5.78</v>
       </c>
       <c r="D28" t="n">
-        <v>5.62</v>
+        <v>5.78</v>
       </c>
       <c r="E28" t="n">
-        <v>5.62</v>
+        <v>5.78</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="G28" t="n">
-        <v>-1138449.166921339</v>
+        <v>5.780000000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.64</v>
+        <v>5.79</v>
       </c>
       <c r="C29" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="D29" t="n">
-        <v>5.64</v>
+        <v>5.79</v>
       </c>
       <c r="E29" t="n">
-        <v>5.64</v>
+        <v>5.67</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>245723.2278</v>
       </c>
       <c r="G29" t="n">
-        <v>-1138349.166921339</v>
+        <v>5.760000000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.61</v>
+        <v>5.67</v>
       </c>
       <c r="C30" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D30" t="n">
-        <v>5.61</v>
+        <v>5.67</v>
       </c>
       <c r="E30" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F30" t="n">
-        <v>26.1476</v>
+        <v>538836.9196</v>
       </c>
       <c r="G30" t="n">
-        <v>-1138375.314521339</v>
+        <v>5.730000000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1460,10 +1494,10 @@
         <v>5.64</v>
       </c>
       <c r="F31" t="n">
-        <v>42790.8687</v>
+        <v>147691.4146</v>
       </c>
       <c r="G31" t="n">
-        <v>-1095584.445821339</v>
+        <v>5.702000000000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,13 +1511,14 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="C32" t="n">
         <v>5.65</v>
@@ -1492,13 +1527,13 @@
         <v>5.65</v>
       </c>
       <c r="E32" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="F32" t="n">
-        <v>40579.3805</v>
+        <v>5275</v>
       </c>
       <c r="G32" t="n">
-        <v>-1055005.065321339</v>
+        <v>5.674000000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="C33" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="D33" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="E33" t="n">
         <v>5.65</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>9857.168</v>
       </c>
       <c r="G33" t="n">
-        <v>-1055005.065321339</v>
+        <v>5.654000000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="C34" t="n">
-        <v>5.62</v>
+        <v>5.68</v>
       </c>
       <c r="D34" t="n">
-        <v>5.66</v>
+        <v>5.68</v>
       </c>
       <c r="E34" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="F34" t="n">
-        <v>52063.506097349</v>
+        <v>306926.321</v>
       </c>
       <c r="G34" t="n">
-        <v>-1107068.571418688</v>
+        <v>5.656000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="C35" t="n">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="D35" t="n">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="E35" t="n">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G35" t="n">
-        <v>-1106968.571418688</v>
+        <v>5.678000000000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.64</v>
+        <v>5.77</v>
       </c>
       <c r="C36" t="n">
-        <v>5.65</v>
+        <v>5.77</v>
       </c>
       <c r="D36" t="n">
-        <v>5.65</v>
+        <v>5.77</v>
       </c>
       <c r="E36" t="n">
-        <v>5.64</v>
+        <v>5.77</v>
       </c>
       <c r="F36" t="n">
-        <v>3239.6202</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-1103728.951218688</v>
+        <v>5.704000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="C37" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="D37" t="n">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="E37" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>4651.978</v>
       </c>
       <c r="G37" t="n">
-        <v>-1103728.951218688</v>
+        <v>5.710000000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="C38" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="D38" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E38" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="F38" t="n">
-        <v>46744.6725</v>
+        <v>118</v>
       </c>
       <c r="G38" t="n">
-        <v>-1103728.951218688</v>
+        <v>5.706000000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="C39" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="D39" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E39" t="n">
-        <v>5.65</v>
+        <v>5.66</v>
       </c>
       <c r="F39" t="n">
-        <v>5860.3539</v>
+        <v>17632.796094903</v>
       </c>
       <c r="G39" t="n">
-        <v>-1103728.951218688</v>
+        <v>5.702000000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C40" t="n">
-        <v>5.65</v>
+        <v>5.8</v>
       </c>
       <c r="D40" t="n">
-        <v>5.65</v>
+        <v>5.8</v>
       </c>
       <c r="E40" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F40" t="n">
-        <v>34993.9424</v>
+        <v>336412.187076303</v>
       </c>
       <c r="G40" t="n">
-        <v>-1103728.951218688</v>
+        <v>5.714000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.63</v>
+        <v>5.8</v>
       </c>
       <c r="C41" t="n">
-        <v>5.63</v>
+        <v>5.82</v>
       </c>
       <c r="D41" t="n">
-        <v>5.63</v>
+        <v>5.82</v>
       </c>
       <c r="E41" t="n">
-        <v>5.63</v>
+        <v>5.8</v>
       </c>
       <c r="F41" t="n">
-        <v>29000</v>
+        <v>286912.412528794</v>
       </c>
       <c r="G41" t="n">
-        <v>-1132728.951218688</v>
+        <v>5.724000000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="C42" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="D42" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="E42" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>89418.8024</v>
       </c>
       <c r="G42" t="n">
-        <v>-1132718.951218688</v>
+        <v>5.750000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="C43" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="D43" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="E43" t="n">
-        <v>5.66</v>
+        <v>5.81</v>
       </c>
       <c r="F43" t="n">
-        <v>189356.9963</v>
+        <v>1517.1455</v>
       </c>
       <c r="G43" t="n">
-        <v>-1132718.951218688</v>
+        <v>5.782000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="C44" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="D44" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="E44" t="n">
-        <v>5.66</v>
+        <v>5.82</v>
       </c>
       <c r="F44" t="n">
-        <v>4190.857802651</v>
+        <v>90165</v>
       </c>
       <c r="G44" t="n">
-        <v>-1132718.951218688</v>
+        <v>5.814000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.65</v>
+        <v>5.82</v>
       </c>
       <c r="C45" t="n">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="D45" t="n">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="E45" t="n">
-        <v>5.65</v>
+        <v>5.82</v>
       </c>
       <c r="F45" t="n">
-        <v>130</v>
+        <v>5168.5815</v>
       </c>
       <c r="G45" t="n">
-        <v>-1132588.951218688</v>
+        <v>5.818</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.68</v>
+        <v>5.83</v>
       </c>
       <c r="C46" t="n">
-        <v>5.7</v>
+        <v>5.82</v>
       </c>
       <c r="D46" t="n">
-        <v>5.7</v>
+        <v>5.83</v>
       </c>
       <c r="E46" t="n">
-        <v>5.68</v>
+        <v>5.77</v>
       </c>
       <c r="F46" t="n">
-        <v>417193.2621</v>
+        <v>39990.2848</v>
       </c>
       <c r="G46" t="n">
-        <v>-715395.6891186885</v>
+        <v>5.818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.7</v>
+        <v>5.82</v>
       </c>
       <c r="C47" t="n">
-        <v>5.71</v>
+        <v>5.8</v>
       </c>
       <c r="D47" t="n">
-        <v>5.71</v>
+        <v>5.82</v>
       </c>
       <c r="E47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F47" t="n">
-        <v>384845.1781</v>
+        <v>44</v>
       </c>
       <c r="G47" t="n">
-        <v>-330550.5110186884</v>
+        <v>5.815999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.71</v>
+        <v>5.79</v>
       </c>
       <c r="C48" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="D48" t="n">
-        <v>5.72</v>
+        <v>5.79</v>
       </c>
       <c r="E48" t="n">
-        <v>5.71</v>
+        <v>5.77</v>
       </c>
       <c r="F48" t="n">
-        <v>211511.0783</v>
+        <v>60063.0769</v>
       </c>
       <c r="G48" t="n">
-        <v>-119039.4327186884</v>
+        <v>5.805999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.72</v>
+        <v>5.8</v>
       </c>
       <c r="C49" t="n">
-        <v>5.74</v>
+        <v>5.8</v>
       </c>
       <c r="D49" t="n">
-        <v>5.74</v>
+        <v>5.8</v>
       </c>
       <c r="E49" t="n">
-        <v>5.72</v>
+        <v>5.8</v>
       </c>
       <c r="F49" t="n">
-        <v>388727.2438</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>269687.8110813115</v>
+        <v>5.801999999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="C50" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="D50" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="E50" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="F50" t="n">
-        <v>108475.0818</v>
+        <v>32.7912</v>
       </c>
       <c r="G50" t="n">
-        <v>378162.8928813115</v>
+        <v>5.797999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.79</v>
+        <v>5.72</v>
       </c>
       <c r="C51" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="D51" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="E51" t="n">
-        <v>5.79</v>
+        <v>5.66</v>
       </c>
       <c r="F51" t="n">
-        <v>399</v>
+        <v>670010</v>
       </c>
       <c r="G51" t="n">
-        <v>378162.8928813115</v>
+        <v>5.789999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="C52" t="n">
         <v>5.78</v>
       </c>
       <c r="D52" t="n">
-        <v>5.79</v>
+        <v>5.78</v>
       </c>
       <c r="E52" t="n">
-        <v>5.77</v>
+        <v>5.78</v>
       </c>
       <c r="F52" t="n">
-        <v>502270.0013</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>-124107.1084186885</v>
+        <v>5.785999999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C53" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="D53" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="E53" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>-124097.1084186885</v>
+        <v>5.791999999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="C54" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="D54" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="E54" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="F54" t="n">
-        <v>37429.7707</v>
+        <v>88</v>
       </c>
       <c r="G54" t="n">
-        <v>-161526.8791186885</v>
+        <v>5.791999999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="C55" t="n">
-        <v>5.72</v>
+        <v>5.8</v>
       </c>
       <c r="D55" t="n">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="E55" t="n">
-        <v>5.72</v>
+        <v>5.8</v>
       </c>
       <c r="F55" t="n">
-        <v>26512.2647</v>
+        <v>50011</v>
       </c>
       <c r="G55" t="n">
-        <v>-188039.1438186885</v>
+        <v>5.791999999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="C56" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="D56" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="E56" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G56" t="n">
-        <v>-188029.1438186885</v>
+        <v>5.795999999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="C57" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="D57" t="n">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="E57" t="n">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="F57" t="n">
-        <v>13268</v>
+        <v>244</v>
       </c>
       <c r="G57" t="n">
-        <v>-174761.1438186885</v>
+        <v>5.799999999999997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.75</v>
+        <v>5.79</v>
       </c>
       <c r="C58" t="n">
         <v>5.77</v>
       </c>
       <c r="D58" t="n">
-        <v>5.78</v>
+        <v>5.79</v>
       </c>
       <c r="E58" t="n">
-        <v>5.75</v>
+        <v>5.77</v>
       </c>
       <c r="F58" t="n">
-        <v>311885.9294</v>
+        <v>33</v>
       </c>
       <c r="G58" t="n">
-        <v>137124.7855813116</v>
+        <v>5.793999999999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="C59" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="D59" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="E59" t="n">
-        <v>5.77</v>
+        <v>5.76</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>137124.7855813116</v>
+        <v>5.785999999999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="C60" t="n">
-        <v>5.76</v>
+        <v>5.72</v>
       </c>
       <c r="D60" t="n">
-        <v>5.76</v>
+        <v>5.75</v>
       </c>
       <c r="E60" t="n">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
+        <v>18121.3529</v>
       </c>
       <c r="G60" t="n">
-        <v>137094.7855813116</v>
+        <v>5.769999999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C61" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="D61" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="E61" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="F61" t="n">
-        <v>180</v>
+        <v>6900.2318</v>
       </c>
       <c r="G61" t="n">
-        <v>136914.7855813116</v>
+        <v>5.749999999999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="C62" t="n">
-        <v>5.69</v>
+        <v>5.73</v>
       </c>
       <c r="D62" t="n">
-        <v>5.72</v>
+        <v>5.73</v>
       </c>
       <c r="E62" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>109.7682</v>
       </c>
       <c r="G62" t="n">
-        <v>136894.7855813116</v>
+        <v>5.735999999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="C63" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="D63" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="E63" t="n">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>136994.7855813116</v>
+        <v>5.727999999999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.76</v>
+        <v>5.74</v>
       </c>
       <c r="C64" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="D64" t="n">
-        <v>5.77</v>
+        <v>5.74</v>
       </c>
       <c r="E64" t="n">
-        <v>5.76</v>
+        <v>5.74</v>
       </c>
       <c r="F64" t="n">
-        <v>137553.3368</v>
+        <v>24868.5847</v>
       </c>
       <c r="G64" t="n">
-        <v>136994.7855813116</v>
+        <v>5.723999999999997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.78</v>
+        <v>5.69</v>
       </c>
       <c r="C65" t="n">
-        <v>5.78</v>
+        <v>5.63</v>
       </c>
       <c r="D65" t="n">
-        <v>5.78</v>
+        <v>5.69</v>
       </c>
       <c r="E65" t="n">
-        <v>5.78</v>
+        <v>5.63</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>591924.5702</v>
       </c>
       <c r="G65" t="n">
-        <v>137094.7855813116</v>
+        <v>5.705999999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.78</v>
+        <v>5.63</v>
       </c>
       <c r="C66" t="n">
-        <v>5.77</v>
+        <v>5.6</v>
       </c>
       <c r="D66" t="n">
-        <v>5.78</v>
+        <v>5.63</v>
       </c>
       <c r="E66" t="n">
-        <v>5.77</v>
+        <v>5.6</v>
       </c>
       <c r="F66" t="n">
-        <v>56650.2832</v>
+        <v>596664.9577</v>
       </c>
       <c r="G66" t="n">
-        <v>80444.50238131155</v>
+        <v>5.685999999999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.77</v>
+        <v>5.6</v>
       </c>
       <c r="C67" t="n">
-        <v>5.78</v>
+        <v>5.5</v>
       </c>
       <c r="D67" t="n">
-        <v>5.78</v>
+        <v>5.6</v>
       </c>
       <c r="E67" t="n">
-        <v>5.77</v>
+        <v>5.5</v>
       </c>
       <c r="F67" t="n">
-        <v>82246</v>
+        <v>110150.7721</v>
       </c>
       <c r="G67" t="n">
-        <v>162690.5023813116</v>
+        <v>5.639999999999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.78</v>
+        <v>5.6</v>
       </c>
       <c r="C68" t="n">
-        <v>5.78</v>
+        <v>5.6</v>
       </c>
       <c r="D68" t="n">
-        <v>5.78</v>
+        <v>5.6</v>
       </c>
       <c r="E68" t="n">
-        <v>5.78</v>
+        <v>5.6</v>
       </c>
       <c r="F68" t="n">
-        <v>395837.6729</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>162690.5023813116</v>
+        <v>5.613999999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.79</v>
+        <v>5.6</v>
       </c>
       <c r="C69" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="D69" t="n">
-        <v>5.79</v>
+        <v>5.63</v>
       </c>
       <c r="E69" t="n">
-        <v>5.79</v>
+        <v>5.6</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>48179.9614</v>
       </c>
       <c r="G69" t="n">
-        <v>162700.5023813116</v>
+        <v>5.591999999999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.78</v>
+        <v>5.63</v>
       </c>
       <c r="C70" t="n">
-        <v>5.78</v>
+        <v>5.64</v>
       </c>
       <c r="D70" t="n">
-        <v>5.78</v>
+        <v>5.64</v>
       </c>
       <c r="E70" t="n">
-        <v>5.78</v>
+        <v>5.63</v>
       </c>
       <c r="F70" t="n">
-        <v>8000</v>
+        <v>233739.2684</v>
       </c>
       <c r="G70" t="n">
-        <v>154700.5023813116</v>
+        <v>5.593999999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.79</v>
+        <v>5.65</v>
       </c>
       <c r="C71" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="D71" t="n">
-        <v>5.79</v>
+        <v>5.65</v>
       </c>
       <c r="E71" t="n">
-        <v>5.67</v>
+        <v>5.65</v>
       </c>
       <c r="F71" t="n">
-        <v>245723.2278</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>-91022.72541868844</v>
+        <v>5.603999999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="C72" t="n">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="D72" t="n">
-        <v>5.67</v>
+        <v>5.73</v>
       </c>
       <c r="E72" t="n">
-        <v>5.63</v>
+        <v>5.71</v>
       </c>
       <c r="F72" t="n">
-        <v>538836.9196</v>
+        <v>98127.67879999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-629859.6450186884</v>
+        <v>5.645999999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="C73" t="n">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="D73" t="n">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="E73" t="n">
-        <v>5.64</v>
+        <v>5.74</v>
       </c>
       <c r="F73" t="n">
-        <v>147691.4146</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-482168.2304186884</v>
+        <v>5.673999999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="C74" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="D74" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="E74" t="n">
-        <v>5.65</v>
+        <v>5.63</v>
       </c>
       <c r="F74" t="n">
-        <v>5275</v>
+        <v>10.6571</v>
       </c>
       <c r="G74" t="n">
-        <v>-476893.2304186884</v>
+        <v>5.673999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="C75" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="D75" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="E75" t="n">
-        <v>5.65</v>
+        <v>5.62</v>
       </c>
       <c r="F75" t="n">
-        <v>9857.168</v>
+        <v>38502.6908</v>
       </c>
       <c r="G75" t="n">
-        <v>-467036.0624186884</v>
+        <v>5.669999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="C76" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="D76" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="E76" t="n">
-        <v>5.64</v>
+        <v>5.62</v>
       </c>
       <c r="F76" t="n">
-        <v>306926.321</v>
+        <v>3955.5516</v>
       </c>
       <c r="G76" t="n">
-        <v>-467036.0624186884</v>
+        <v>5.663999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.75</v>
+        <v>5.61</v>
       </c>
       <c r="C77" t="n">
-        <v>5.74</v>
+        <v>5.6</v>
       </c>
       <c r="D77" t="n">
-        <v>5.75</v>
+        <v>5.61</v>
       </c>
       <c r="E77" t="n">
-        <v>5.74</v>
+        <v>5.56</v>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>139501.8892</v>
       </c>
       <c r="G77" t="n">
-        <v>-467014.0624186884</v>
+        <v>5.641999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.77</v>
+        <v>5.62</v>
       </c>
       <c r="C78" t="n">
-        <v>5.77</v>
+        <v>5.62</v>
       </c>
       <c r="D78" t="n">
-        <v>5.77</v>
+        <v>5.62</v>
       </c>
       <c r="E78" t="n">
-        <v>5.77</v>
+        <v>5.62</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G78" t="n">
-        <v>-467004.0624186884</v>
+        <v>5.617999999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.72</v>
+        <v>5.6</v>
       </c>
       <c r="C79" t="n">
-        <v>5.68</v>
+        <v>5.62</v>
       </c>
       <c r="D79" t="n">
-        <v>5.72</v>
+        <v>5.62</v>
       </c>
       <c r="E79" t="n">
-        <v>5.68</v>
+        <v>5.6</v>
       </c>
       <c r="F79" t="n">
-        <v>4651.978</v>
+        <v>148995.2924</v>
       </c>
       <c r="G79" t="n">
-        <v>-471656.0404186884</v>
+        <v>5.615999999999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.67</v>
+        <v>5.62</v>
       </c>
       <c r="C80" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="D80" t="n">
-        <v>5.69</v>
+        <v>5.62</v>
       </c>
       <c r="E80" t="n">
-        <v>5.66</v>
+        <v>5.62</v>
       </c>
       <c r="F80" t="n">
-        <v>118</v>
+        <v>8600.3932</v>
       </c>
       <c r="G80" t="n">
-        <v>-471774.0404186884</v>
+        <v>5.615999999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C81" t="n">
-        <v>5.66</v>
+        <v>5.72</v>
       </c>
       <c r="D81" t="n">
-        <v>5.69</v>
+        <v>5.72</v>
       </c>
       <c r="E81" t="n">
-        <v>5.66</v>
+        <v>5.64</v>
       </c>
       <c r="F81" t="n">
-        <v>17632.796094903</v>
+        <v>42.7165</v>
       </c>
       <c r="G81" t="n">
-        <v>-471774.0404186884</v>
+        <v>5.635999999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.69</v>
+        <v>5.73</v>
       </c>
       <c r="C82" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D82" t="n">
-        <v>5.8</v>
+        <v>5.74</v>
       </c>
       <c r="E82" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F82" t="n">
-        <v>336412.187076303</v>
+        <v>143102.9065</v>
       </c>
       <c r="G82" t="n">
-        <v>-135361.8533423854</v>
+        <v>5.655999999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="C83" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="D83" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="E83" t="n">
-        <v>5.8</v>
+        <v>5.72</v>
       </c>
       <c r="F83" t="n">
-        <v>286912.412528794</v>
+        <v>95140.2439</v>
       </c>
       <c r="G83" t="n">
-        <v>151550.5591864086</v>
+        <v>5.679999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="C84" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="D84" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="E84" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="F84" t="n">
-        <v>89418.8024</v>
+        <v>95067.2439</v>
       </c>
       <c r="G84" t="n">
-        <v>62131.75678640864</v>
+        <v>5.703999999999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3419,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="C85" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="D85" t="n">
-        <v>5.82</v>
+        <v>5.8</v>
       </c>
       <c r="E85" t="n">
-        <v>5.81</v>
+        <v>5.74</v>
       </c>
       <c r="F85" t="n">
-        <v>1517.1455</v>
+        <v>137935.5853</v>
       </c>
       <c r="G85" t="n">
-        <v>63648.90228640864</v>
+        <v>5.739999999999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="C86" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="D86" t="n">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="E86" t="n">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="F86" t="n">
-        <v>90165</v>
+        <v>65</v>
       </c>
       <c r="G86" t="n">
-        <v>63648.90228640864</v>
+        <v>5.747999999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="C87" t="n">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="D87" t="n">
-        <v>5.82</v>
+        <v>5.76</v>
       </c>
       <c r="E87" t="n">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="F87" t="n">
-        <v>5168.5815</v>
+        <v>7059.763</v>
       </c>
       <c r="G87" t="n">
-        <v>63648.90228640864</v>
+        <v>5.749999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.83</v>
+        <v>5.75</v>
       </c>
       <c r="C88" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="D88" t="n">
-        <v>5.83</v>
+        <v>5.75</v>
       </c>
       <c r="E88" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="F88" t="n">
-        <v>39990.2848</v>
+        <v>126897.2418</v>
       </c>
       <c r="G88" t="n">
-        <v>63648.90228640864</v>
+        <v>5.751999999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="C89" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="D89" t="n">
-        <v>5.82</v>
+        <v>5.75</v>
       </c>
       <c r="E89" t="n">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="F89" t="n">
-        <v>44</v>
+        <v>153074.9321</v>
       </c>
       <c r="G89" t="n">
-        <v>63604.90228640864</v>
+        <v>5.753999999999996</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="C90" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="D90" t="n">
-        <v>5.79</v>
+        <v>5.75</v>
       </c>
       <c r="E90" t="n">
-        <v>5.77</v>
+        <v>5.75</v>
       </c>
       <c r="F90" t="n">
-        <v>60063.0769</v>
+        <v>33</v>
       </c>
       <c r="G90" t="n">
-        <v>3541.825386408644</v>
+        <v>5.743999999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.8</v>
+        <v>5.73</v>
       </c>
       <c r="C91" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="D91" t="n">
-        <v>5.8</v>
+        <v>5.73</v>
       </c>
       <c r="E91" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>76473.387</v>
       </c>
       <c r="G91" t="n">
-        <v>3551.825386408644</v>
+        <v>5.723999999999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.69</v>
+        <v>5.66</v>
       </c>
       <c r="C92" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="D92" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="E92" t="n">
-        <v>5.68</v>
+        <v>5.66</v>
       </c>
       <c r="F92" t="n">
-        <v>32.7912</v>
+        <v>3082.0201</v>
       </c>
       <c r="G92" t="n">
-        <v>3551.825386408644</v>
+        <v>5.713999999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="C93" t="n">
-        <v>5.78</v>
+        <v>5.67</v>
       </c>
       <c r="D93" t="n">
-        <v>5.78</v>
+        <v>5.67</v>
       </c>
       <c r="E93" t="n">
-        <v>5.66</v>
+        <v>5.67</v>
       </c>
       <c r="F93" t="n">
-        <v>670010</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>-666458.1746135914</v>
+        <v>5.697999999999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="C94" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="D94" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="E94" t="n">
-        <v>5.78</v>
+        <v>5.72</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>-666458.1746135914</v>
+        <v>5.691999999999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C95" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D95" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="E95" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="F95" t="n">
         <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>-666447.1746135914</v>
+        <v>5.681999999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.8</v>
+        <v>5.63</v>
       </c>
       <c r="C96" t="n">
-        <v>5.8</v>
+        <v>5.63</v>
       </c>
       <c r="D96" t="n">
-        <v>5.8</v>
+        <v>5.63</v>
       </c>
       <c r="E96" t="n">
-        <v>5.8</v>
+        <v>5.63</v>
       </c>
       <c r="F96" t="n">
-        <v>88</v>
+        <v>18961.7928</v>
       </c>
       <c r="G96" t="n">
-        <v>-666447.1746135914</v>
+        <v>5.675999999999998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.8</v>
+        <v>5.62</v>
       </c>
       <c r="C97" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D97" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="E97" t="n">
-        <v>5.8</v>
+        <v>5.62</v>
       </c>
       <c r="F97" t="n">
-        <v>50011</v>
+        <v>913256.4473999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-666447.1746135914</v>
+        <v>5.683999999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C98" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="D98" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="E98" t="n">
-        <v>5.8</v>
+        <v>5.66</v>
       </c>
       <c r="F98" t="n">
-        <v>33</v>
+        <v>245003.6842</v>
       </c>
       <c r="G98" t="n">
-        <v>-666447.1746135914</v>
+        <v>5.681999999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.8</v>
+        <v>5.72</v>
       </c>
       <c r="C99" t="n">
-        <v>5.8</v>
+        <v>5.65</v>
       </c>
       <c r="D99" t="n">
-        <v>5.8</v>
+        <v>5.72</v>
       </c>
       <c r="E99" t="n">
-        <v>5.8</v>
+        <v>5.65</v>
       </c>
       <c r="F99" t="n">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>-666447.1746135914</v>
+        <v>5.667999999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.79</v>
+        <v>5.64</v>
       </c>
       <c r="C100" t="n">
-        <v>5.77</v>
+        <v>5.63</v>
       </c>
       <c r="D100" t="n">
-        <v>5.79</v>
+        <v>5.64</v>
       </c>
       <c r="E100" t="n">
-        <v>5.77</v>
+        <v>5.63</v>
       </c>
       <c r="F100" t="n">
-        <v>33</v>
+        <v>12365.9978</v>
       </c>
       <c r="G100" t="n">
-        <v>-666480.1746135914</v>
+        <v>5.653999999999998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.76</v>
+        <v>5.65</v>
       </c>
       <c r="C101" t="n">
-        <v>5.76</v>
+        <v>5.64</v>
       </c>
       <c r="D101" t="n">
-        <v>5.76</v>
+        <v>5.65</v>
       </c>
       <c r="E101" t="n">
-        <v>5.76</v>
+        <v>5.54</v>
       </c>
       <c r="F101" t="n">
-        <v>11</v>
+        <v>232376.5121</v>
       </c>
       <c r="G101" t="n">
-        <v>-666491.1746135914</v>
+        <v>5.655999999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.75</v>
+        <v>5.64</v>
       </c>
       <c r="C102" t="n">
-        <v>5.72</v>
+        <v>5.63</v>
       </c>
       <c r="D102" t="n">
-        <v>5.75</v>
+        <v>5.64</v>
       </c>
       <c r="E102" t="n">
-        <v>5.72</v>
+        <v>5.63</v>
       </c>
       <c r="F102" t="n">
-        <v>18121.3529</v>
+        <v>77</v>
       </c>
       <c r="G102" t="n">
-        <v>-684612.5275135915</v>
+        <v>5.641999999999998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,13 +4067,14 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="C103" t="n">
         <v>5.7</v>
@@ -3977,13 +4083,13 @@
         <v>5.7</v>
       </c>
       <c r="E103" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F103" t="n">
-        <v>6900.2318</v>
+        <v>745028.528</v>
       </c>
       <c r="G103" t="n">
-        <v>-691512.7593135914</v>
+        <v>5.649999999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C104" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="D104" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E104" t="n">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="F104" t="n">
-        <v>109.7682</v>
+        <v>121</v>
       </c>
       <c r="G104" t="n">
-        <v>-691402.9911135914</v>
+        <v>5.661999999999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="C105" t="n">
-        <v>5.73</v>
+        <v>5.63</v>
       </c>
       <c r="D105" t="n">
-        <v>5.73</v>
+        <v>5.71</v>
       </c>
       <c r="E105" t="n">
-        <v>5.73</v>
+        <v>5.63</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>32925.4119</v>
       </c>
       <c r="G105" t="n">
-        <v>-691402.9911135914</v>
+        <v>5.661999999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C106" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="D106" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="E106" t="n">
-        <v>5.74</v>
+        <v>5.68</v>
       </c>
       <c r="F106" t="n">
-        <v>24868.5847</v>
+        <v>55</v>
       </c>
       <c r="G106" t="n">
-        <v>-666534.4064135914</v>
+        <v>5.669999999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.69</v>
+        <v>5.66</v>
       </c>
       <c r="C107" t="n">
         <v>5.63</v>
       </c>
       <c r="D107" t="n">
-        <v>5.69</v>
+        <v>5.67</v>
       </c>
       <c r="E107" t="n">
         <v>5.63</v>
       </c>
       <c r="F107" t="n">
-        <v>591924.5702</v>
+        <v>809610.6942</v>
       </c>
       <c r="G107" t="n">
-        <v>-1258458.976613591</v>
+        <v>5.67</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C108" t="n">
-        <v>5.6</v>
+        <v>5.68</v>
       </c>
       <c r="D108" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="E108" t="n">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="F108" t="n">
-        <v>596664.9577</v>
+        <v>44</v>
       </c>
       <c r="G108" t="n">
-        <v>-1855123.934313592</v>
+        <v>5.666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="C109" t="n">
-        <v>5.5</v>
+        <v>5.63</v>
       </c>
       <c r="D109" t="n">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="E109" t="n">
-        <v>5.5</v>
+        <v>5.63</v>
       </c>
       <c r="F109" t="n">
-        <v>110150.7721</v>
+        <v>456825.6312</v>
       </c>
       <c r="G109" t="n">
-        <v>-1965274.706413592</v>
+        <v>5.65</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="C110" t="n">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="D110" t="n">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="E110" t="n">
-        <v>5.6</v>
+        <v>5.64</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" t="n">
-        <v>-1965264.706413592</v>
+        <v>5.656</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.6</v>
+        <v>5.67</v>
       </c>
       <c r="C111" t="n">
-        <v>5.63</v>
+        <v>5.65</v>
       </c>
       <c r="D111" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="E111" t="n">
         <v>5.6</v>
       </c>
       <c r="F111" t="n">
-        <v>48179.9614</v>
+        <v>57.95</v>
       </c>
       <c r="G111" t="n">
-        <v>-1917084.745013592</v>
+        <v>5.65</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C112" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E112" t="n">
         <v>5.64</v>
       </c>
-      <c r="D112" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E112" t="n">
-        <v>5.63</v>
-      </c>
       <c r="F112" t="n">
-        <v>233739.2684</v>
+        <v>271683.9823</v>
       </c>
       <c r="G112" t="n">
-        <v>-1683345.476613592</v>
+        <v>5.654</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C113" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D113" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E113" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F113" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G113" t="n">
-        <v>-1683334.476613592</v>
+        <v>5.656000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="C114" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="D114" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="E114" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="F114" t="n">
-        <v>98127.67879999999</v>
+        <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-1585206.797813592</v>
+        <v>5.670000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="C115" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="D115" t="n">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="E115" t="n">
-        <v>5.74</v>
+        <v>5.63</v>
       </c>
       <c r="F115" t="n">
-        <v>10</v>
+        <v>5804.6861</v>
       </c>
       <c r="G115" t="n">
-        <v>-1585196.797813592</v>
+        <v>5.676000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="C116" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="D116" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="E116" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="F116" t="n">
-        <v>10.6571</v>
+        <v>51</v>
       </c>
       <c r="G116" t="n">
-        <v>-1585207.454913592</v>
+        <v>5.684000000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="C117" t="n">
         <v>5.62</v>
       </c>
       <c r="D117" t="n">
-        <v>5.63</v>
+        <v>5.68</v>
       </c>
       <c r="E117" t="n">
         <v>5.62</v>
       </c>
       <c r="F117" t="n">
-        <v>38502.6908</v>
+        <v>52029.1757</v>
       </c>
       <c r="G117" t="n">
-        <v>-1623710.145713591</v>
+        <v>5.678000000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="C118" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="D118" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="E118" t="n">
-        <v>5.62</v>
+        <v>5.65</v>
       </c>
       <c r="F118" t="n">
-        <v>3955.5516</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>-1623710.145713591</v>
+        <v>5.670000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
       <c r="C119" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E119" t="n">
         <v>5.6</v>
       </c>
-      <c r="D119" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5.56</v>
-      </c>
       <c r="F119" t="n">
-        <v>139501.8892</v>
+        <v>23947.7477</v>
       </c>
       <c r="G119" t="n">
-        <v>-1763212.034913592</v>
+        <v>5.654000000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,6 +4679,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4566,19 +4689,19 @@
         <v>5.62</v>
       </c>
       <c r="C120" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="D120" t="n">
         <v>5.62</v>
       </c>
       <c r="E120" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="F120" t="n">
-        <v>10000</v>
+        <v>59000</v>
       </c>
       <c r="G120" t="n">
-        <v>-1753212.034913592</v>
+        <v>5.636000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,13 +4715,14 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C121" t="n">
         <v>5.62</v>
@@ -4607,13 +4731,13 @@
         <v>5.62</v>
       </c>
       <c r="E121" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F121" t="n">
-        <v>148995.2924</v>
+        <v>18</v>
       </c>
       <c r="G121" t="n">
-        <v>-1753212.034913592</v>
+        <v>5.622000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="C122" t="n">
-        <v>5.62</v>
+        <v>5.54</v>
       </c>
       <c r="D122" t="n">
-        <v>5.62</v>
+        <v>5.6</v>
       </c>
       <c r="E122" t="n">
-        <v>5.62</v>
+        <v>5.54</v>
       </c>
       <c r="F122" t="n">
-        <v>8600.3932</v>
+        <v>99750</v>
       </c>
       <c r="G122" t="n">
-        <v>-1753212.034913592</v>
+        <v>5.606000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.64</v>
+        <v>5.55</v>
       </c>
       <c r="C123" t="n">
-        <v>5.72</v>
+        <v>5.54</v>
       </c>
       <c r="D123" t="n">
-        <v>5.72</v>
+        <v>5.55</v>
       </c>
       <c r="E123" t="n">
-        <v>5.64</v>
+        <v>5.54</v>
       </c>
       <c r="F123" t="n">
-        <v>42.7165</v>
+        <v>170036.4935</v>
       </c>
       <c r="G123" t="n">
-        <v>-1753169.318413591</v>
+        <v>5.584000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.73</v>
+        <v>5.63</v>
       </c>
       <c r="C124" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="D124" t="n">
-        <v>5.74</v>
+        <v>5.63</v>
       </c>
       <c r="E124" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F124" t="n">
-        <v>143102.9065</v>
+        <v>88652.4822</v>
       </c>
       <c r="G124" t="n">
-        <v>-1896272.224913592</v>
+        <v>5.586000000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,273 +4859,323 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.75</v>
+        <v>5.59</v>
       </c>
       <c r="C125" t="n">
-        <v>5.74</v>
+        <v>5.51</v>
       </c>
       <c r="D125" t="n">
-        <v>5.76</v>
+        <v>5.59</v>
       </c>
       <c r="E125" t="n">
-        <v>5.72</v>
+        <v>5.51</v>
       </c>
       <c r="F125" t="n">
-        <v>95140.2439</v>
+        <v>101074.4947</v>
       </c>
       <c r="G125" t="n">
-        <v>-1801131.981013591</v>
+        <v>5.568000000000002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.63</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.74</v>
+        <v>5.58</v>
       </c>
       <c r="C126" t="n">
-        <v>5.74</v>
+        <v>5.58</v>
       </c>
       <c r="D126" t="n">
-        <v>5.74</v>
+        <v>5.58</v>
       </c>
       <c r="E126" t="n">
-        <v>5.74</v>
+        <v>5.58</v>
       </c>
       <c r="F126" t="n">
-        <v>95067.2439</v>
+        <v>7233.2885</v>
       </c>
       <c r="G126" t="n">
-        <v>-1801131.981013591</v>
+        <v>5.560000000000001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.51</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.74</v>
+        <v>5.58</v>
       </c>
       <c r="C127" t="n">
-        <v>5.8</v>
+        <v>5.58</v>
       </c>
       <c r="D127" t="n">
-        <v>5.8</v>
+        <v>5.58</v>
       </c>
       <c r="E127" t="n">
-        <v>5.74</v>
+        <v>5.53</v>
       </c>
       <c r="F127" t="n">
-        <v>137935.5853</v>
+        <v>13763.2437</v>
       </c>
       <c r="G127" t="n">
-        <v>-1663196.395713591</v>
+        <v>5.568000000000002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.58</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.79</v>
+        <v>5.54</v>
       </c>
       <c r="C128" t="n">
-        <v>5.76</v>
+        <v>5.61</v>
       </c>
       <c r="D128" t="n">
-        <v>5.79</v>
+        <v>5.61</v>
       </c>
       <c r="E128" t="n">
-        <v>5.71</v>
+        <v>5.54</v>
       </c>
       <c r="F128" t="n">
-        <v>65</v>
+        <v>74091.542985383</v>
       </c>
       <c r="G128" t="n">
-        <v>-1663261.395713591</v>
+        <v>5.582000000000003</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.58</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.76</v>
+        <v>5.6</v>
       </c>
       <c r="C129" t="n">
-        <v>5.71</v>
+        <v>5.6</v>
       </c>
       <c r="D129" t="n">
-        <v>5.76</v>
+        <v>5.6</v>
       </c>
       <c r="E129" t="n">
-        <v>5.71</v>
+        <v>5.6</v>
       </c>
       <c r="F129" t="n">
-        <v>7059.763</v>
+        <v>12324.75</v>
       </c>
       <c r="G129" t="n">
-        <v>-1670321.158713592</v>
+        <v>5.576000000000002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.61</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.75</v>
+        <v>5.58</v>
       </c>
       <c r="C130" t="n">
-        <v>5.75</v>
+        <v>5.58</v>
       </c>
       <c r="D130" t="n">
-        <v>5.75</v>
+        <v>5.58</v>
       </c>
       <c r="E130" t="n">
-        <v>5.75</v>
+        <v>5.58</v>
       </c>
       <c r="F130" t="n">
-        <v>126897.2418</v>
+        <v>27830.1075</v>
       </c>
       <c r="G130" t="n">
-        <v>-1543423.916913592</v>
+        <v>5.590000000000003</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.6</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="C131" t="n">
-        <v>5.75</v>
+        <v>5.61</v>
       </c>
       <c r="D131" t="n">
-        <v>5.75</v>
+        <v>5.61</v>
       </c>
       <c r="E131" t="n">
-        <v>5.75</v>
+        <v>5.6</v>
       </c>
       <c r="F131" t="n">
-        <v>153074.9321</v>
+        <v>43491.757370588</v>
       </c>
       <c r="G131" t="n">
-        <v>-1543423.916913592</v>
+        <v>5.596000000000004</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.58</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.75</v>
+        <v>5.61</v>
       </c>
       <c r="C132" t="n">
-        <v>5.75</v>
+        <v>5.62</v>
       </c>
       <c r="D132" t="n">
-        <v>5.75</v>
+        <v>5.62</v>
       </c>
       <c r="E132" t="n">
-        <v>5.75</v>
+        <v>5.61</v>
       </c>
       <c r="F132" t="n">
-        <v>33</v>
+        <v>160111.497729412</v>
       </c>
       <c r="G132" t="n">
-        <v>-1543423.916913592</v>
+        <v>5.604000000000004</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5185,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.73</v>
+        <v>5.67</v>
       </c>
       <c r="C133" t="n">
         <v>5.66</v>
       </c>
       <c r="D133" t="n">
-        <v>5.73</v>
+        <v>5.67</v>
       </c>
       <c r="E133" t="n">
         <v>5.66</v>
       </c>
       <c r="F133" t="n">
-        <v>76473.387</v>
+        <v>100251.5613</v>
       </c>
       <c r="G133" t="n">
-        <v>-1619897.303913592</v>
+        <v>5.614000000000004</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,10 +5225,15 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5065,10 +5252,10 @@
         <v>5.66</v>
       </c>
       <c r="F134" t="n">
-        <v>3082.0201</v>
+        <v>70102.6501</v>
       </c>
       <c r="G134" t="n">
-        <v>-1619897.303913592</v>
+        <v>5.626000000000003</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,32 +5265,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C135" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="D135" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="E135" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="F135" t="n">
-        <v>20</v>
+        <v>248.1946</v>
       </c>
       <c r="G135" t="n">
-        <v>-1619877.303913592</v>
+        <v>5.638000000000003</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,32 +5305,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="C136" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="D136" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="E136" t="n">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G136" t="n">
-        <v>-1619867.303913592</v>
+        <v>5.656000000000004</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5148,32 +5345,37 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="C137" t="n">
-        <v>5.7</v>
+        <v>5.61</v>
       </c>
       <c r="D137" t="n">
-        <v>5.7</v>
+        <v>5.64</v>
       </c>
       <c r="E137" t="n">
-        <v>5.7</v>
+        <v>5.61</v>
       </c>
       <c r="F137" t="n">
-        <v>11</v>
+        <v>173385.307430018</v>
       </c>
       <c r="G137" t="n">
-        <v>-1619878.303913592</v>
+        <v>5.654000000000004</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5183,10 +5385,15 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5205,10 +5412,10 @@
         <v>5.63</v>
       </c>
       <c r="F138" t="n">
-        <v>18961.7928</v>
+        <v>3553.6767</v>
       </c>
       <c r="G138" t="n">
-        <v>-1638840.096713592</v>
+        <v>5.648000000000004</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5218,32 +5425,37 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.62</v>
+        <v>5.56</v>
       </c>
       <c r="C139" t="n">
-        <v>5.7</v>
+        <v>5.55</v>
       </c>
       <c r="D139" t="n">
-        <v>5.7</v>
+        <v>5.56</v>
       </c>
       <c r="E139" t="n">
-        <v>5.62</v>
+        <v>5.55</v>
       </c>
       <c r="F139" t="n">
-        <v>913256.4473999999</v>
+        <v>227643.4474</v>
       </c>
       <c r="G139" t="n">
-        <v>-725583.6493135917</v>
+        <v>5.626000000000004</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5253,32 +5465,37 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.7</v>
+        <v>5.56</v>
       </c>
       <c r="C140" t="n">
-        <v>5.66</v>
+        <v>5.56</v>
       </c>
       <c r="D140" t="n">
-        <v>5.7</v>
+        <v>5.56</v>
       </c>
       <c r="E140" t="n">
-        <v>5.66</v>
+        <v>5.56</v>
       </c>
       <c r="F140" t="n">
-        <v>245003.6842</v>
+        <v>156765.5396</v>
       </c>
       <c r="G140" t="n">
-        <v>-970587.3335135917</v>
+        <v>5.610000000000004</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,32 +5505,37 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.72</v>
+        <v>5.58</v>
       </c>
       <c r="C141" t="n">
-        <v>5.65</v>
+        <v>5.57</v>
       </c>
       <c r="D141" t="n">
-        <v>5.72</v>
+        <v>5.58</v>
       </c>
       <c r="E141" t="n">
-        <v>5.65</v>
+        <v>5.57</v>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>30148.9113</v>
       </c>
       <c r="G141" t="n">
-        <v>-970607.3335135917</v>
+        <v>5.584000000000004</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,32 +5545,37 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="C142" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="D142" t="n">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="E142" t="n">
-        <v>5.63</v>
+        <v>5.56</v>
       </c>
       <c r="F142" t="n">
-        <v>12365.9978</v>
+        <v>56322.3352</v>
       </c>
       <c r="G142" t="n">
-        <v>-982973.3313135917</v>
+        <v>5.574000000000003</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,32 +5585,37 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.65</v>
+        <v>5.57</v>
       </c>
       <c r="C143" t="n">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="D143" t="n">
-        <v>5.65</v>
+        <v>5.57</v>
       </c>
       <c r="E143" t="n">
-        <v>5.54</v>
+        <v>5.57</v>
       </c>
       <c r="F143" t="n">
-        <v>232376.5121</v>
+        <v>18.1818</v>
       </c>
       <c r="G143" t="n">
-        <v>-750596.8192135917</v>
+        <v>5.562000000000004</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,32 +5625,37 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="C144" t="n">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="D144" t="n">
-        <v>5.64</v>
+        <v>5.57</v>
       </c>
       <c r="E144" t="n">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="F144" t="n">
-        <v>77</v>
+        <v>96.9696</v>
       </c>
       <c r="G144" t="n">
-        <v>-750673.8192135917</v>
+        <v>5.566000000000004</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,32 +5665,37 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="C145" t="n">
-        <v>5.7</v>
+        <v>5.57</v>
       </c>
       <c r="D145" t="n">
-        <v>5.7</v>
+        <v>5.57</v>
       </c>
       <c r="E145" t="n">
-        <v>5.63</v>
+        <v>5.57</v>
       </c>
       <c r="F145" t="n">
-        <v>745028.528</v>
+        <v>18.1818</v>
       </c>
       <c r="G145" t="n">
-        <v>-5645.291213591699</v>
+        <v>5.568000000000004</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,32 +5705,37 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.71</v>
+        <v>5.57</v>
       </c>
       <c r="C146" t="n">
-        <v>5.71</v>
+        <v>5.57</v>
       </c>
       <c r="D146" t="n">
-        <v>5.71</v>
+        <v>5.57</v>
       </c>
       <c r="E146" t="n">
-        <v>5.71</v>
+        <v>5.57</v>
       </c>
       <c r="F146" t="n">
-        <v>121</v>
+        <v>17003.2851</v>
       </c>
       <c r="G146" t="n">
-        <v>-5524.291213591699</v>
+        <v>5.568000000000005</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,32 +5745,37 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.71</v>
+        <v>5.58</v>
       </c>
       <c r="C147" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="D147" t="n">
-        <v>5.71</v>
+        <v>5.58</v>
       </c>
       <c r="E147" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="F147" t="n">
-        <v>32925.4119</v>
+        <v>20</v>
       </c>
       <c r="G147" t="n">
-        <v>-38449.7031135917</v>
+        <v>5.572000000000005</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,32 +5785,37 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="C148" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="D148" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="E148" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="F148" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>-38394.7031135917</v>
+        <v>5.584000000000005</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,32 +5825,37 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="C149" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="D149" t="n">
-        <v>5.67</v>
+        <v>5.58</v>
       </c>
       <c r="E149" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="F149" t="n">
-        <v>809610.6942</v>
+        <v>11738.1643</v>
       </c>
       <c r="G149" t="n">
-        <v>-848005.3973135917</v>
+        <v>5.586000000000004</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,32 +5865,37 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="C150" t="n">
-        <v>5.68</v>
+        <v>5.61</v>
       </c>
       <c r="D150" t="n">
-        <v>5.68</v>
+        <v>5.61</v>
       </c>
       <c r="E150" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="F150" t="n">
-        <v>44</v>
+        <v>11758.1643</v>
       </c>
       <c r="G150" t="n">
-        <v>-847961.3973135917</v>
+        <v>5.594000000000004</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,32 +5905,37 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.66</v>
+        <v>5.59</v>
       </c>
       <c r="C151" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="D151" t="n">
-        <v>5.66</v>
+        <v>5.59</v>
       </c>
       <c r="E151" t="n">
-        <v>5.63</v>
+        <v>5.58</v>
       </c>
       <c r="F151" t="n">
-        <v>456825.6312</v>
+        <v>57833.7573</v>
       </c>
       <c r="G151" t="n">
-        <v>-1304787.028513592</v>
+        <v>5.596000000000004</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,32 +5945,37 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="C152" t="n">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="D152" t="n">
-        <v>5.66</v>
+        <v>5.58</v>
       </c>
       <c r="E152" t="n">
-        <v>5.64</v>
+        <v>5.58</v>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>61601.0759</v>
       </c>
       <c r="G152" t="n">
-        <v>-1304767.028513592</v>
+        <v>5.596000000000004</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,32 +5985,37 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.67</v>
+        <v>5.63</v>
       </c>
       <c r="C153" t="n">
-        <v>5.65</v>
+        <v>5.64</v>
       </c>
       <c r="D153" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="E153" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="F153" t="n">
-        <v>57.95</v>
+        <v>67524.91624450299</v>
       </c>
       <c r="G153" t="n">
-        <v>-1304824.978513592</v>
+        <v>5.598000000000004</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,10 +6025,15 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5765,10 +6052,10 @@
         <v>5.64</v>
       </c>
       <c r="F154" t="n">
-        <v>271683.9823</v>
+        <v>770</v>
       </c>
       <c r="G154" t="n">
-        <v>-1304824.978513592</v>
+        <v>5.612000000000005</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,32 +6065,37 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="C155" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="D155" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="E155" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="F155" t="n">
-        <v>18</v>
+        <v>36957.061655497</v>
       </c>
       <c r="G155" t="n">
-        <v>-1304806.978513592</v>
+        <v>5.620000000000005</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,32 +6105,37 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="C156" t="n">
-        <v>5.7</v>
+        <v>5.57</v>
       </c>
       <c r="D156" t="n">
-        <v>5.7</v>
+        <v>5.68</v>
       </c>
       <c r="E156" t="n">
-        <v>5.7</v>
+        <v>5.57</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>275812.4189</v>
       </c>
       <c r="G156" t="n">
-        <v>-1304796.978513592</v>
+        <v>5.618000000000005</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,32 +6145,37 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C157" t="n">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="D157" t="n">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="E157" t="n">
-        <v>5.63</v>
+        <v>5.7</v>
       </c>
       <c r="F157" t="n">
-        <v>5804.6861</v>
+        <v>37667.7961</v>
       </c>
       <c r="G157" t="n">
-        <v>-1310601.664613592</v>
+        <v>5.644000000000005</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,32 +6185,37 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C158" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D158" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E158" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F158" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G158" t="n">
-        <v>-1310601.664613592</v>
+        <v>5.656000000000006</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,32 +6225,37 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="C159" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="D159" t="n">
-        <v>5.68</v>
+        <v>5.69</v>
       </c>
       <c r="E159" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="F159" t="n">
-        <v>52029.1757</v>
+        <v>2670.902</v>
       </c>
       <c r="G159" t="n">
-        <v>-1362630.840313592</v>
+        <v>5.664000000000006</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,32 +6265,37 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="C160" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D160" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="E160" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>38546.2333</v>
       </c>
       <c r="G160" t="n">
-        <v>-1362620.840313592</v>
+        <v>5.672000000000006</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,32 +6305,37 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.6</v>
+        <v>5.69</v>
       </c>
       <c r="C161" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="D161" t="n">
-        <v>5.62</v>
+        <v>5.69</v>
       </c>
       <c r="E161" t="n">
-        <v>5.6</v>
+        <v>5.69</v>
       </c>
       <c r="F161" t="n">
-        <v>23947.7477</v>
+        <v>30912.8734</v>
       </c>
       <c r="G161" t="n">
-        <v>-1386568.588013592</v>
+        <v>5.696000000000005</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,10 +6345,15 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6036,19 +6363,19 @@
         <v>5.62</v>
       </c>
       <c r="C162" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="D162" t="n">
         <v>5.62</v>
       </c>
       <c r="E162" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="F162" t="n">
-        <v>59000</v>
+        <v>35000</v>
       </c>
       <c r="G162" t="n">
-        <v>-1445568.588013592</v>
+        <v>5.678000000000004</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,32 +6385,37 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="C163" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="D163" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E163" t="n">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="F163" t="n">
-        <v>18</v>
+        <v>35403.3303</v>
       </c>
       <c r="G163" t="n">
-        <v>-1445550.588013592</v>
+        <v>5.664000000000005</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,32 +6425,37 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="C164" t="n">
-        <v>5.54</v>
+        <v>5.62</v>
       </c>
       <c r="D164" t="n">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="E164" t="n">
-        <v>5.54</v>
+        <v>5.62</v>
       </c>
       <c r="F164" t="n">
-        <v>99750</v>
+        <v>23360</v>
       </c>
       <c r="G164" t="n">
-        <v>-1545300.588013592</v>
+        <v>5.650000000000005</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6128,32 +6465,37 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.55</v>
+        <v>5.69</v>
       </c>
       <c r="C165" t="n">
-        <v>5.54</v>
+        <v>5.69</v>
       </c>
       <c r="D165" t="n">
-        <v>5.55</v>
+        <v>5.69</v>
       </c>
       <c r="E165" t="n">
-        <v>5.54</v>
+        <v>5.69</v>
       </c>
       <c r="F165" t="n">
-        <v>170036.4935</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-1545300.588013592</v>
+        <v>5.650000000000005</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6163,32 +6505,37 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="C166" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="D166" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="E166" t="n">
-        <v>5.63</v>
+        <v>5.69</v>
       </c>
       <c r="F166" t="n">
-        <v>88652.4822</v>
+        <v>6699.2757</v>
       </c>
       <c r="G166" t="n">
-        <v>-1456648.105813592</v>
+        <v>5.650000000000005</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6198,32 +6545,37 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.59</v>
+        <v>5.7</v>
       </c>
       <c r="C167" t="n">
-        <v>5.51</v>
+        <v>5.7</v>
       </c>
       <c r="D167" t="n">
-        <v>5.59</v>
+        <v>5.7</v>
       </c>
       <c r="E167" t="n">
-        <v>5.51</v>
+        <v>5.69</v>
       </c>
       <c r="F167" t="n">
-        <v>101074.4947</v>
+        <v>210020</v>
       </c>
       <c r="G167" t="n">
-        <v>-1557722.600513592</v>
+        <v>5.666000000000005</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6233,32 +6585,37 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="C168" t="n">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="D168" t="n">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="E168" t="n">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="F168" t="n">
-        <v>7233.2885</v>
+        <v>104939.6491</v>
       </c>
       <c r="G168" t="n">
-        <v>-1550489.312013592</v>
+        <v>5.680000000000005</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6268,32 +6625,37 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="C169" t="n">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="D169" t="n">
-        <v>5.58</v>
+        <v>5.69</v>
       </c>
       <c r="E169" t="n">
-        <v>5.53</v>
+        <v>5.69</v>
       </c>
       <c r="F169" t="n">
-        <v>13763.2437</v>
+        <v>1224.9773</v>
       </c>
       <c r="G169" t="n">
-        <v>-1550489.312013592</v>
+        <v>5.694000000000004</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6303,73 +6665,77 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.54</v>
+        <v>5.7</v>
       </c>
       <c r="C170" t="n">
-        <v>5.61</v>
+        <v>5.7</v>
       </c>
       <c r="D170" t="n">
-        <v>5.61</v>
+        <v>5.7</v>
       </c>
       <c r="E170" t="n">
-        <v>5.54</v>
+        <v>5.7</v>
       </c>
       <c r="F170" t="n">
-        <v>74091.542985383</v>
+        <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>-1476397.769028209</v>
+        <v>5.696000000000004</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>5.58</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="C171" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D171" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="E171" t="n">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="F171" t="n">
-        <v>12324.75</v>
+        <v>3810</v>
       </c>
       <c r="G171" t="n">
-        <v>-1488722.519028209</v>
+        <v>5.698000000000004</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6387,38 +6753,37 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="C172" t="n">
-        <v>5.58</v>
+        <v>5.71</v>
       </c>
       <c r="D172" t="n">
-        <v>5.58</v>
+        <v>5.71</v>
       </c>
       <c r="E172" t="n">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="F172" t="n">
-        <v>27830.1075</v>
+        <v>46035.5697</v>
       </c>
       <c r="G172" t="n">
-        <v>-1516552.626528209</v>
+        <v>5.700000000000004</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
@@ -6428,28 +6793,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.6</v>
+        <v>5.72</v>
       </c>
       <c r="C173" t="n">
-        <v>5.61</v>
+        <v>5.72</v>
       </c>
       <c r="D173" t="n">
-        <v>5.61</v>
+        <v>5.72</v>
       </c>
       <c r="E173" t="n">
-        <v>5.6</v>
+        <v>5.72</v>
       </c>
       <c r="F173" t="n">
-        <v>43491.757370588</v>
+        <v>10</v>
       </c>
       <c r="G173" t="n">
-        <v>-1473060.869157621</v>
+        <v>5.704000000000004</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6467,28 +6833,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C174" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="D174" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="E174" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="F174" t="n">
-        <v>160111.497729412</v>
+        <v>63449.958</v>
       </c>
       <c r="G174" t="n">
-        <v>-1312949.371428209</v>
+        <v>5.694000000000004</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6506,28 +6873,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="C175" t="n">
-        <v>5.66</v>
+        <v>5.71</v>
       </c>
       <c r="D175" t="n">
-        <v>5.67</v>
+        <v>5.71</v>
       </c>
       <c r="E175" t="n">
-        <v>5.66</v>
+        <v>5.71</v>
       </c>
       <c r="F175" t="n">
-        <v>100251.5613</v>
+        <v>2965.3765</v>
       </c>
       <c r="G175" t="n">
-        <v>-1212697.810128209</v>
+        <v>5.696000000000003</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6545,28 +6913,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="C176" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="D176" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="E176" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="F176" t="n">
-        <v>70102.6501</v>
+        <v>7381.2028</v>
       </c>
       <c r="G176" t="n">
-        <v>-1212697.810128209</v>
+        <v>5.686000000000003</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6584,28 +6953,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.64</v>
+        <v>5.69</v>
       </c>
       <c r="C177" t="n">
-        <v>5.64</v>
+        <v>5.69</v>
       </c>
       <c r="D177" t="n">
-        <v>5.64</v>
+        <v>5.69</v>
       </c>
       <c r="E177" t="n">
-        <v>5.64</v>
+        <v>5.69</v>
       </c>
       <c r="F177" t="n">
-        <v>248.1946</v>
+        <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>-1212946.004728209</v>
+        <v>5.682000000000004</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6623,28 +6993,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="C178" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="D178" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="E178" t="n">
-        <v>5.7</v>
+        <v>5.63</v>
       </c>
       <c r="F178" t="n">
-        <v>50</v>
+        <v>48923.3168</v>
       </c>
       <c r="G178" t="n">
-        <v>-1212896.004728209</v>
+        <v>5.664000000000004</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6662,28 +7033,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="C179" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D179" t="n">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="E179" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F179" t="n">
-        <v>173385.307430018</v>
+        <v>669902.2879</v>
       </c>
       <c r="G179" t="n">
-        <v>-1386281.312158227</v>
+        <v>5.662000000000004</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6701,28 +7073,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="C180" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="D180" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="E180" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="F180" t="n">
-        <v>3553.6767</v>
+        <v>10</v>
       </c>
       <c r="G180" t="n">
-        <v>-1382727.635458227</v>
+        <v>5.654000000000005</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6740,28 +7113,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.56</v>
+        <v>5.67</v>
       </c>
       <c r="C181" t="n">
-        <v>5.55</v>
+        <v>5.67</v>
       </c>
       <c r="D181" t="n">
-        <v>5.56</v>
+        <v>5.67</v>
       </c>
       <c r="E181" t="n">
-        <v>5.55</v>
+        <v>5.67</v>
       </c>
       <c r="F181" t="n">
-        <v>227643.4474</v>
+        <v>88</v>
       </c>
       <c r="G181" t="n">
-        <v>-1610371.082858227</v>
+        <v>5.658000000000006</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6779,28 +7153,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.56</v>
+        <v>5.67</v>
       </c>
       <c r="C182" t="n">
-        <v>5.56</v>
+        <v>5.67</v>
       </c>
       <c r="D182" t="n">
-        <v>5.56</v>
+        <v>5.67</v>
       </c>
       <c r="E182" t="n">
-        <v>5.56</v>
+        <v>5.67</v>
       </c>
       <c r="F182" t="n">
-        <v>156765.5396</v>
+        <v>11</v>
       </c>
       <c r="G182" t="n">
-        <v>-1453605.543258227</v>
+        <v>5.654000000000005</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6818,28 +7193,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="C183" t="n">
-        <v>5.57</v>
+        <v>5.68</v>
       </c>
       <c r="D183" t="n">
-        <v>5.58</v>
+        <v>5.68</v>
       </c>
       <c r="E183" t="n">
-        <v>5.57</v>
+        <v>5.67</v>
       </c>
       <c r="F183" t="n">
-        <v>30148.9113</v>
+        <v>900</v>
       </c>
       <c r="G183" t="n">
-        <v>-1423456.631958227</v>
+        <v>5.664000000000007</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6857,28 +7233,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.57</v>
+        <v>5.68</v>
       </c>
       <c r="C184" t="n">
-        <v>5.56</v>
+        <v>5.68</v>
       </c>
       <c r="D184" t="n">
-        <v>5.57</v>
+        <v>5.68</v>
       </c>
       <c r="E184" t="n">
-        <v>5.56</v>
+        <v>5.68</v>
       </c>
       <c r="F184" t="n">
-        <v>56322.3352</v>
+        <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-1479778.967158227</v>
+        <v>5.674000000000006</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6896,28 +7273,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="C185" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="D185" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="E185" t="n">
-        <v>5.57</v>
+        <v>5.66</v>
       </c>
       <c r="F185" t="n">
-        <v>18.1818</v>
+        <v>11</v>
       </c>
       <c r="G185" t="n">
-        <v>-1479760.785358227</v>
+        <v>5.672000000000006</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6935,28 +7313,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="C186" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="D186" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="E186" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="F186" t="n">
-        <v>96.9696</v>
+        <v>22</v>
       </c>
       <c r="G186" t="n">
-        <v>-1479760.785358227</v>
+        <v>5.666000000000006</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6974,28 +7353,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="C187" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="D187" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="E187" t="n">
-        <v>5.57</v>
+        <v>5.65</v>
       </c>
       <c r="F187" t="n">
-        <v>18.1818</v>
+        <v>19856.219</v>
       </c>
       <c r="G187" t="n">
-        <v>-1479760.785358227</v>
+        <v>5.662000000000004</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7013,28 +7393,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="C188" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="D188" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="E188" t="n">
-        <v>5.57</v>
+        <v>5.64</v>
       </c>
       <c r="F188" t="n">
-        <v>17003.2851</v>
+        <v>29391.53</v>
       </c>
       <c r="G188" t="n">
-        <v>-1479760.785358227</v>
+        <v>5.654000000000005</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7052,28 +7433,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="C189" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="D189" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="E189" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="F189" t="n">
-        <v>20</v>
+        <v>7462.3106</v>
       </c>
       <c r="G189" t="n">
-        <v>-1479740.785358227</v>
+        <v>5.646000000000005</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7091,28 +7473,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="C190" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="D190" t="n">
-        <v>5.63</v>
+        <v>5.67</v>
       </c>
       <c r="E190" t="n">
-        <v>5.63</v>
+        <v>5.64</v>
       </c>
       <c r="F190" t="n">
-        <v>11</v>
+        <v>49776.277139506</v>
       </c>
       <c r="G190" t="n">
-        <v>-1479729.785358227</v>
+        <v>5.648000000000005</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7130,28 +7513,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="C191" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="D191" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="E191" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="F191" t="n">
-        <v>11738.1643</v>
+        <v>49296.9576</v>
       </c>
       <c r="G191" t="n">
-        <v>-1491467.949658227</v>
+        <v>5.654000000000005</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7169,28 +7553,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="C192" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="D192" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="E192" t="n">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="F192" t="n">
-        <v>11758.1643</v>
+        <v>106617.6606</v>
       </c>
       <c r="G192" t="n">
-        <v>-1479709.785358227</v>
+        <v>5.650000000000006</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7208,28 +7593,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.59</v>
+        <v>5.65</v>
       </c>
       <c r="C193" t="n">
-        <v>5.58</v>
+        <v>5.68</v>
       </c>
       <c r="D193" t="n">
-        <v>5.59</v>
+        <v>5.68</v>
       </c>
       <c r="E193" t="n">
-        <v>5.58</v>
+        <v>5.64</v>
       </c>
       <c r="F193" t="n">
-        <v>57833.7573</v>
+        <v>50526.02112676</v>
       </c>
       <c r="G193" t="n">
-        <v>-1537543.542658227</v>
+        <v>5.658000000000006</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7247,36 +7633,39 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="C194" t="n">
-        <v>5.58</v>
+        <v>5.66</v>
       </c>
       <c r="D194" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
       <c r="E194" t="n">
-        <v>5.58</v>
+        <v>5.66</v>
       </c>
       <c r="F194" t="n">
-        <v>61601.0759</v>
+        <v>246</v>
       </c>
       <c r="G194" t="n">
-        <v>-1537543.542658227</v>
+        <v>5.662000000000006</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
@@ -7286,36 +7675,39 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="C195" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="D195" t="n">
-        <v>5.64</v>
+        <v>5.66</v>
       </c>
       <c r="E195" t="n">
-        <v>5.63</v>
+        <v>5.66</v>
       </c>
       <c r="F195" t="n">
-        <v>67524.91624450299</v>
+        <v>26207.5971</v>
       </c>
       <c r="G195" t="n">
-        <v>-1470018.626413724</v>
+        <v>5.660000000000005</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.66</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
@@ -7325,28 +7717,29 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="C196" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="D196" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="E196" t="n">
-        <v>5.64</v>
+        <v>5.68</v>
       </c>
       <c r="F196" t="n">
-        <v>770</v>
+        <v>32</v>
       </c>
       <c r="G196" t="n">
-        <v>-1469248.626413724</v>
+        <v>5.662000000000004</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7364,28 +7757,29 @@
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="C197" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="D197" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="E197" t="n">
-        <v>5.65</v>
+        <v>5.68</v>
       </c>
       <c r="F197" t="n">
-        <v>36957.061655497</v>
+        <v>658144.5614</v>
       </c>
       <c r="G197" t="n">
-        <v>-1469248.626413724</v>
+        <v>5.676000000000005</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7403,28 +7797,29 @@
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="C198" t="n">
-        <v>5.57</v>
+        <v>5.7</v>
       </c>
       <c r="D198" t="n">
-        <v>5.68</v>
+        <v>5.72</v>
       </c>
       <c r="E198" t="n">
-        <v>5.57</v>
+        <v>5.7</v>
       </c>
       <c r="F198" t="n">
-        <v>275812.4189</v>
+        <v>329126.5789</v>
       </c>
       <c r="G198" t="n">
-        <v>-1745061.045313724</v>
+        <v>5.680000000000005</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7442,28 +7837,29 @@
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="C199" t="n">
         <v>5.7</v>
       </c>
-      <c r="C199" t="n">
-        <v>5.71</v>
-      </c>
       <c r="D199" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="E199" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F199" t="n">
-        <v>37667.7961</v>
+        <v>129426.2064</v>
       </c>
       <c r="G199" t="n">
-        <v>-1707393.249213724</v>
+        <v>5.688000000000006</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7481,13 +7877,14 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C200" t="n">
         <v>5.7</v>
@@ -7496,13 +7893,13 @@
         <v>5.7</v>
       </c>
       <c r="E200" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="F200" t="n">
-        <v>11</v>
+        <v>35441.2452</v>
       </c>
       <c r="G200" t="n">
-        <v>-1707404.249213724</v>
+        <v>5.696000000000006</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7520,28 +7917,29 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C201" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D201" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E201" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F201" t="n">
-        <v>2670.902</v>
+        <v>17</v>
       </c>
       <c r="G201" t="n">
-        <v>-1710075.151213724</v>
+        <v>5.700000000000006</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7559,28 +7957,29 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C202" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D202" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E202" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F202" t="n">
-        <v>38546.2333</v>
+        <v>117</v>
       </c>
       <c r="G202" t="n">
-        <v>-1710075.151213724</v>
+        <v>5.700000000000006</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7598,28 +7997,29 @@
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="C203" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="D203" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E203" t="n">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="F203" t="n">
-        <v>30912.8734</v>
+        <v>164558.2456</v>
       </c>
       <c r="G203" t="n">
-        <v>-1710075.151213724</v>
+        <v>5.700000000000006</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7637,28 +8037,29 @@
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="C204" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="D204" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="E204" t="n">
-        <v>5.62</v>
+        <v>5.64</v>
       </c>
       <c r="F204" t="n">
-        <v>35000</v>
+        <v>18413.2962</v>
       </c>
       <c r="G204" t="n">
-        <v>-1745075.151213724</v>
+        <v>5.688000000000006</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7676,28 +8077,29 @@
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="C205" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="D205" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="E205" t="n">
-        <v>5.63</v>
+        <v>5.62</v>
       </c>
       <c r="F205" t="n">
-        <v>35403.3303</v>
+        <v>39182.0229</v>
       </c>
       <c r="G205" t="n">
-        <v>-1709671.820913724</v>
+        <v>5.672000000000006</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7715,1648 +8117,7 @@
       <c r="M205" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D206" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E206" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F206" t="n">
-        <v>23360</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1733031.820913724</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D207" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F207" t="n">
-        <v>10</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1733021.820913724</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D208" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F208" t="n">
-        <v>6699.2757</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1733021.820913724</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D209" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E209" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F209" t="n">
-        <v>210020</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1523001.820913724</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C210" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D210" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E210" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F210" t="n">
-        <v>104939.6491</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1523001.820913724</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D211" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1224.9773</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1524226.798213724</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E212" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F212" t="n">
-        <v>10</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1524216.798213724</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E213" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F213" t="n">
-        <v>3810</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1524216.798213724</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="D214" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="E214" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F214" t="n">
-        <v>46035.5697</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1478181.228513724</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="C215" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="D215" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E215" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F215" t="n">
-        <v>10</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1478171.228513724</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C216" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D216" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E216" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F216" t="n">
-        <v>63449.958</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1541621.186513724</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="C217" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="D217" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="E217" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="F217" t="n">
-        <v>2965.3765</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1538655.810013724</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C218" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D218" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E218" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F218" t="n">
-        <v>7381.2028</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1546037.012813724</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C219" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="D219" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="E219" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F219" t="n">
-        <v>10</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1546027.012813724</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C220" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D220" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E220" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F220" t="n">
-        <v>48923.3168</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1594950.329613724</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C221" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D221" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="E221" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F221" t="n">
-        <v>669902.2879</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1594950.329613724</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C222" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D222" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E222" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F222" t="n">
-        <v>10</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1594940.329613724</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D223" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E223" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F223" t="n">
-        <v>88</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1594940.329613724</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D224" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E224" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F224" t="n">
-        <v>11</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1594940.329613724</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C225" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D225" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E225" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F225" t="n">
-        <v>900</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1594040.329613724</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C226" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D226" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E226" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F226" t="n">
-        <v>10</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1594040.329613724</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C227" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D227" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E227" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F227" t="n">
-        <v>11</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1594051.329613724</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C228" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D228" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E228" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F228" t="n">
-        <v>22</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1594073.329613724</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C229" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="D229" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="E229" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="F229" t="n">
-        <v>19856.219</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1574217.110613724</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C230" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D230" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E230" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F230" t="n">
-        <v>29391.53</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1603608.640613724</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D231" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E231" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F231" t="n">
-        <v>7462.3106</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1603608.640613724</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E232" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F232" t="n">
-        <v>49776.277139506</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1553832.363474218</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="D233" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E233" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F233" t="n">
-        <v>49296.9576</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1553832.363474218</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="D234" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E234" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="F234" t="n">
-        <v>106617.6606</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1660450.024074218</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="C235" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D235" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E235" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F235" t="n">
-        <v>50526.02112676</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1609924.002947458</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="C236" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D236" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E236" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F236" t="n">
-        <v>246</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1610170.002947458</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="C237" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="D237" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="E237" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="F237" t="n">
-        <v>26207.5971</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1610170.002947458</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C238" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D238" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="E238" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F238" t="n">
-        <v>32</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1610138.002947458</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C239" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D239" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E239" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="F239" t="n">
-        <v>658144.5614</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C240" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D240" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="E240" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F240" t="n">
-        <v>329126.5789</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C241" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D241" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E241" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F241" t="n">
-        <v>129426.2064</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D242" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E242" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="F242" t="n">
-        <v>35441.2452</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D243" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E243" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F243" t="n">
-        <v>17</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C244" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D244" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E244" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F244" t="n">
-        <v>117</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="C245" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D245" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E245" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F245" t="n">
-        <v>164558.2456</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="C246" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="D246" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="E246" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="F246" t="n">
-        <v>18413.2962</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-970406.7377474578</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="C247" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="E247" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="F247" t="n">
-        <v>39182.0229</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1009588.760647458</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
+      <c r="N205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N276"/>
+  <dimension ref="A1:M276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>8117.863084657063</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>8127.863084657063</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.55</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>7927.863084657063</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>5.61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>7827.863084657063</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>5.57</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,23 @@
         <v>-42172.13691534294</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>5.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +644,23 @@
         <v>10672.07206340706</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>5.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +685,23 @@
         <v>-47656.83663659294</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>5.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +728,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +767,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +806,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,24 +843,21 @@
         <v>-1864121.967807308</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -858,24 +882,21 @@
         <v>-1739521.967807308</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,24 +921,23 @@
         <v>-1739521.967807308</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,24 +962,23 @@
         <v>-1746933.217807308</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -984,24 +1003,23 @@
         <v>-1746933.217807308</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="J16" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1026,24 +1044,21 @@
         <v>-1756933.217807308</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,24 +1083,23 @@
         <v>-1756923.217807308</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.52</v>
       </c>
       <c r="J18" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1110,24 +1124,23 @@
         <v>-2146769.642907308</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="J19" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1165,23 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.49</v>
       </c>
       <c r="J20" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1194,24 +1206,21 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1236,24 +1245,21 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1278,24 +1284,21 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1320,24 +1323,21 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1362,24 +1362,23 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="J25" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1404,24 +1403,23 @@
         <v>-2139377.451007308</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="J26" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1446,24 +1444,23 @@
         <v>-2137411.741907308</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1488,24 +1485,23 @@
         <v>-1955471.741907308</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
       <c r="J28" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1530,24 +1526,21 @@
         <v>-1605465.741907308</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1574,20 +1567,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1614,20 +1606,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1654,20 +1645,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1694,20 +1684,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1734,20 +1723,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1774,20 +1762,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1814,20 +1801,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1854,20 +1840,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1892,22 +1877,23 @@
         <v>-1452713.907607308</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>5.52</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1934,20 +1920,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1974,20 +1959,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2012,22 +1996,23 @@
         <v>-1532603.240907308</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+        <v>5.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2052,22 +2037,23 @@
         <v>-1411838.401707308</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+        <v>5.51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2092,22 +2078,23 @@
         <v>-1376197.96162134</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2132,22 +2119,23 @@
         <v>-1515382.10052134</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+        <v>5.63</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2174,20 +2162,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2212,22 +2199,23 @@
         <v>-1585365.67462134</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+        <v>5.49</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2254,20 +2242,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2294,20 +2281,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2334,20 +2320,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2374,20 +2359,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2414,20 +2398,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2454,20 +2437,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2494,20 +2476,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2534,20 +2515,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2574,20 +2554,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2614,20 +2593,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2654,20 +2632,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2694,20 +2671,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2734,20 +2710,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2772,22 +2747,23 @@
         <v>-1095584.445821339</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+        <v>5.61</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2814,20 +2790,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2854,20 +2829,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2894,20 +2868,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2934,20 +2907,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2974,20 +2946,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3014,20 +2985,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3054,20 +3024,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3094,20 +3063,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3134,20 +3102,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3174,20 +3141,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3214,20 +3180,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3254,20 +3219,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3294,20 +3258,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3334,20 +3297,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3374,20 +3336,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3414,20 +3375,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3454,20 +3414,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3494,20 +3453,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3534,20 +3492,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3574,20 +3531,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3612,22 +3568,21 @@
         <v>-124107.1084186885</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1.036441441441442</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3652,22 +3607,15 @@
         <v>-124097.1084186885</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3694,20 +3642,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3734,20 +3675,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3774,20 +3708,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3814,20 +3741,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3854,20 +3774,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3894,20 +3807,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3934,18 +3840,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L89" t="n">
+        <v>1</v>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3972,16 +3873,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4008,16 +3906,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4044,16 +3939,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4080,16 +3972,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4116,16 +4005,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4152,16 +4038,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4188,16 +4071,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4224,16 +4104,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4260,16 +4137,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4294,18 +4168,15 @@
         <v>154700.5023813116</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4330,18 +4201,15 @@
         <v>-91022.72541868844</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4366,18 +4234,15 @@
         <v>-629859.6450186884</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4404,16 +4269,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4440,16 +4302,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4476,16 +4335,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4512,16 +4368,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4548,16 +4401,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4584,16 +4434,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4620,16 +4467,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4656,16 +4500,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4692,16 +4533,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4728,16 +4566,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4764,16 +4599,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4800,16 +4632,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4836,16 +4665,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4872,16 +4698,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4908,16 +4731,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4944,16 +4764,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4980,16 +4797,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5016,16 +4830,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5052,16 +4863,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5088,16 +4896,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5124,16 +4929,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5160,16 +4962,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5196,16 +4995,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5232,16 +5028,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5268,16 +5061,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5302,18 +5092,15 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5338,18 +5125,15 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5374,18 +5158,15 @@
         <v>-666480.1746135914</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5412,16 +5193,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5446,18 +5224,15 @@
         <v>-684612.5275135915</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5482,18 +5257,15 @@
         <v>-691512.7593135914</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5520,16 +5292,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5556,16 +5325,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5592,16 +5358,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5628,16 +5391,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5664,16 +5424,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5700,16 +5457,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5736,16 +5490,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5772,16 +5523,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5808,16 +5556,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5844,16 +5589,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5880,16 +5622,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5916,16 +5655,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5952,16 +5688,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5988,16 +5721,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6024,16 +5754,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6060,16 +5787,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6096,16 +5820,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6132,16 +5853,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6168,16 +5886,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6204,16 +5919,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6240,16 +5952,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6276,16 +5985,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6312,16 +6018,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6348,16 +6051,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6384,16 +6084,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6420,16 +6117,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6456,16 +6150,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6492,16 +6183,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6528,16 +6216,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6564,16 +6249,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6600,16 +6282,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6636,16 +6315,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6672,16 +6348,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6708,16 +6381,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6744,16 +6414,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6780,16 +6447,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6816,16 +6480,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6852,16 +6513,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6888,16 +6546,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6924,16 +6579,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6960,16 +6612,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6996,16 +6645,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7032,16 +6678,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7068,16 +6711,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7104,16 +6744,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7140,16 +6777,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7176,16 +6810,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7212,16 +6843,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7248,16 +6876,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7284,16 +6909,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7320,16 +6942,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7356,16 +6975,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7392,16 +7008,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7428,16 +7041,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7464,16 +7074,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7500,16 +7107,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7536,16 +7140,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7572,16 +7173,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7608,16 +7206,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7644,16 +7239,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7680,16 +7272,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7714,24 +7303,15 @@
         <v>-1545300.588013592</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>5.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7758,20 +7338,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7798,20 +7371,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7838,20 +7404,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7878,20 +7437,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7918,20 +7470,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7958,20 +7503,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7998,20 +7536,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8038,20 +7569,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8078,20 +7602,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8118,20 +7635,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8158,20 +7668,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8198,20 +7701,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8238,20 +7734,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8278,20 +7767,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8318,20 +7800,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8358,20 +7833,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8398,20 +7866,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8438,20 +7899,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8478,20 +7932,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8518,20 +7965,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8558,20 +7998,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8598,20 +8031,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8638,20 +8064,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8678,20 +8097,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8718,20 +8130,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8758,20 +8163,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8798,20 +8196,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8838,20 +8229,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8878,20 +8262,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8918,20 +8295,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8958,20 +8328,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8998,20 +8361,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9038,20 +8394,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9078,20 +8427,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9118,20 +8460,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9158,20 +8493,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9198,20 +8526,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9238,20 +8559,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9278,20 +8592,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9318,20 +8625,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9358,20 +8658,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9398,20 +8691,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9438,20 +8724,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9478,20 +8757,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9518,20 +8790,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9558,20 +8823,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9598,20 +8856,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9638,20 +8889,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9678,20 +8922,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9718,20 +8955,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9758,20 +8988,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9798,20 +9021,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9838,20 +9054,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9878,20 +9087,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9918,20 +9120,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9958,20 +9153,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9998,20 +9186,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10038,20 +9219,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10078,20 +9252,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10118,20 +9285,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10158,20 +9318,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10198,20 +9351,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10238,20 +9384,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10278,20 +9417,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10318,20 +9450,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10358,20 +9483,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10398,20 +9516,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10438,20 +9549,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10478,20 +9582,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10518,20 +9615,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10558,20 +9648,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10598,20 +9681,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10638,20 +9714,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10678,20 +9747,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10718,20 +9780,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10758,20 +9813,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10798,20 +9846,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10838,20 +9879,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10878,20 +9912,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10918,20 +9945,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10958,20 +9978,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10998,22 +10011,15 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8117.863084657063</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>8127.863084657063</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>7927.863084657063</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>7827.863084657063</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-42172.13691534294</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>10672.07206340706</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-47656.83663659294</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -921,19 +847,11 @@
         <v>-1739521.967807308</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -962,19 +880,11 @@
         <v>-1746933.217807308</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1003,19 +913,11 @@
         <v>-1746933.217807308</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1083,19 +979,11 @@
         <v>-1756923.217807308</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1124,19 +1012,11 @@
         <v>-2146769.642907308</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1165,19 +1045,11 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1209,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1326,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1362,19 +1210,11 @@
         <v>-2113677.237207308</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1403,19 +1243,11 @@
         <v>-2139377.451007308</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1444,19 +1276,11 @@
         <v>-2137411.741907308</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1485,19 +1309,11 @@
         <v>-1955471.741907308</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1529,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1568,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1607,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1646,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1685,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1724,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1763,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1802,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1841,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1877,19 +1639,11 @@
         <v>-1452713.907607308</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1960,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1996,19 +1738,11 @@
         <v>-1532603.240907308</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2037,19 +1771,11 @@
         <v>-1411838.401707308</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2078,19 +1804,11 @@
         <v>-1376197.96162134</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2119,19 +1837,11 @@
         <v>-1515382.10052134</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2163,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2199,19 +1903,11 @@
         <v>-1585365.67462134</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2243,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2282,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2321,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2360,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2399,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2438,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2477,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2555,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2594,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2633,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2672,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2711,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2747,19 +2365,11 @@
         <v>-1095584.445821339</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2830,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2869,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2908,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2986,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3025,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3064,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3103,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3142,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3181,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3220,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3259,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3298,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3337,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3376,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3415,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3493,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3532,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3568,19 +3058,13 @@
         <v>-124107.1084186885</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>1.036441441441442</v>
+        <v>1</v>
       </c>
       <c r="M81" t="inlineStr"/>
     </row>
@@ -3607,7 +3091,7 @@
         <v>-124097.1084186885</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -4168,7 +3652,7 @@
         <v>154700.5023813116</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4201,7 +3685,7 @@
         <v>-91022.72541868844</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4234,7 +3718,7 @@
         <v>-629859.6450186884</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4267,7 +3751,7 @@
         <v>-482168.2304186884</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4300,7 +3784,7 @@
         <v>-476893.2304186884</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4333,7 +3817,7 @@
         <v>-467036.0624186884</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4597,7 +4081,7 @@
         <v>151550.5591864086</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4729,7 +4213,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4762,7 +4246,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4795,7 +4279,7 @@
         <v>63604.90228640864</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4861,7 +4345,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4894,7 +4378,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4927,7 +4411,7 @@
         <v>-666458.1746135914</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4960,7 +4444,7 @@
         <v>-666458.1746135914</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4993,7 +4477,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5026,7 +4510,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5092,7 +4576,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5125,7 +4609,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5158,7 +4642,7 @@
         <v>-666480.1746135914</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5224,7 +4708,7 @@
         <v>-684612.5275135915</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5257,7 +4741,7 @@
         <v>-691512.7593135914</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5290,7 +4774,7 @@
         <v>-691402.9911135914</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5323,7 +4807,7 @@
         <v>-691402.9911135914</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5356,7 +4840,7 @@
         <v>-666534.4064135914</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5389,7 +4873,7 @@
         <v>-1258458.976613591</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5422,7 +4906,7 @@
         <v>-1855123.934313592</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5455,7 +4939,7 @@
         <v>-1965274.706413592</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5488,7 +4972,7 @@
         <v>-1965264.706413592</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5521,7 +5005,7 @@
         <v>-1917084.745013592</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5554,7 +5038,7 @@
         <v>-1683345.476613592</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -8689,10 +8173,14 @@
         <v>-1733021.820913724</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="J236" t="n">
+        <v>5.62</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8725,8 +8213,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8758,8 +8252,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +9014,17 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5.64</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9551,7 +9057,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9580,11 +9090,17 @@
         <v>-1660450.024074218</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9613,11 +9129,17 @@
         <v>-1609924.002947458</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5.63</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +9168,17 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +9207,17 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9712,11 +9246,17 @@
         <v>-1610138.002947458</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9745,11 +9285,17 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.68</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9782,7 +9328,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9815,7 +9365,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9848,7 +9402,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9881,7 +9439,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +9476,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9947,7 +9513,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9980,7 +9550,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10013,13 +9587,17 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
       <c r="M276" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2728,7 +2728,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1132588.951218688</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-715395.6891186885</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-330550.5110186884</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-119039.4327186884</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>269687.8110813115</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-174761.1438186885</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>137124.7855813116</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-629859.6450186884</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-482168.2304186884</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-476893.2304186884</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-467036.0624186884</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>151550.5591864086</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>63604.90228640864</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-666458.1746135914</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-666458.1746135914</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-666447.1746135914</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-666480.1746135914</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-684612.5275135915</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-691512.7593135914</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-691402.9911135914</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-691402.9911135914</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-666534.4064135914</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1258458.976613591</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1855123.934313592</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1965274.706413592</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1965264.706413592</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1917084.745013592</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1683345.476613592</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -7051,10 +7051,14 @@
         <v>-1473060.869157621</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="J202" t="n">
+        <v>5.58</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
@@ -7084,11 +7088,19 @@
         <v>-1312949.371428209</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="J203" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7132,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7348,10 +7366,14 @@
         <v>-1453605.543258227</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J211" t="n">
+        <v>5.55</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7381,11 +7403,19 @@
         <v>-1423456.631958227</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J212" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7444,19 @@
         <v>-1479778.967158227</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J213" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,10 +7485,14 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="J214" t="n">
+        <v>5.56</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7480,11 +7522,19 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="J215" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7566,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7612,10 +7668,14 @@
         <v>-1479729.785358227</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="J219" t="n">
+        <v>5.58</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
@@ -7648,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7747,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7948,17 @@
         <v>-1745061.045313724</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +7991,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8028,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8065,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8102,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8139,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8176,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8213,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8250,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,15 +8283,15 @@
         <v>-1733021.820913724</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="J236" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8213,12 +8323,10 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8252,12 +8360,10 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5.62</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8292,7 +8398,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8325,7 +8435,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8358,7 +8472,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8387,14 +8505,16 @@
         <v>-1524216.798213724</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -8882,11 +9002,17 @@
         <v>-1594073.329613724</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8919,7 +9045,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8952,7 +9082,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8981,11 +9115,15 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9014,15 +9152,13 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>5.64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
@@ -9053,7 +9189,7 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9090,11 +9226,9 @@
         <v>-1660450.024074218</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>5.67</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9129,11 +9263,9 @@
         <v>-1609924.002947458</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9168,11 +9300,9 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9207,11 +9337,9 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>5.66</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9246,11 +9374,9 @@
         <v>-1610138.002947458</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>5.66</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9285,20 +9411,16 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5.68</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -9328,11 +9450,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +9483,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +9516,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +9549,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9582,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9615,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9648,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9587,17 +9681,13 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
       <c r="M276" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -2497,10 +2497,14 @@
         <v>-1106968.571418688</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.62</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2530,11 +2534,19 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2575,19 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,10 +2616,14 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.65</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2632,8 +2656,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2692,19 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,10 +2733,14 @@
         <v>-1132728.951218688</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5.65</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2770,19 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2811,19 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,10 +2852,14 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.66</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2827,11 +2889,19 @@
         <v>-1132588.951218688</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2930,19 @@
         <v>-715395.6891186885</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2971,19 @@
         <v>-330550.5110186884</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3012,17 @@
         <v>-119039.4327186884</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3051,17 @@
         <v>269687.8110813115</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3090,17 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3129,17 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3171,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3210,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3249,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3288,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3327,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3363,17 @@
         <v>-174761.1438186885</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3402,17 @@
         <v>137124.7855813116</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3444,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3483,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3522,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3561,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3600,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3639,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3717,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3756,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3795,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,13 +3831,19 @@
         <v>162700.5023813116</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>1.017968197879859</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -3685,7 +3903,7 @@
         <v>-91022.72541868844</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3936,7 @@
         <v>-629859.6450186884</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,7 +4167,7 @@
         <v>-471656.0404186884</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4114,7 +4332,7 @@
         <v>62131.75678640864</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4365,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4398,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4431,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4464,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4497,7 @@
         <v>63604.90228640864</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4530,7 @@
         <v>3541.825386408644</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4563,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4596,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4629,7 @@
         <v>-666458.1746135914</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -7051,14 +7269,10 @@
         <v>-1473060.869157621</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="J202" t="n">
-        <v>5.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
@@ -7088,19 +7302,11 @@
         <v>-1312949.371428209</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="J203" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7132,14 +7338,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7366,14 +7566,10 @@
         <v>-1453605.543258227</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="J211" t="n">
-        <v>5.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
@@ -7403,19 +7599,11 @@
         <v>-1423456.631958227</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="J212" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7444,19 +7632,11 @@
         <v>-1479778.967158227</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J213" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7485,14 +7665,10 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="J214" t="n">
-        <v>5.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
@@ -7522,19 +7698,11 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="J215" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7566,14 +7734,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7668,14 +7830,10 @@
         <v>-1479729.785358227</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="J219" t="n">
-        <v>5.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
@@ -7708,14 +7866,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7747,14 +7899,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7948,17 +8094,11 @@
         <v>-1745061.045313724</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +8131,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +8164,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8065,11 +8197,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8102,11 +8230,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8139,11 +8263,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +8296,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8213,11 +8329,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +8362,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8287,11 +8395,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8324,11 +8428,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8361,11 +8461,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +8494,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8435,11 +8527,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8472,11 +8560,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8505,16 +8589,14 @@
         <v>-1524216.798213724</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
       <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -8672,10 +8754,14 @@
         <v>-1546037.012813724</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J247" t="n">
+        <v>5.71</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8705,11 +8791,19 @@
         <v>-1546027.012813724</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J248" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8741,8 +8835,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8771,10 +8871,14 @@
         <v>-1594950.329613724</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="J250" t="n">
+        <v>5.63</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
@@ -8804,11 +8908,19 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="J251" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +8949,19 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J252" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8870,10 +8990,14 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J253" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8903,11 +9027,19 @@
         <v>-1594040.329613724</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J254" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +9068,19 @@
         <v>-1594040.329613724</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J255" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8972,8 +9112,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9007,10 +9153,12 @@
       <c r="I257" t="n">
         <v>5.66</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
@@ -9044,7 +9192,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9078,10 +9228,14 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J259" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9115,10 +9269,12 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9152,10 +9308,14 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J261" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9189,10 +9349,14 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J262" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9226,10 +9390,14 @@
         <v>-1660450.024074218</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J263" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9263,10 +9431,14 @@
         <v>-1609924.002947458</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="J264" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,10 +9472,14 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J265" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9337,10 +9513,14 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J266" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9374,10 +9554,14 @@
         <v>-1610138.002947458</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J267" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9411,16 +9595,22 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J268" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -9446,11 +9636,19 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J269" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9479,11 +9677,19 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9512,11 +9718,19 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J271" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9545,11 +9759,19 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J272" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9578,11 +9800,19 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J273" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9611,11 +9841,19 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J274" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9644,11 +9882,19 @@
         <v>-970406.7377474578</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J275" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9677,11 +9923,19 @@
         <v>-1009588.760647458</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J276" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest HYC.xlsx
+++ b/BackTest/2019-10-26 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M276"/>
+  <dimension ref="A1:L276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>24676.1568</v>
       </c>
       <c r="G2" t="n">
-        <v>8117.863084657063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>8127.863084657063</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.55</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>200</v>
       </c>
       <c r="G4" t="n">
-        <v>7927.863084657063</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>5.61</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>7827.863084657063</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,23 @@
         <v>50000</v>
       </c>
       <c r="G6" t="n">
-        <v>-42172.13691534294</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>5.56</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +619,21 @@
         <v>52844.20897875</v>
       </c>
       <c r="G7" t="n">
-        <v>10672.07206340706</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +655,21 @@
         <v>58328.9087</v>
       </c>
       <c r="G8" t="n">
-        <v>-47656.83663659294</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +691,21 @@
         <v>1936195.3843</v>
       </c>
       <c r="G9" t="n">
-        <v>-1983852.220936593</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +727,21 @@
         <v>212321.618929285</v>
       </c>
       <c r="G10" t="n">
-        <v>-1771530.602007308</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +763,23 @@
         <v>291970.8029</v>
       </c>
       <c r="G11" t="n">
-        <v>-2063501.404907308</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>5.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +801,23 @@
         <v>199379.4371</v>
       </c>
       <c r="G12" t="n">
-        <v>-1864121.967807308</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>5.48</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +839,21 @@
         <v>124600</v>
       </c>
       <c r="G13" t="n">
-        <v>-1739521.967807308</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +875,21 @@
         <v>200100</v>
       </c>
       <c r="G14" t="n">
-        <v>-1739521.967807308</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +911,21 @@
         <v>7411.25</v>
       </c>
       <c r="G15" t="n">
-        <v>-1746933.217807308</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +947,21 @@
         <v>2893.3</v>
       </c>
       <c r="G16" t="n">
-        <v>-1746933.217807308</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +983,21 @@
         <v>10000</v>
       </c>
       <c r="G17" t="n">
-        <v>-1756933.217807308</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1019,21 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-1756923.217807308</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1055,21 @@
         <v>389846.4251</v>
       </c>
       <c r="G19" t="n">
-        <v>-2146769.642907308</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1091,21 @@
         <v>33092.4057</v>
       </c>
       <c r="G20" t="n">
-        <v>-2113677.237207308</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1127,21 @@
         <v>5625.2244</v>
       </c>
       <c r="G21" t="n">
-        <v>-2113677.237207308</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1163,21 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>-2113677.237207308</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1199,21 @@
         <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>-2113677.237207308</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1235,21 @@
         <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>-2113677.237207308</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1271,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>-2113677.237207308</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1307,21 @@
         <v>25700.2138</v>
       </c>
       <c r="G26" t="n">
-        <v>-2139377.451007308</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1343,21 @@
         <v>1965.7091</v>
       </c>
       <c r="G27" t="n">
-        <v>-2137411.741907308</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1379,21 @@
         <v>181940</v>
       </c>
       <c r="G28" t="n">
-        <v>-1955471.741907308</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1415,21 @@
         <v>350006</v>
       </c>
       <c r="G29" t="n">
-        <v>-1605465.741907308</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1451,21 @@
         <v>327167</v>
       </c>
       <c r="G30" t="n">
-        <v>-1278298.741907308</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1487,21 @@
         <v>16498.65</v>
       </c>
       <c r="G31" t="n">
-        <v>-1294797.391907308</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1523,21 @@
         <v>16498.65</v>
       </c>
       <c r="G32" t="n">
-        <v>-1278298.741907308</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1559,21 @@
         <v>1960.7948</v>
       </c>
       <c r="G33" t="n">
-        <v>-1278298.741907308</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1595,21 @@
         <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>-1278280.741907308</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1631,21 @@
         <v>140661.6513</v>
       </c>
       <c r="G35" t="n">
-        <v>-1418942.393207308</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1667,21 @@
         <v>24333.4463</v>
       </c>
       <c r="G36" t="n">
-        <v>-1443275.839507308</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1703,21 @@
         <v>10827.6904</v>
       </c>
       <c r="G37" t="n">
-        <v>-1454103.529907308</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1739,21 @@
         <v>1389.6223</v>
       </c>
       <c r="G38" t="n">
-        <v>-1452713.907607308</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1775,21 @@
         <v>24272.6127</v>
       </c>
       <c r="G39" t="n">
-        <v>-1476986.520307308</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1811,21 @@
         <v>1310.5892</v>
       </c>
       <c r="G40" t="n">
-        <v>-1475675.931107308</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1847,21 @@
         <v>56927.3098</v>
       </c>
       <c r="G41" t="n">
-        <v>-1532603.240907308</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1883,21 @@
         <v>120764.8392</v>
       </c>
       <c r="G42" t="n">
-        <v>-1411838.401707308</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1919,21 @@
         <v>35640.440085968</v>
       </c>
       <c r="G43" t="n">
-        <v>-1376197.96162134</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1955,21 @@
         <v>139184.1389</v>
       </c>
       <c r="G44" t="n">
-        <v>-1515382.10052134</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1991,21 @@
         <v>70000</v>
       </c>
       <c r="G45" t="n">
-        <v>-1585382.10052134</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +2027,21 @@
         <v>16.4259</v>
       </c>
       <c r="G46" t="n">
-        <v>-1585365.67462134</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2063,21 @@
         <v>1024.9729</v>
       </c>
       <c r="G47" t="n">
-        <v>-1586390.64752134</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2099,21 @@
         <v>975.9476</v>
       </c>
       <c r="G48" t="n">
-        <v>-1585414.69992134</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2135,21 @@
         <v>333702.8411</v>
       </c>
       <c r="G49" t="n">
-        <v>-1251711.858821339</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2171,21 @@
         <v>78869.74340000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-1172842.115421339</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2207,21 @@
         <v>99846.0012</v>
       </c>
       <c r="G51" t="n">
-        <v>-1072996.114221339</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2243,21 @@
         <v>15627.6106</v>
       </c>
       <c r="G52" t="n">
-        <v>-1072996.114221339</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2279,21 @@
         <v>101735.9317</v>
       </c>
       <c r="G53" t="n">
-        <v>-1174732.045921339</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2315,21 @@
         <v>330.3285</v>
       </c>
       <c r="G54" t="n">
-        <v>-1174401.717421339</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2351,21 @@
         <v>52732.0985</v>
       </c>
       <c r="G55" t="n">
-        <v>-1121669.618921339</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2387,21 @@
         <v>16779.548</v>
       </c>
       <c r="G56" t="n">
-        <v>-1138449.166921339</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2423,21 @@
         <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>-1138449.166921339</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2459,21 @@
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>-1138349.166921339</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2495,21 @@
         <v>26.1476</v>
       </c>
       <c r="G59" t="n">
-        <v>-1138375.314521339</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2531,21 @@
         <v>42790.8687</v>
       </c>
       <c r="G60" t="n">
-        <v>-1095584.445821339</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2567,21 @@
         <v>40579.3805</v>
       </c>
       <c r="G61" t="n">
-        <v>-1055005.065321339</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2603,21 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-1055005.065321339</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2639,21 @@
         <v>52063.506097349</v>
       </c>
       <c r="G63" t="n">
-        <v>-1107068.571418688</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,22 +2675,21 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>-1106968.571418688</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2531,26 +2711,21 @@
         <v>3239.6202</v>
       </c>
       <c r="G65" t="n">
-        <v>-1103728.951218688</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2572,26 +2747,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-1103728.951218688</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2613,22 +2783,21 @@
         <v>46744.6725</v>
       </c>
       <c r="G67" t="n">
-        <v>-1103728.951218688</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2650,24 +2819,21 @@
         <v>5860.3539</v>
       </c>
       <c r="G68" t="n">
-        <v>-1103728.951218688</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2689,26 +2855,21 @@
         <v>34993.9424</v>
       </c>
       <c r="G69" t="n">
-        <v>-1103728.951218688</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2730,22 +2891,21 @@
         <v>29000</v>
       </c>
       <c r="G70" t="n">
-        <v>-1132728.951218688</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2767,26 +2927,21 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-1132718.951218688</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2808,26 +2963,21 @@
         <v>189356.9963</v>
       </c>
       <c r="G72" t="n">
-        <v>-1132718.951218688</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2849,22 +2999,21 @@
         <v>4190.857802651</v>
       </c>
       <c r="G73" t="n">
-        <v>-1132718.951218688</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2886,26 +3035,21 @@
         <v>130</v>
       </c>
       <c r="G74" t="n">
-        <v>-1132588.951218688</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2927,26 +3071,21 @@
         <v>417193.2621</v>
       </c>
       <c r="G75" t="n">
-        <v>-715395.6891186885</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2968,26 +3107,21 @@
         <v>384845.1781</v>
       </c>
       <c r="G76" t="n">
-        <v>-330550.5110186884</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>5.55</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3009,24 +3143,21 @@
         <v>211511.0783</v>
       </c>
       <c r="G77" t="n">
-        <v>-119039.4327186884</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3048,24 +3179,21 @@
         <v>388727.2438</v>
       </c>
       <c r="G78" t="n">
-        <v>269687.8110813115</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3087,24 +3215,21 @@
         <v>108475.0818</v>
       </c>
       <c r="G79" t="n">
-        <v>378162.8928813115</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3126,24 +3251,21 @@
         <v>399</v>
       </c>
       <c r="G80" t="n">
-        <v>378162.8928813115</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3165,24 +3287,21 @@
         <v>502270.0013</v>
       </c>
       <c r="G81" t="n">
-        <v>-124107.1084186885</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3204,24 +3323,21 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>-124097.1084186885</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3243,24 +3359,21 @@
         <v>37429.7707</v>
       </c>
       <c r="G83" t="n">
-        <v>-161526.8791186885</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3282,24 +3395,21 @@
         <v>26512.2647</v>
       </c>
       <c r="G84" t="n">
-        <v>-188039.1438186885</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3321,24 +3431,21 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-188029.1438186885</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3360,24 +3467,21 @@
         <v>13268</v>
       </c>
       <c r="G86" t="n">
-        <v>-174761.1438186885</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3399,24 +3503,21 @@
         <v>311885.9294</v>
       </c>
       <c r="G87" t="n">
-        <v>137124.7855813116</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3438,24 +3539,21 @@
         <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>137124.7855813116</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3477,24 +3575,21 @@
         <v>30</v>
       </c>
       <c r="G89" t="n">
-        <v>137094.7855813116</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1.032837837837838</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3516,24 +3611,15 @@
         <v>180</v>
       </c>
       <c r="G90" t="n">
-        <v>136914.7855813116</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3555,24 +3641,15 @@
         <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>136894.7855813116</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3594,24 +3671,15 @@
         <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>136994.7855813116</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3633,24 +3701,15 @@
         <v>137553.3368</v>
       </c>
       <c r="G93" t="n">
-        <v>136994.7855813116</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3672,24 +3731,15 @@
         <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>137094.7855813116</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3711,24 +3761,15 @@
         <v>56650.2832</v>
       </c>
       <c r="G95" t="n">
-        <v>80444.50238131155</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3750,24 +3791,15 @@
         <v>82246</v>
       </c>
       <c r="G96" t="n">
-        <v>162690.5023813116</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3789,24 +3821,15 @@
         <v>395837.6729</v>
       </c>
       <c r="G97" t="n">
-        <v>162690.5023813116</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3828,24 +3851,15 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>162700.5023813116</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1.017968197879859</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3867,18 +3881,15 @@
         <v>8000</v>
       </c>
       <c r="G99" t="n">
-        <v>154700.5023813116</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3900,18 +3911,15 @@
         <v>245723.2278</v>
       </c>
       <c r="G100" t="n">
-        <v>-91022.72541868844</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3933,18 +3941,15 @@
         <v>538836.9196</v>
       </c>
       <c r="G101" t="n">
-        <v>-629859.6450186884</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3966,18 +3971,15 @@
         <v>147691.4146</v>
       </c>
       <c r="G102" t="n">
-        <v>-482168.2304186884</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3999,18 +4001,15 @@
         <v>5275</v>
       </c>
       <c r="G103" t="n">
-        <v>-476893.2304186884</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4032,18 +4031,15 @@
         <v>9857.168</v>
       </c>
       <c r="G104" t="n">
-        <v>-467036.0624186884</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4065,18 +4061,15 @@
         <v>306926.321</v>
       </c>
       <c r="G105" t="n">
-        <v>-467036.0624186884</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4098,18 +4091,15 @@
         <v>22</v>
       </c>
       <c r="G106" t="n">
-        <v>-467014.0624186884</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4131,18 +4121,15 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-467004.0624186884</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4164,18 +4151,15 @@
         <v>4651.978</v>
       </c>
       <c r="G108" t="n">
-        <v>-471656.0404186884</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4197,18 +4181,15 @@
         <v>118</v>
       </c>
       <c r="G109" t="n">
-        <v>-471774.0404186884</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4230,18 +4211,15 @@
         <v>17632.796094903</v>
       </c>
       <c r="G110" t="n">
-        <v>-471774.0404186884</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4263,18 +4241,15 @@
         <v>336412.187076303</v>
       </c>
       <c r="G111" t="n">
-        <v>-135361.8533423854</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4296,18 +4271,15 @@
         <v>286912.412528794</v>
       </c>
       <c r="G112" t="n">
-        <v>151550.5591864086</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4329,18 +4301,15 @@
         <v>89418.8024</v>
       </c>
       <c r="G113" t="n">
-        <v>62131.75678640864</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4362,18 +4331,15 @@
         <v>1517.1455</v>
       </c>
       <c r="G114" t="n">
-        <v>63648.90228640864</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4395,18 +4361,15 @@
         <v>90165</v>
       </c>
       <c r="G115" t="n">
-        <v>63648.90228640864</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4428,18 +4391,15 @@
         <v>5168.5815</v>
       </c>
       <c r="G116" t="n">
-        <v>63648.90228640864</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4461,18 +4421,15 @@
         <v>39990.2848</v>
       </c>
       <c r="G117" t="n">
-        <v>63648.90228640864</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4494,18 +4451,15 @@
         <v>44</v>
       </c>
       <c r="G118" t="n">
-        <v>63604.90228640864</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4527,18 +4481,15 @@
         <v>60063.0769</v>
       </c>
       <c r="G119" t="n">
-        <v>3541.825386408644</v>
-      </c>
-      <c r="H119" t="n">
         <v>2</v>
       </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4560,18 +4511,15 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>3551.825386408644</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4593,18 +4541,15 @@
         <v>32.7912</v>
       </c>
       <c r="G121" t="n">
-        <v>3551.825386408644</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4626,18 +4571,15 @@
         <v>670010</v>
       </c>
       <c r="G122" t="n">
-        <v>-666458.1746135914</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4659,18 +4601,15 @@
         <v>11</v>
       </c>
       <c r="G123" t="n">
-        <v>-666458.1746135914</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4692,18 +4631,15 @@
         <v>11</v>
       </c>
       <c r="G124" t="n">
-        <v>-666447.1746135914</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4725,18 +4661,15 @@
         <v>88</v>
       </c>
       <c r="G125" t="n">
-        <v>-666447.1746135914</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4758,18 +4691,15 @@
         <v>50011</v>
       </c>
       <c r="G126" t="n">
-        <v>-666447.1746135914</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4791,18 +4721,15 @@
         <v>33</v>
       </c>
       <c r="G127" t="n">
-        <v>-666447.1746135914</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4824,18 +4751,15 @@
         <v>244</v>
       </c>
       <c r="G128" t="n">
-        <v>-666447.1746135914</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4857,18 +4781,15 @@
         <v>33</v>
       </c>
       <c r="G129" t="n">
-        <v>-666480.1746135914</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4890,18 +4811,15 @@
         <v>11</v>
       </c>
       <c r="G130" t="n">
-        <v>-666491.1746135914</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4923,18 +4841,15 @@
         <v>18121.3529</v>
       </c>
       <c r="G131" t="n">
-        <v>-684612.5275135915</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4956,18 +4871,15 @@
         <v>6900.2318</v>
       </c>
       <c r="G132" t="n">
-        <v>-691512.7593135914</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4989,18 +4901,15 @@
         <v>109.7682</v>
       </c>
       <c r="G133" t="n">
-        <v>-691402.9911135914</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5022,18 +4931,15 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>-691402.9911135914</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5055,18 +4961,15 @@
         <v>24868.5847</v>
       </c>
       <c r="G135" t="n">
-        <v>-666534.4064135914</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5088,18 +4991,15 @@
         <v>591924.5702</v>
       </c>
       <c r="G136" t="n">
-        <v>-1258458.976613591</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5121,18 +5021,15 @@
         <v>596664.9577</v>
       </c>
       <c r="G137" t="n">
-        <v>-1855123.934313592</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5154,18 +5051,15 @@
         <v>110150.7721</v>
       </c>
       <c r="G138" t="n">
-        <v>-1965274.706413592</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5187,18 +5081,15 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>-1965264.706413592</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5220,18 +5111,15 @@
         <v>48179.9614</v>
       </c>
       <c r="G140" t="n">
-        <v>-1917084.745013592</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5253,18 +5141,15 @@
         <v>233739.2684</v>
       </c>
       <c r="G141" t="n">
-        <v>-1683345.476613592</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5286,18 +5171,15 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>-1683334.476613592</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5319,18 +5201,15 @@
         <v>98127.67879999999</v>
       </c>
       <c r="G143" t="n">
-        <v>-1585206.797813592</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5352,18 +5231,15 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>-1585196.797813592</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5385,18 +5261,15 @@
         <v>10.6571</v>
       </c>
       <c r="G145" t="n">
-        <v>-1585207.454913592</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5418,18 +5291,15 @@
         <v>38502.6908</v>
       </c>
       <c r="G146" t="n">
-        <v>-1623710.145713591</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5451,18 +5321,15 @@
         <v>3955.5516</v>
       </c>
       <c r="G147" t="n">
-        <v>-1623710.145713591</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5484,18 +5351,15 @@
         <v>139501.8892</v>
       </c>
       <c r="G148" t="n">
-        <v>-1763212.034913592</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5517,18 +5381,15 @@
         <v>10000</v>
       </c>
       <c r="G149" t="n">
-        <v>-1753212.034913592</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5550,18 +5411,15 @@
         <v>148995.2924</v>
       </c>
       <c r="G150" t="n">
-        <v>-1753212.034913592</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5583,18 +5441,15 @@
         <v>8600.3932</v>
       </c>
       <c r="G151" t="n">
-        <v>-1753212.034913592</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5616,18 +5471,15 @@
         <v>42.7165</v>
       </c>
       <c r="G152" t="n">
-        <v>-1753169.318413591</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5649,18 +5501,15 @@
         <v>143102.9065</v>
       </c>
       <c r="G153" t="n">
-        <v>-1896272.224913592</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5682,18 +5531,15 @@
         <v>95140.2439</v>
       </c>
       <c r="G154" t="n">
-        <v>-1801131.981013591</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5715,18 +5561,15 @@
         <v>95067.2439</v>
       </c>
       <c r="G155" t="n">
-        <v>-1801131.981013591</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5748,18 +5591,15 @@
         <v>137935.5853</v>
       </c>
       <c r="G156" t="n">
-        <v>-1663196.395713591</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5781,18 +5621,15 @@
         <v>65</v>
       </c>
       <c r="G157" t="n">
-        <v>-1663261.395713591</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5814,18 +5651,15 @@
         <v>7059.763</v>
       </c>
       <c r="G158" t="n">
-        <v>-1670321.158713592</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5847,18 +5681,15 @@
         <v>126897.2418</v>
       </c>
       <c r="G159" t="n">
-        <v>-1543423.916913592</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5880,18 +5711,15 @@
         <v>153074.9321</v>
       </c>
       <c r="G160" t="n">
-        <v>-1543423.916913592</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5913,18 +5741,15 @@
         <v>33</v>
       </c>
       <c r="G161" t="n">
-        <v>-1543423.916913592</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5946,18 +5771,15 @@
         <v>76473.387</v>
       </c>
       <c r="G162" t="n">
-        <v>-1619897.303913592</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5979,18 +5801,15 @@
         <v>3082.0201</v>
       </c>
       <c r="G163" t="n">
-        <v>-1619897.303913592</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6012,18 +5831,15 @@
         <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>-1619877.303913592</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6045,18 +5861,15 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-1619867.303913592</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6078,18 +5891,15 @@
         <v>11</v>
       </c>
       <c r="G166" t="n">
-        <v>-1619878.303913592</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6111,18 +5921,15 @@
         <v>18961.7928</v>
       </c>
       <c r="G167" t="n">
-        <v>-1638840.096713592</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6144,18 +5951,15 @@
         <v>913256.4473999999</v>
       </c>
       <c r="G168" t="n">
-        <v>-725583.6493135917</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6177,18 +5981,15 @@
         <v>245003.6842</v>
       </c>
       <c r="G169" t="n">
-        <v>-970587.3335135917</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6210,18 +6011,15 @@
         <v>20</v>
       </c>
       <c r="G170" t="n">
-        <v>-970607.3335135917</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6243,18 +6041,15 @@
         <v>12365.9978</v>
       </c>
       <c r="G171" t="n">
-        <v>-982973.3313135917</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6276,18 +6071,15 @@
         <v>232376.5121</v>
       </c>
       <c r="G172" t="n">
-        <v>-750596.8192135917</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6309,18 +6101,15 @@
         <v>77</v>
       </c>
       <c r="G173" t="n">
-        <v>-750673.8192135917</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6342,18 +6131,15 @@
         <v>745028.528</v>
       </c>
       <c r="G174" t="n">
-        <v>-5645.291213591699</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6375,18 +6161,15 @@
         <v>121</v>
       </c>
       <c r="G175" t="n">
-        <v>-5524.291213591699</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6408,18 +6191,15 @@
         <v>32925.4119</v>
       </c>
       <c r="G176" t="n">
-        <v>-38449.7031135917</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6441,18 +6221,15 @@
         <v>55</v>
       </c>
       <c r="G177" t="n">
-        <v>-38394.7031135917</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6474,18 +6251,15 @@
         <v>809610.6942</v>
       </c>
       <c r="G178" t="n">
-        <v>-848005.3973135917</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6507,18 +6281,15 @@
         <v>44</v>
       </c>
       <c r="G179" t="n">
-        <v>-847961.3973135917</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6540,18 +6311,15 @@
         <v>456825.6312</v>
       </c>
       <c r="G180" t="n">
-        <v>-1304787.028513592</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6573,18 +6341,15 @@
         <v>20</v>
       </c>
       <c r="G181" t="n">
-        <v>-1304767.028513592</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6606,18 +6371,15 @@
         <v>57.95</v>
       </c>
       <c r="G182" t="n">
-        <v>-1304824.978513592</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6639,18 +6401,15 @@
         <v>271683.9823</v>
       </c>
       <c r="G183" t="n">
-        <v>-1304824.978513592</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6672,18 +6431,15 @@
         <v>18</v>
       </c>
       <c r="G184" t="n">
-        <v>-1304806.978513592</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6705,18 +6461,15 @@
         <v>10</v>
       </c>
       <c r="G185" t="n">
-        <v>-1304796.978513592</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6738,18 +6491,15 @@
         <v>5804.6861</v>
       </c>
       <c r="G186" t="n">
-        <v>-1310601.664613592</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6771,18 +6521,15 @@
         <v>51</v>
       </c>
       <c r="G187" t="n">
-        <v>-1310601.664613592</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6804,18 +6551,15 @@
         <v>52029.1757</v>
       </c>
       <c r="G188" t="n">
-        <v>-1362630.840313592</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6837,18 +6581,15 @@
         <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>-1362620.840313592</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6870,18 +6611,15 @@
         <v>23947.7477</v>
       </c>
       <c r="G190" t="n">
-        <v>-1386568.588013592</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6903,18 +6641,15 @@
         <v>59000</v>
       </c>
       <c r="G191" t="n">
-        <v>-1445568.588013592</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6936,18 +6671,15 @@
         <v>18</v>
       </c>
       <c r="G192" t="n">
-        <v>-1445550.588013592</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6969,18 +6701,15 @@
         <v>99750</v>
       </c>
       <c r="G193" t="n">
-        <v>-1545300.588013592</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7002,18 +6731,15 @@
         <v>170036.4935</v>
       </c>
       <c r="G194" t="n">
-        <v>-1545300.588013592</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7035,18 +6761,15 @@
         <v>88652.4822</v>
       </c>
       <c r="G195" t="n">
-        <v>-1456648.105813592</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7068,18 +6791,15 @@
         <v>101074.4947</v>
       </c>
       <c r="G196" t="n">
-        <v>-1557722.600513592</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7101,18 +6821,15 @@
         <v>7233.2885</v>
       </c>
       <c r="G197" t="n">
-        <v>-1550489.312013592</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7134,18 +6851,15 @@
         <v>13763.2437</v>
       </c>
       <c r="G198" t="n">
-        <v>-1550489.312013592</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7167,18 +6881,15 @@
         <v>74091.542985383</v>
       </c>
       <c r="G199" t="n">
-        <v>-1476397.769028209</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7200,18 +6911,15 @@
         <v>12324.75</v>
       </c>
       <c r="G200" t="n">
-        <v>-1488722.519028209</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7233,18 +6941,15 @@
         <v>27830.1075</v>
       </c>
       <c r="G201" t="n">
-        <v>-1516552.626528209</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7266,18 +6971,15 @@
         <v>43491.757370588</v>
       </c>
       <c r="G202" t="n">
-        <v>-1473060.869157621</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7299,18 +7001,15 @@
         <v>160111.497729412</v>
       </c>
       <c r="G203" t="n">
-        <v>-1312949.371428209</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7332,18 +7031,15 @@
         <v>100251.5613</v>
       </c>
       <c r="G204" t="n">
-        <v>-1212697.810128209</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7365,18 +7061,15 @@
         <v>70102.6501</v>
       </c>
       <c r="G205" t="n">
-        <v>-1212697.810128209</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7398,18 +7091,15 @@
         <v>248.1946</v>
       </c>
       <c r="G206" t="n">
-        <v>-1212946.004728209</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7431,18 +7121,15 @@
         <v>50</v>
       </c>
       <c r="G207" t="n">
-        <v>-1212896.004728209</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7464,18 +7151,15 @@
         <v>173385.307430018</v>
       </c>
       <c r="G208" t="n">
-        <v>-1386281.312158227</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7497,18 +7181,15 @@
         <v>3553.6767</v>
       </c>
       <c r="G209" t="n">
-        <v>-1382727.635458227</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7530,18 +7211,15 @@
         <v>227643.4474</v>
       </c>
       <c r="G210" t="n">
-        <v>-1610371.082858227</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7563,18 +7241,15 @@
         <v>156765.5396</v>
       </c>
       <c r="G211" t="n">
-        <v>-1453605.543258227</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7596,18 +7271,15 @@
         <v>30148.9113</v>
       </c>
       <c r="G212" t="n">
-        <v>-1423456.631958227</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7629,18 +7301,15 @@
         <v>56322.3352</v>
       </c>
       <c r="G213" t="n">
-        <v>-1479778.967158227</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7662,18 +7331,15 @@
         <v>18.1818</v>
       </c>
       <c r="G214" t="n">
-        <v>-1479760.785358227</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7695,18 +7361,15 @@
         <v>96.9696</v>
       </c>
       <c r="G215" t="n">
-        <v>-1479760.785358227</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7728,18 +7391,15 @@
         <v>18.1818</v>
       </c>
       <c r="G216" t="n">
-        <v>-1479760.785358227</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7761,18 +7421,15 @@
         <v>17003.2851</v>
       </c>
       <c r="G217" t="n">
-        <v>-1479760.785358227</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7794,18 +7451,15 @@
         <v>20</v>
       </c>
       <c r="G218" t="n">
-        <v>-1479740.785358227</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7827,18 +7481,15 @@
         <v>11</v>
       </c>
       <c r="G219" t="n">
-        <v>-1479729.785358227</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7860,18 +7511,15 @@
         <v>11738.1643</v>
       </c>
       <c r="G220" t="n">
-        <v>-1491467.949658227</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7893,18 +7541,15 @@
         <v>11758.1643</v>
       </c>
       <c r="G221" t="n">
-        <v>-1479709.785358227</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7926,18 +7571,15 @@
         <v>57833.7573</v>
       </c>
       <c r="G222" t="n">
-        <v>-1537543.542658227</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7959,18 +7601,15 @@
         <v>61601.0759</v>
       </c>
       <c r="G223" t="n">
-        <v>-1537543.542658227</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7992,18 +7631,15 @@
         <v>67524.91624450299</v>
       </c>
       <c r="G224" t="n">
-        <v>-1470018.626413724</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8025,18 +7661,15 @@
         <v>770</v>
       </c>
       <c r="G225" t="n">
-        <v>-1469248.626413724</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8058,18 +7691,15 @@
         <v>36957.061655497</v>
       </c>
       <c r="G226" t="n">
-        <v>-1469248.626413724</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8091,18 +7721,15 @@
         <v>275812.4189</v>
       </c>
       <c r="G227" t="n">
-        <v>-1745061.045313724</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8124,18 +7751,15 @@
         <v>37667.7961</v>
       </c>
       <c r="G228" t="n">
-        <v>-1707393.249213724</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8157,18 +7781,15 @@
         <v>11</v>
       </c>
       <c r="G229" t="n">
-        <v>-1707404.249213724</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8190,18 +7811,15 @@
         <v>2670.902</v>
       </c>
       <c r="G230" t="n">
-        <v>-1710075.151213724</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8223,18 +7841,15 @@
         <v>38546.2333</v>
       </c>
       <c r="G231" t="n">
-        <v>-1710075.151213724</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8256,18 +7871,15 @@
         <v>30912.8734</v>
       </c>
       <c r="G232" t="n">
-        <v>-1710075.151213724</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8289,18 +7901,15 @@
         <v>35000</v>
       </c>
       <c r="G233" t="n">
-        <v>-1745075.151213724</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8322,18 +7931,15 @@
         <v>35403.3303</v>
       </c>
       <c r="G234" t="n">
-        <v>-1709671.820913724</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8355,18 +7961,15 @@
         <v>23360</v>
       </c>
       <c r="G235" t="n">
-        <v>-1733031.820913724</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8388,18 +7991,15 @@
         <v>10</v>
       </c>
       <c r="G236" t="n">
-        <v>-1733021.820913724</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8421,18 +8021,15 @@
         <v>6699.2757</v>
       </c>
       <c r="G237" t="n">
-        <v>-1733021.820913724</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8454,18 +8051,15 @@
         <v>210020</v>
       </c>
       <c r="G238" t="n">
-        <v>-1523001.820913724</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8487,18 +8081,15 @@
         <v>104939.6491</v>
       </c>
       <c r="G239" t="n">
-        <v>-1523001.820913724</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8520,18 +8111,15 @@
         <v>1224.9773</v>
       </c>
       <c r="G240" t="n">
-        <v>-1524226.798213724</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8553,18 +8141,15 @@
         <v>10</v>
       </c>
       <c r="G241" t="n">
-        <v>-1524216.798213724</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8586,18 +8171,15 @@
         <v>3810</v>
       </c>
       <c r="G242" t="n">
-        <v>-1524216.798213724</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8619,18 +8201,15 @@
         <v>46035.5697</v>
       </c>
       <c r="G243" t="n">
-        <v>-1478181.228513724</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8652,18 +8231,15 @@
         <v>10</v>
       </c>
       <c r="G244" t="n">
-        <v>-1478171.228513724</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8685,18 +8261,15 @@
         <v>63449.958</v>
       </c>
       <c r="G245" t="n">
-        <v>-1541621.186513724</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8718,18 +8291,15 @@
         <v>2965.3765</v>
       </c>
       <c r="G246" t="n">
-        <v>-1538655.810013724</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8751,22 +8321,15 @@
         <v>7381.2028</v>
       </c>
       <c r="G247" t="n">
-        <v>-1546037.012813724</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J247" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8788,26 +8351,15 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>-1546027.012813724</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J248" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8829,24 +8381,15 @@
         <v>48923.3168</v>
       </c>
       <c r="G249" t="n">
-        <v>-1594950.329613724</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8868,22 +8411,15 @@
         <v>669902.2879</v>
       </c>
       <c r="G250" t="n">
-        <v>-1594950.329613724</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="J250" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8905,26 +8441,15 @@
         <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>-1594940.329613724</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="J251" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8946,26 +8471,15 @@
         <v>88</v>
       </c>
       <c r="G252" t="n">
-        <v>-1594940.329613724</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J252" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8987,22 +8501,15 @@
         <v>11</v>
       </c>
       <c r="G253" t="n">
-        <v>-1594940.329613724</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J253" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9024,26 +8531,15 @@
         <v>900</v>
       </c>
       <c r="G254" t="n">
-        <v>-1594040.329613724</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J254" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9065,26 +8561,15 @@
         <v>10</v>
       </c>
       <c r="G255" t="n">
-        <v>-1594040.329613724</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J255" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9106,24 +8591,15 @@
         <v>11</v>
       </c>
       <c r="G256" t="n">
-        <v>-1594051.329613724</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9145,26 +8621,15 @@
         <v>22</v>
       </c>
       <c r="G257" t="n">
-        <v>-1594073.329613724</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J257" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9186,24 +8651,15 @@
         <v>19856.219</v>
       </c>
       <c r="G258" t="n">
-        <v>-1574217.110613724</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9225,26 +8681,15 @@
         <v>29391.53</v>
       </c>
       <c r="G259" t="n">
-        <v>-1603608.640613724</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J259" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9266,24 +8711,15 @@
         <v>7462.3106</v>
       </c>
       <c r="G260" t="n">
-        <v>-1603608.640613724</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9305,26 +8741,15 @@
         <v>49776.277139506</v>
       </c>
       <c r="G261" t="n">
-        <v>-1553832.363474218</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J261" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9346,26 +8771,15 @@
         <v>49296.9576</v>
       </c>
       <c r="G262" t="n">
-        <v>-1553832.363474218</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J262" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9387,26 +8801,15 @@
         <v>106617.6606</v>
       </c>
       <c r="G263" t="n">
-        <v>-1660450.024074218</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J263" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9428,26 +8831,15 @@
         <v>50526.02112676</v>
       </c>
       <c r="G264" t="n">
-        <v>-1609924.002947458</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="J264" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9469,26 +8861,15 @@
         <v>246</v>
       </c>
       <c r="G265" t="n">
-        <v>-1610170.002947458</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J265" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9510,26 +8891,15 @@
         <v>26207.5971</v>
       </c>
       <c r="G266" t="n">
-        <v>-1610170.002947458</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J266" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9551,26 +8921,15 @@
         <v>32</v>
       </c>
       <c r="G267" t="n">
-        <v>-1610138.002947458</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J267" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9592,26 +8951,15 @@
         <v>658144.5614</v>
       </c>
       <c r="G268" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J268" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9633,26 +8981,15 @@
         <v>329126.5789</v>
       </c>
       <c r="G269" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J269" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9674,26 +9011,15 @@
         <v>129426.2064</v>
       </c>
       <c r="G270" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J270" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9715,26 +9041,15 @@
         <v>35441.2452</v>
       </c>
       <c r="G271" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J271" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9756,26 +9071,15 @@
         <v>17</v>
       </c>
       <c r="G272" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J272" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9797,26 +9101,15 @@
         <v>117</v>
       </c>
       <c r="G273" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J273" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9838,26 +9131,15 @@
         <v>164558.2456</v>
       </c>
       <c r="G274" t="n">
-        <v>-951993.4415474578</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J274" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9879,26 +9161,15 @@
         <v>18413.2962</v>
       </c>
       <c r="G275" t="n">
-        <v>-970406.7377474578</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J275" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9920,26 +9191,15 @@
         <v>39182.0229</v>
       </c>
       <c r="G276" t="n">
-        <v>-1009588.760647458</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J276" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
